--- a/data/뽐뿌.xlsx
+++ b/data/뽐뿌.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="665">
   <si>
     <t>제목</t>
   </si>
@@ -31,322 +31,1984 @@
     <t>추천수</t>
   </si>
   <si>
-    <t>부산에있는 신기한 교통수단</t>
-  </si>
-  <si>
-    <t>모더나2차 맞으신분들 궁금합니다</t>
+    <t>쯔양 쉴드 치는분들 이해가 안갑니다</t>
+  </si>
+  <si>
+    <t>디즈니 플러스 자막 ㄷㄷ</t>
+  </si>
+  <si>
+    <t>오징어게임 배우 만난 썰 푸는 엘르패닝 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>바리스타 2급 합격이라는데 참 의미없네요</t>
+  </si>
+  <si>
+    <t>스타벅스 140장씩 파는분은 뮐까요?</t>
+  </si>
+  <si>
+    <t>오늘부터 일산대교 다시 유료 전환</t>
+  </si>
+  <si>
+    <t>내일이면 넷플 지옥 공개네요</t>
+  </si>
+  <si>
+    <t>조선족이 한국에 불만인 점.JPG</t>
+  </si>
+  <si>
+    <t>디플 런닝맨 이번화는 좀 성의가 없어 보이네요.</t>
+  </si>
+  <si>
+    <t>흉기 휘두르는데 도망간 여경..jpg</t>
+  </si>
+  <si>
+    <t>바르는 파스 뭐 쓰시나요?</t>
+  </si>
+  <si>
+    <t>캐시워크 퀴즈정답</t>
+  </si>
+  <si>
+    <t>12월 사전청약인데3기 신도시 5곳 중 3곳 '보상률 0%' / SBS</t>
+  </si>
+  <si>
+    <t>러블리즈 미주 공식 입장</t>
+  </si>
+  <si>
+    <t>이거 스팸이죠?</t>
+  </si>
+  <si>
+    <t>영어 프리토킹에 토익이 도움이 될까요??</t>
+  </si>
+  <si>
+    <t>탄산수..뭔 맛에 드시나요-_-?</t>
+  </si>
+  <si>
+    <t>이제 수능 인구가 50만명이군요</t>
+  </si>
+  <si>
+    <t>'우영미'가 생각하는 한국 남자</t>
+  </si>
+  <si>
+    <t>힘든일은 진짜 한번에 닥친다던데</t>
+  </si>
+  <si>
+    <t>내일 얀더나 떨립니다</t>
+  </si>
+  <si>
+    <t>공사중인 미국 국경 넘는 멕시코 남자</t>
+  </si>
+  <si>
+    <t>빌게이츠가 돈 많은가요?</t>
+  </si>
+  <si>
+    <t>게임 방송중에 "타이밍 레전드 영상" 하나 올려봅니다</t>
+  </si>
+  <si>
+    <t>자녀 초딩때 당첨된 청약이 대학교 졸업해도 입주가 불가하네요;</t>
+  </si>
+  <si>
+    <t>칼부림 나는데 여경 1명 보낸게 잘못 아닌가요?</t>
+  </si>
+  <si>
+    <t>나는솔로 이번엔 진짜 평범남녀만 나온듯 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>조카가 오늘 수능봅니다..응원좀 부탁드립니다</t>
+  </si>
+  <si>
+    <t>배송완료만 뜨고 물건이 안오는경우도 있나요</t>
+  </si>
+  <si>
+    <t>군대가서 느낀것중에 하나가.. 예상외로 다들  여친이 있는 것이죠</t>
+  </si>
+  <si>
+    <t>신세계는 진짜 명작이네요</t>
+  </si>
+  <si>
+    <t>운전할때 장나라 노래가 은은하고 좋더군요.</t>
+  </si>
+  <si>
+    <t>요즘 홍가리비가 제철인가보네요</t>
+  </si>
+  <si>
+    <t>한잔해요</t>
+  </si>
+  <si>
+    <t>오징어게임 감독도 블랙리스트 출신..</t>
+  </si>
+  <si>
+    <t>뽐뿌도 일베화 되가네요.</t>
+  </si>
+  <si>
+    <t>여경은 차라리</t>
+  </si>
+  <si>
+    <t>술취한 ㅅㄲ가 도로에 던진 가로수 경계석에 오토바이 배달 청년이 부딪혀 사망.. youtub...</t>
+  </si>
+  <si>
+    <t>돈 많은 여자 꼬시고 싶네요</t>
+  </si>
+  <si>
+    <t>자위대 식단</t>
+  </si>
+  <si>
+    <t>알뜰폰 1메가 무제한이 이렇게 쓰레기인줄은 몰랐네요</t>
+  </si>
+  <si>
+    <t>CGV 선착순 무료 팝콘쿠폰</t>
+  </si>
+  <si>
+    <t>화이자 접종후 가슴통증으로 내일 병원 가야겠네요...</t>
+  </si>
+  <si>
+    <t>군대최고의 가성비 군용물품 .jpg</t>
+  </si>
+  <si>
+    <t>트와이스 팬들한테 테러받고 있는 박명수</t>
+  </si>
+  <si>
+    <t>당근마켓 이런거 신고 못하나요</t>
+  </si>
+  <si>
+    <t>층간소음 신고받은 여경 현장 도망쳐... 경찰 "돌아가시지 않은걸 다행으로 여겨야"</t>
+  </si>
+  <si>
+    <t>진지하게 상담이라도 받으려고 글올리면 댓글 수준이 답없네요.</t>
+  </si>
+  <si>
+    <t>수능시험 감독 일당 15만원</t>
+  </si>
+  <si>
+    <t>아 야근하니까 너무 힘드네요..</t>
+  </si>
+  <si>
+    <t>요소수 8천리터 들여와 시가6배로 팔려던 중국인 적발</t>
+  </si>
+  <si>
+    <t>해피머니를 장터에서 팔려는데 사기꾼일까요?</t>
+  </si>
+  <si>
+    <t>층간소음 뉴스 떠서 그런가</t>
+  </si>
+  <si>
+    <t>장난감 검색을 어떻게 해야할지..도전하실분(?)</t>
+  </si>
+  <si>
+    <t>와인따기는 언제나 어렵네요...</t>
+  </si>
+  <si>
+    <t>아이폰 13 쓰시는 분들 어때요?</t>
+  </si>
+  <si>
+    <t>층간소음에 흉기 휘두른 남성, 출동한 여경은 현장 벗어났다</t>
+  </si>
+  <si>
+    <t>2022년 월드컵 진출 확률.jpg</t>
+  </si>
+  <si>
+    <t>배달비 절반을 가게에서 부담한다면 왜 포장 할인이 의외로 드물까요?</t>
+  </si>
+  <si>
+    <t>야식을 먹다 안먹으니 배가 고프네요</t>
+  </si>
+  <si>
+    <t>경찰이 무력행사에 과장증언했다 글올리니까</t>
+  </si>
+  <si>
+    <t>라섹하고 시력유지</t>
+  </si>
+  <si>
+    <t>커리 미쳤네요</t>
+  </si>
+  <si>
+    <t>꼬북칩 인절미맛 존맛이네요..;ㅋㅋ</t>
+  </si>
+  <si>
+    <t>211117 KBO 코시하이라이트 박지영(샤론박) 오효주 김민아</t>
+  </si>
+  <si>
+    <t>위드 코로나인데 카페내 마스크 의무는 없어진건가요</t>
+  </si>
+  <si>
+    <t>고객인데 차속에서 히터 틀고 자고 있으면 깨워야 겠죠?</t>
+  </si>
+  <si>
+    <t>층간소음피해자인데 공무집행방해죄가 됬거든요</t>
+  </si>
+  <si>
+    <t>층간소음 막아주는 런닝머신</t>
+  </si>
+  <si>
+    <t>프로야구 한국시리즈 매진 연이어 실패</t>
+  </si>
+  <si>
+    <t>저는 종가집 두부는 인정 합니다.</t>
+  </si>
+  <si>
+    <t>경찰이 경찰을 불렀는데 여경이 오면</t>
+  </si>
+  <si>
+    <t>오늘 85인치 tv를 직저봤는데</t>
+  </si>
+  <si>
+    <t>튜닝카 (feat.쇼핑카트)</t>
+  </si>
+  <si>
+    <t>영화 신세계에서 연변거지들은 누군지 아시나요?</t>
+  </si>
+  <si>
+    <t>몰카범죄 기승.jpg</t>
+  </si>
+  <si>
+    <t>배달음식 가게에 직접 전화주문 해도 혜택 없죠?</t>
+  </si>
+  <si>
+    <t>서울에 기상캐스터 나와주세요</t>
+  </si>
+  <si>
+    <t>또 여경 사건터졌네요 호주는 여성할당제 폐지했습니다</t>
+  </si>
+  <si>
+    <t>흉기 난동하니 여경이 도망을 가다니 혈세를 왜 저런것들한테 주나요</t>
+  </si>
+  <si>
+    <t>와이프랑 같이 일하니 장단점이 있네요</t>
+  </si>
+  <si>
+    <t>엑셀2021 사용중인데 인터페이스가 갑자기 바껴버렸어요. 원복 하고싶어요 ㅠ</t>
+  </si>
+  <si>
+    <t>요즈음 2박3일용 캐리어 크기는 어느게 낫나요?</t>
+  </si>
+  <si>
+    <t>오늘도 코로나 3000명 돌파네요</t>
+  </si>
+  <si>
+    <t>살림 팍팍해져 2년 새 22.8%에서 32.1%로 부자만 더 부자 됐다</t>
+  </si>
+  <si>
+    <t>배달료는 더 오르겠네요.</t>
+  </si>
+  <si>
+    <t>생일파티한 한소희 목걸이 귀걸이 출처.jpg</t>
+  </si>
+  <si>
+    <t>층간소음으로 신고를 하면 경찰은 방관만 하고 무시하는것 같네요.</t>
+  </si>
+  <si>
+    <t>애플워치 밧데리</t>
+  </si>
+  <si>
+    <t>입주 청소 불렀다고 호통치시는 아버지...jpg</t>
+  </si>
+  <si>
+    <t>박경수 어케 됐나요</t>
+  </si>
+  <si>
+    <t>qcy t17 도착했습니다.</t>
+  </si>
+  <si>
+    <t>예쁘게 생겼나요?</t>
+  </si>
+  <si>
+    <t>현재 요소수 수급 어떤가요</t>
+  </si>
+  <si>
+    <t>골때녀때문에 뭉찬 흥미가 떨어지네요 ㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>원천징수 3.3%의 비밀..몰라서 당하고 알면서도 당한다</t>
+  </si>
+  <si>
+    <t>수능일, 중부 비 조금(예년보다 온화, 남부 맑음)</t>
+  </si>
+  <si>
+    <t>고구마 어떤거 선호하시나요</t>
+  </si>
+  <si>
+    <t>육룡이 나르샤나 뿌리깊은나무 같은 드라마 없을까요?</t>
+  </si>
+  <si>
+    <t>골목식당도 결방이네요 ㅠ</t>
+  </si>
+  <si>
+    <t>우크라이나는 진짜 미녀국이네요</t>
+  </si>
+  <si>
+    <t>SBS 층간소음 칼부림 났는데 제압 안 하고 나간 경찰.JPG (동영상 추가)</t>
+  </si>
+  <si>
+    <t>5급 행정고시 최연소 합격자 (2000년 출생자)</t>
+  </si>
+  <si>
+    <t>왜 집에서 한껏 꾸미고 나와서</t>
+  </si>
+  <si>
+    <t>와이프랑 이야기 님들의 생각은?</t>
+  </si>
+  <si>
+    <t>SM 아이돌 준비했었던 이연희 노래 실력</t>
+  </si>
+  <si>
+    <t>비염 수술후 1년 다 되가네요.</t>
+  </si>
+  <si>
+    <t>이게 뭔소린가요? 알리 판매자 어떻게 하라는건지 모르겠네요</t>
+  </si>
+  <si>
+    <t>배구 쌍둥이 근황.jpg</t>
+  </si>
+  <si>
+    <t>다이아몬드 세척.gif</t>
+  </si>
+  <si>
+    <t>내일 한시간 늦게 출근하네요</t>
+  </si>
+  <si>
+    <t>방금 sbs 뉴스 층간소음 칼부림</t>
+  </si>
+  <si>
+    <t>sbs뉴스  층간소음살인미수 관련나오는데</t>
+  </si>
+  <si>
+    <t>이쁜 아나운서,기상캐스터 정말 많네요 ㄷㄷㄷ</t>
+  </si>
+  <si>
+    <t>꼭...</t>
+  </si>
+  <si>
+    <t>와..하이볼엔 레몬이 필수네요</t>
+  </si>
+  <si>
+    <t>터미네이터들은 왜 홀딱벗고 이동하나요</t>
+  </si>
+  <si>
+    <t>케티가 코시 3연승 했네요..</t>
+  </si>
+  <si>
+    <t>인스타그램은 디엠거부 기능 언제 생길지..</t>
+  </si>
+  <si>
+    <t>싱가포르에 있는 아파트</t>
+  </si>
+  <si>
+    <t>인스타 DM</t>
+  </si>
+  <si>
+    <t>집에 사용하는 가전중 3대 이모님이라</t>
+  </si>
+  <si>
+    <t>OCN 신세계 시작했네요</t>
+  </si>
+  <si>
+    <t>인싸들이 갖고 싶어하는 패딩</t>
+  </si>
+  <si>
+    <t>디즈니플러스 화면캡쳐는 안되네요.</t>
+  </si>
+  <si>
+    <t>오늘자 요소수 폭리 노린업자들 근황</t>
+  </si>
+  <si>
+    <t>이번 빅스마일데이에 건진 세탁기+건조기 세트 오늘 설치했습니다.</t>
+  </si>
+  <si>
+    <t>국민지원금 , 소비지원금 어디에 쓰시나요??</t>
+  </si>
+  <si>
+    <t>KT가 잘하는 건가요? 두산이 못하는 건가요?</t>
+  </si>
+  <si>
+    <t>KT3연승 우승에 1승 남았네요</t>
+  </si>
+  <si>
+    <t>돈에 관한 명언이나 말씀하고 싶은 거 있으시면 말씀해 주세요</t>
+  </si>
+  <si>
+    <t>등뼈가 아픈데 혹시 비슷한증상이 있으신분 계시나요..</t>
+  </si>
+  <si>
+    <t>일본 오만전에 태극기ㅋㅋ</t>
+  </si>
+  <si>
+    <t>틱톡 짱개꺼 아닌가요</t>
+  </si>
+  <si>
+    <t>타이어 리페어킷으로 채워줬습니다. 승차감이 달라졌어요</t>
+  </si>
+  <si>
+    <t>세르비아 기상캐스터의 취미..gif</t>
+  </si>
+  <si>
+    <t>요즘은 알바도 3.3% 떼는 곳이 많군요 ㄷㄷㄷ</t>
+  </si>
+  <si>
+    <t>산악자전거 1인칭 시정</t>
+  </si>
+  <si>
+    <t>방역패스 확인 업주들 진땀</t>
+  </si>
+  <si>
+    <t>밑에  기흉 이야기  나와서  경험함  내이야기</t>
+  </si>
+  <si>
+    <t>여배 조송화 실망이네요.</t>
+  </si>
+  <si>
+    <t>스마트 워치는 핸드폰 꺼두면 알람 오지 않죠?</t>
+  </si>
+  <si>
+    <t>국대 축구인데도 하일라이트 보기도 어렵네요.</t>
+  </si>
+  <si>
+    <t>잠은 진짜 줄이면 안되는 것 같아요</t>
+  </si>
+  <si>
+    <t>오늘자 정용진 인스타.jpg</t>
+  </si>
+  <si>
+    <t>실비 청구할 때 음주/흡연 여부랑도 관련이 있을까요</t>
+  </si>
+  <si>
+    <t>2000년대 초반 감성</t>
+  </si>
+  <si>
+    <t>어제 축구 보다가 잤는데, 이겼네여?</t>
+  </si>
+  <si>
+    <t>경기도 1박2일 여행지 추천좀.</t>
+  </si>
+  <si>
+    <t>남산의 부장들 보는데</t>
+  </si>
+  <si>
+    <t>뽐뿌 여러분 재미있게 탑시다.!ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>개봉후 몇년뒤에야 알게 된 영화 진짜 배경....</t>
+  </si>
+  <si>
+    <t>골때녀에 나오는 구장은 규격이 너무 좁은거같은데 정식 규격인가요?</t>
+  </si>
+  <si>
+    <t>OCN 남산부장들 역시 좋네요</t>
+  </si>
+  <si>
+    <t>디씨백수갤에서 폭풍 응원 받고 있는 34세 첫직장 얻은 갤러의 글..jpg</t>
+  </si>
+  <si>
+    <t>마스크 쟁이기 얼마정도 하시나요?</t>
+  </si>
+  <si>
+    <t>코시, 오늘도 kt가 이길분위기네요,</t>
+  </si>
+  <si>
+    <t>유퀴즈에 우영미 디자이너 나오네요</t>
+  </si>
+  <si>
+    <t>귀멸의 칼날 작가가 2000억을 벌었군요 ㄷㄷ</t>
+  </si>
+  <si>
+    <t>내수 드라마도 세계에 팔릴만하게 만들어야 한다 vs 내수는 건들지 마라</t>
+  </si>
+  <si>
+    <t>말도안돼 지금 한국시리즈 따위 때문에</t>
+  </si>
+  <si>
+    <t>집행유예 중 마약 투약' 한서희 법정구속..판사에 항의</t>
+  </si>
+  <si>
+    <t>Kt 인터넷+Tv 견적요청</t>
+  </si>
+  <si>
+    <t>세상에는 머리 좋은 사람들 너무 많네요</t>
+  </si>
+  <si>
+    <t>종부세가 1100만원..</t>
+  </si>
+  <si>
+    <t>(나눔 완료) CGV 울산삼산 '파워 오브 도그' 2인 나눔 (내일 (목) 오후 8시)</t>
+  </si>
+  <si>
+    <t>내일 수능이네요</t>
+  </si>
+  <si>
+    <t>큰 금액의 병원비를 냇는데 카드할부 수수료 엄청나네요 ㅜㅜ 멘붕</t>
+  </si>
+  <si>
+    <t>특정 게시판 차단해서 안보는게 뽐뿌 공식 기능인가요?</t>
+  </si>
+  <si>
+    <t>당근마켓..커피믹스</t>
+  </si>
+  <si>
+    <t>학교 2021은 첫방송 1주 남았는데 이젠 제작사끼리 싸움 남.</t>
+  </si>
+  <si>
+    <t>남자분들께질문탈모약부작용관련~</t>
+  </si>
+  <si>
+    <t>당구 해커  128강에서 상대방과  동률...승부차기 갑니다</t>
+  </si>
+  <si>
+    <t>희대의 탈옥수 신창원 근황...jpg</t>
+  </si>
+  <si>
+    <t>코로나 부스터샷 간격 4ㅡ5개월로 단축</t>
+  </si>
+  <si>
+    <t>다리길이가 엄청난 오또맘</t>
+  </si>
+  <si>
+    <t>골때녀 보려고 tv틀었는데 야구라니</t>
+  </si>
+  <si>
+    <t>유플러스 1기가 3명 무료나눔 합니다</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>주진우 윤석열 관계 궁금증</t>
+  </si>
+  <si>
+    <t>먹는 예능시대는 지고 스포츠 예능 부각되네요.</t>
+  </si>
+  <si>
+    <t>"당신 계좌가 위험하다"..고전적 수법에 알고도 당하는 이유는?</t>
+  </si>
+  <si>
+    <t>콘솔로 출시 예정인 국산게임.gif</t>
+  </si>
+  <si>
+    <t>배드민턴 레슨 받으니 엄청 재밌네요</t>
+  </si>
+  <si>
+    <t>신림역쪽에 쉑쉑버거가 생겼네요</t>
+  </si>
+  <si>
+    <t>아시아 최초 고든램지버거 12월 오픈 예정</t>
+  </si>
+  <si>
+    <t>kt, 오늘도 두산에 정의구현중..</t>
+  </si>
+  <si>
+    <t>성남은 노인인구가 약15프로나되네요..</t>
+  </si>
+  <si>
+    <t>디즈니플러스 더빙으로 나오네요</t>
+  </si>
+  <si>
+    <t>삼성, '월급 루팡' 퇴출시킨다</t>
+  </si>
+  <si>
+    <t>네이버 쇼핑라이브 예고 11월18일 (89/0)</t>
+  </si>
+  <si>
+    <t>오늘 골때녀 결방이군요 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>일드의 세상의 중심에서 사랑을 외치다의 배경음악을 들어보세요.</t>
+  </si>
+  <si>
+    <t>2022 AFC 챔피언스리그에 진출할 K리그팀은? (경우의 수)</t>
+  </si>
+  <si>
+    <t>우리가 먹는 치킨에 크기가... 작은거였네요...  전세계 유일하게 1.5K육계 외국은 3k...</t>
+  </si>
+  <si>
+    <t>곰이 커피를 내어 주는 카페 .gif</t>
+  </si>
+  <si>
+    <t>2021 대한민국 게임 대상은 오딘 : 발할라 라이징</t>
+  </si>
+  <si>
+    <t>와.. 주시은은..골때녀까지하면 너무 힘들지않을까요</t>
+  </si>
+  <si>
+    <t>여경 문제가 심각한 이유.jpg</t>
+  </si>
+  <si>
+    <t>베스킨라빈스 근처인 분(완료)</t>
+  </si>
+  <si>
+    <t>(혐)국방부가 안중근 의사 언급해서 화난 사람</t>
+  </si>
+  <si>
+    <t>삼성화재 보험료 조회하면 스벅쿠폰 2장 주네요</t>
+  </si>
+  <si>
+    <t>선물 성공이네요 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>토스 주식 사고 3개월 지났는데 많이 올랐네요</t>
+  </si>
+  <si>
+    <t>삼전 배당금 들어왔네요.</t>
+  </si>
+  <si>
+    <t>딤X 김치냉장고 사용자분들 몇년 사용하셨는지요?</t>
+  </si>
+  <si>
+    <t>[단독] "자녀우선 채용해 달라" ..'공정' 외면 기아 노조</t>
+  </si>
+  <si>
+    <t>도미노피자 시켰는데 자체배달이 배달앱시킨거보다 더 느리네요</t>
+  </si>
+  <si>
+    <t>안철수가 메타버스 기자회견을 했네요</t>
+  </si>
+  <si>
+    <t>사는게 힘드네요</t>
+  </si>
+  <si>
+    <t>2026 월드컵은 48개국에 아시아 8장</t>
+  </si>
+  <si>
+    <t>네이버 새 대표, 81년생 여성 ㄷㄷ</t>
+  </si>
+  <si>
+    <t>골때녀 몇시에할까요..</t>
+  </si>
+  <si>
+    <t>샘오취리 복귀 시도하나봅니다</t>
+  </si>
+  <si>
+    <t>(나눔 완료) CGV 김포한강 '이터널스' 2인 나눔 (내일 (목) 오후 1시)</t>
+  </si>
+  <si>
+    <t>삼성에서 이재용 퇴출 될수도...</t>
+  </si>
+  <si>
+    <t>베라 한통씩 쟁이고 싶은것들</t>
+  </si>
+  <si>
+    <t>자~자~ 송소희 나오는 날입니다</t>
+  </si>
+  <si>
+    <t>야구로  인해  골때리는  그녀들  안하네요</t>
+  </si>
+  <si>
+    <t>11/2 또는 그 이후에 11마존에서 마샬 엠버튼 주문하신 분?</t>
+  </si>
+  <si>
+    <t>[속보] 비트코인 창시자, 사토시 정체가 밝혀졌다.</t>
+  </si>
+  <si>
+    <t>넷플릭스 공식 집계.jpg</t>
+  </si>
+  <si>
+    <t>보이스 피싱 피해 목격한 썰</t>
+  </si>
+  <si>
+    <t>병무청 홈페이지에서 신체검사 기록 조회할 수 있더군요.</t>
+  </si>
+  <si>
+    <t>동생이 내일 수능을 봅니다.</t>
+  </si>
+  <si>
+    <t>여자배구 현건은 올해 왜이리 쎄죠?</t>
+  </si>
+  <si>
+    <t>아기새우가 태어났어요.jpg</t>
+  </si>
+  <si>
+    <t>부스터샷 4달만에 맞으라고 하는 직종인데요...햐.....맞은지 얼마 됐다고, 이걸 4달...</t>
+  </si>
+  <si>
+    <t>하루 시간 중.</t>
+  </si>
+  <si>
+    <t>안정환 유튜브 근황ㄷㄷ.jpg</t>
+  </si>
+  <si>
+    <t>빌라층간분쟁 칼부림 사건당시 경찰보는대</t>
+  </si>
+  <si>
+    <t>당근마켓도 오래하다 보니까 ㄷㄷㄷ (feat.섭외)</t>
+  </si>
+  <si>
+    <t>사랑제일교회사람들 일단 다 체포못하나요</t>
+  </si>
+  <si>
+    <t>이디야서 주먹밥도 파는군요ㅎㅎ</t>
+  </si>
+  <si>
+    <t>"전 부총리가 성폭행" 폭로 후, 중국 스타 선수 행방불명</t>
+  </si>
+  <si>
+    <t>노동이란 건 꼭 필요한 동시에 사람을 참 힘들게 하는 거 같네요.</t>
+  </si>
+  <si>
+    <t>펌) 오늘자 인계동 하늘.JPGIF</t>
+  </si>
+  <si>
+    <t>제로중에 뭐가 제일 맛있으신가여</t>
+  </si>
+  <si>
+    <t>굳이 야구중계 지상파에서 해줄필요가 있을까요</t>
+  </si>
+  <si>
+    <t>지단,  맨유 부임 긍정적?</t>
+  </si>
+  <si>
+    <t>낼 집떠나서 평택으로 일하러갑니다.</t>
+  </si>
+  <si>
+    <t>모더나 1차 맞고 2차는 화이자 맞으라는데..</t>
+  </si>
+  <si>
+    <t>리뷰참여하면 만두 2개 준다기에. 넘 갯수가 적은 거...</t>
   </si>
   <si>
     <t>캐시워크</t>
   </si>
   <si>
-    <t>배터리및스펙부분에서a52s가나을까요 a42가 나을까요</t>
-  </si>
-  <si>
-    <t>Ssd 고민입니다</t>
-  </si>
-  <si>
-    <t>디어유 공모 했네요.</t>
-  </si>
-  <si>
-    <t>ASUS 비보북 프로 핫하네요</t>
-  </si>
-  <si>
-    <t>기숙사 사건으로 다시보는 세대갈등</t>
-  </si>
-  <si>
-    <t>강다니엘  디시갤러리 고소했다가 패소함ㅋㅋ</t>
-  </si>
-  <si>
-    <t>이해할 수 없는 선진국의 교육</t>
-  </si>
-  <si>
-    <t>얀센 잔여백신..  기존사전예약 취소해야하나요?~</t>
-  </si>
-  <si>
-    <t>아난티 가본 사람 있어요 ?</t>
-  </si>
-  <si>
-    <t>충청도쪽 단풍 많이 들었나요?</t>
-  </si>
-  <si>
-    <t>빠삐코맛 소주 나왔다던데</t>
-  </si>
-  <si>
-    <t>2am 타이틀곡 좋네요 ㅎㅎ</t>
-  </si>
-  <si>
-    <t>가장 좋아하는 술은 무엇인가요?</t>
-  </si>
-  <si>
-    <t>바프는 와사비맛이 맛나더군요</t>
-  </si>
-  <si>
-    <t>아이패드 미니6세대의 셀룰러 버전은 사전 예약이 다시 없을까요?</t>
-  </si>
-  <si>
-    <t>상생지원금 어디다 문의할때도 없고</t>
-  </si>
-  <si>
-    <t>부천 이마트..뭔가 어수선</t>
-  </si>
-  <si>
-    <t>커피 사먹으려고 충전한 페이코인이 불어나네요.</t>
-  </si>
-  <si>
-    <t>일산지역 잔여백신 부스트샷 겨우 성공했습니다...</t>
-  </si>
-  <si>
-    <t>예비군 원격교육 듣다가 급발진한 후기</t>
-  </si>
-  <si>
-    <t>오딘 게임 더럽네요</t>
-  </si>
-  <si>
-    <t>난리난 아프리카 TV 미성년자 여성 게스트</t>
-  </si>
-  <si>
-    <t>프리퀀시 1주안에 다이어리 두권주는거 없어졌나보네요.</t>
-  </si>
-  <si>
-    <t>짱깨가 요즘들어서 살짝 신경쓰이기 시작하네요....</t>
-  </si>
-  <si>
-    <t>한국에서 인종차별 당했다는 필리핀배우.</t>
-  </si>
-  <si>
-    <t>황교익 "우리나라 치킨, 맛 모자라고 비싸다는 정보 무시돼</t>
-  </si>
-  <si>
-    <t>40살 이범호 파격 발탁? 기아 타이거즈 차기 사령탑 하마평 무성</t>
-  </si>
-  <si>
-    <t>15:09:29</t>
-  </si>
-  <si>
-    <t>15:08:59</t>
-  </si>
-  <si>
-    <t>15:08:50</t>
-  </si>
-  <si>
-    <t>15:05:51</t>
-  </si>
-  <si>
-    <t>15:05:33</t>
-  </si>
-  <si>
-    <t>15:04:09</t>
-  </si>
-  <si>
-    <t>15:00:54</t>
-  </si>
-  <si>
-    <t>14:58:47</t>
-  </si>
-  <si>
-    <t>14:58:42</t>
-  </si>
-  <si>
-    <t>14:57:41</t>
-  </si>
-  <si>
-    <t>14:57:24</t>
-  </si>
-  <si>
-    <t>14:56:47</t>
-  </si>
-  <si>
-    <t>14:55:51</t>
-  </si>
-  <si>
-    <t>14:55:10</t>
-  </si>
-  <si>
-    <t>14:55:01</t>
-  </si>
-  <si>
-    <t>14:54:08</t>
-  </si>
-  <si>
-    <t>14:53:54</t>
-  </si>
-  <si>
-    <t>14:53:05</t>
-  </si>
-  <si>
-    <t>14:51:34</t>
-  </si>
-  <si>
-    <t>14:51:28</t>
-  </si>
-  <si>
-    <t>14:50:31</t>
-  </si>
-  <si>
-    <t>14:49:27</t>
-  </si>
-  <si>
-    <t>14:48:52</t>
-  </si>
-  <si>
-    <t>14:47:44</t>
-  </si>
-  <si>
-    <t>14:47:23</t>
-  </si>
-  <si>
-    <t>14:46:01</t>
-  </si>
-  <si>
-    <t>14:45:59</t>
-  </si>
-  <si>
-    <t>14:44:19</t>
-  </si>
-  <si>
-    <t>14:41:49</t>
-  </si>
-  <si>
-    <t>14:41:38</t>
+    <t>영덕 갔다왔어요.</t>
+  </si>
+  <si>
+    <t>월드컵 1승 1무 1패로 16강가면 성공일듯..</t>
+  </si>
+  <si>
+    <t>이번 월드컵 다크호스</t>
+  </si>
+  <si>
+    <t>요즘은 핸드폰구매 선택지가 없네요.</t>
+  </si>
+  <si>
+    <t>수능날 롯데월드는 사람 많겠죠??</t>
+  </si>
+  <si>
+    <t>미르4 라는 게임은 엄청 재미있나요?</t>
+  </si>
+  <si>
+    <t>일자목이 심해서 질러봤습니다</t>
+  </si>
+  <si>
+    <t>현대 코나N 계약했다고하니 주변에서 말이많네요</t>
+  </si>
+  <si>
+    <t>딸배들 은근히 킹받게 하는 짓..</t>
+  </si>
+  <si>
+    <t>맵찔이인데 불닭볶음면에 짜파게티 섞어 먹었는데도 맵군요</t>
+  </si>
+  <si>
+    <t>골드만 삭스 CEO의 현 금융시장 진단</t>
+  </si>
+  <si>
+    <t>삼성 스마트폰 베트남 일부물량 인도로 옮기네요.</t>
+  </si>
+  <si>
+    <t>모더나 맞고 2주좀 넘었는데 한번씩 머리가 아파요</t>
+  </si>
+  <si>
+    <t>KBO는 한국시리즈 7차전까지 가길 바라겠죠</t>
+  </si>
+  <si>
+    <t>미국 기준으로 한국이 정말 핫하긴 한가 봅니다..(펌)</t>
+  </si>
+  <si>
+    <t>GS프레시몰~ 랜덤 1만원쿠폰 확인해보세요 +20%카드할인 추가</t>
+  </si>
+  <si>
+    <t>하루종일 주식, 코인 이야기만 하는 인간은 거르는게 답인거 같네요</t>
+  </si>
+  <si>
+    <t>본인 수능 날 별 에피소드 없으셨나요</t>
+  </si>
+  <si>
+    <t>집&lt;-&gt;외출 옷갈아입는 여부</t>
+  </si>
+  <si>
+    <t>삼성 직원이신분 있으시면 도움 구해요~</t>
+  </si>
+  <si>
+    <t>백신패스보다 음성확인제가 더 안전한거 아닌가 하는 생각이..</t>
+  </si>
+  <si>
+    <t>코인으로 돈 번 사람들은 대부분</t>
+  </si>
+  <si>
+    <t>예전에 군면제 받고 7수한 고딩동창이 있었는데</t>
+  </si>
+  <si>
+    <t>벌써부터 신나서 인스타에다가 자기 수능감독이라고 사진 올리는 교사들 많네요 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>무인 문구점</t>
+  </si>
+  <si>
+    <t>개인적으로 다이소의 축복이라고 생각하는 제품</t>
+  </si>
+  <si>
+    <t>대한민국 메타버스...수준....jpg</t>
+  </si>
+  <si>
+    <t>아이폰11쓰는데..유선이어폰은 왜 준걸까요?</t>
+  </si>
+  <si>
+    <t>영화 듄 보실분 보기전 유튜브 추천</t>
+  </si>
+  <si>
+    <t>여자배구 현대건설 진짜 강하네요</t>
+  </si>
+  <si>
+    <t>무료로 신년운세 보실분 선착순 1명</t>
+  </si>
+  <si>
+    <t>그 아파트 주민들은 왜 그럴까요?</t>
+  </si>
+  <si>
+    <t>광군절 키보드산게 취소됐네요 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>한국 상륙....디즈니 플러스 ....자막 상태. jpg</t>
+  </si>
+  <si>
+    <t>삼성 갤럭시 s9+업데이트 있네요 ㅋ</t>
+  </si>
+  <si>
+    <t>수능 앞둔 수험생 재수없어 하는 짤...(펌)</t>
+  </si>
+  <si>
+    <t>블투 이어폰 저가형에선 T13이 최고네요</t>
+  </si>
+  <si>
+    <t>이번에 발매하는 지디 x 나이키 권도</t>
+  </si>
+  <si>
+    <t>정상수 유툽 보고 자지러지게 웃었네요 ㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>왕릉아파트 국토부가 허가 해줬다는데 맞나요</t>
+  </si>
+  <si>
+    <t>듄   VS 장르만로맨스 보러갈려는데요</t>
+  </si>
+  <si>
+    <t>방금 노웨이홈 예고편봤는데</t>
+  </si>
+  <si>
+    <t>삼성브라우저 광고차단앱들 죄다 안 되네요</t>
+  </si>
+  <si>
+    <t>영화 듄 보실분 (스포x)</t>
+  </si>
+  <si>
+    <t>네이버포인트 240포인트 받아가세요.</t>
+  </si>
+  <si>
+    <t>오늘 페이코인 폭등했네요</t>
+  </si>
+  <si>
+    <t>'김민재 보러 가자'.. '토트넘 포함' 스카우트들, 터키 이스탄불로 몰린다</t>
+  </si>
+  <si>
+    <t>한소희가 생파때 착용한 고가의 목걸이와귀걸이 정체</t>
+  </si>
+  <si>
+    <t>짱ㄱ ㅐ 택배포장지에서 우한바이러스균 검출</t>
+  </si>
+  <si>
+    <t>스테로이드 부작용일까요?</t>
+  </si>
+  <si>
+    <t>오징어게임 주근깨녀 미 최대 에이전시 계약... gisa</t>
+  </si>
+  <si>
+    <t>듄 감상평</t>
+  </si>
+  <si>
+    <t>카카오 공동대표가 가수 박지윤 남편이었군요</t>
+  </si>
+  <si>
+    <t>(약혐)스마트폰 계단 추락 사고</t>
+  </si>
+  <si>
+    <t>이거 짝퉁인가요?</t>
+  </si>
+  <si>
+    <t>2021.11.18 01:12</t>
+  </si>
+  <si>
+    <t>2021.11.18 01:03</t>
+  </si>
+  <si>
+    <t>2021.11.18 01:02</t>
+  </si>
+  <si>
+    <t>2021.11.18 01:01</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:59</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:57</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:47</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:44</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:43</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:39</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:37</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:34</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:33</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:31</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:27</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:26</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:21</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:16</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:01</t>
+  </si>
+  <si>
+    <t>2021.11.17</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>874</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>2365</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>646</t>
+  </si>
+  <si>
+    <t>1277</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>3175</t>
+  </si>
+  <si>
+    <t>1791</t>
+  </si>
+  <si>
+    <t>1305</t>
+  </si>
+  <si>
+    <t>1847</t>
+  </si>
+  <si>
+    <t>2491</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>1189</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>1504</t>
+  </si>
+  <si>
+    <t>725</t>
+  </si>
+  <si>
+    <t>5182</t>
+  </si>
+  <si>
+    <t>1328</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1387</t>
+  </si>
+  <si>
+    <t>1297</t>
+  </si>
+  <si>
+    <t>1665</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>1519</t>
+  </si>
+  <si>
+    <t>783</t>
+  </si>
+  <si>
+    <t>2530</t>
+  </si>
+  <si>
+    <t>2221</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>2223</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>1568</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>1655</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>694</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>2053</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>1172</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>1482</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>1463</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>2715</t>
+  </si>
+  <si>
+    <t>2383</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>1873</t>
+  </si>
+  <si>
+    <t>1183</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>825</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>1209</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>4044</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>4132</t>
+  </si>
+  <si>
+    <t>1177</t>
+  </si>
+  <si>
+    <t>1059</t>
+  </si>
+  <si>
+    <t>11441</t>
+  </si>
+  <si>
+    <t>1236</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>2751</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>898</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>971</t>
+  </si>
+  <si>
+    <t>2629</t>
+  </si>
+  <si>
+    <t>4927</t>
+  </si>
+  <si>
+    <t>4680</t>
+  </si>
+  <si>
+    <t>1445</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>954</t>
+  </si>
+  <si>
+    <t>4304</t>
+  </si>
+  <si>
+    <t>4320</t>
+  </si>
+  <si>
+    <t>828</t>
+  </si>
+  <si>
+    <t>2560</t>
+  </si>
+  <si>
+    <t>1424</t>
+  </si>
+  <si>
+    <t>2474</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>1494</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>3697</t>
+  </si>
+  <si>
+    <t>1731</t>
+  </si>
+  <si>
+    <t>1475</t>
+  </si>
+  <si>
+    <t>836</t>
+  </si>
+  <si>
+    <t>4705</t>
+  </si>
+  <si>
+    <t>1833</t>
+  </si>
+  <si>
+    <t>2890</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>2183</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>6395</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>1258</t>
+  </si>
+  <si>
+    <t>1446</t>
+  </si>
+  <si>
+    <t>619</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>13979</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>1616</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>4731</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>2648</t>
+  </si>
+  <si>
+    <t>757</t>
+  </si>
+  <si>
+    <t>2237</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>2993</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>2058</t>
+  </si>
+  <si>
+    <t>2845</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>661</t>
+  </si>
+  <si>
+    <t>6335</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>19866</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>1885</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>718</t>
+  </si>
+  <si>
+    <t>3046</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>2091</t>
+  </si>
+  <si>
+    <t>1079</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>3347</t>
+  </si>
+  <si>
+    <t>3390</t>
+  </si>
+  <si>
+    <t>834</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>4422</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>1402</t>
+  </si>
+  <si>
+    <t>3615</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1260</t>
+  </si>
+  <si>
+    <t>1669</t>
+  </si>
+  <si>
+    <t>1629</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>1287</t>
+  </si>
+  <si>
+    <t>5184</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>2808</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>2415</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>53355</t>
+  </si>
+  <si>
+    <t>3034</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>2864</t>
+  </si>
+  <si>
+    <t>1147</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>5425</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>1596</t>
+  </si>
+  <si>
+    <t>2315</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>2967</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>846</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>1379</t>
+  </si>
+  <si>
+    <t>2471</t>
+  </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>1262</t>
+  </si>
+  <si>
+    <t>1373</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>2988</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>2065</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>947</t>
+  </si>
+  <si>
+    <t>3909</t>
+  </si>
+  <si>
+    <t>3298</t>
+  </si>
+  <si>
+    <t>3897</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>2985</t>
+  </si>
+  <si>
+    <t>821</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>1371</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>157</t>
   </si>
   <si>
     <t>369</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>414</t>
-  </si>
-  <si>
-    <t>835</t>
-  </si>
-  <si>
-    <t>1815</t>
-  </si>
-  <si>
-    <t>913</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>413</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>638</t>
-  </si>
-  <si>
-    <t>933</t>
-  </si>
-  <si>
-    <t>1521</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>386</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>916</t>
-  </si>
-  <si>
-    <t>648</t>
+    <t>533</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>1365</t>
+  </si>
+  <si>
+    <t>1718</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>4173</t>
+  </si>
+  <si>
+    <t>1340</t>
+  </si>
+  <si>
+    <t>747</t>
+  </si>
+  <si>
+    <t>2089</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>5128</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 </t>
   </si>
   <si>
     <t xml:space="preserve"> 3 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5 </t>
+    <t xml:space="preserve"> 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 </t>
   </si>
   <si>
     <t xml:space="preserve"> 4 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9 </t>
+    <t xml:space="preserve"> 29 </t>
   </si>
   <si>
     <t xml:space="preserve"> 23 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24 </t>
+    <t xml:space="preserve"> 36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35 </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -704,7 +2366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,16 +2397,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>304</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>324</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -755,13 +2417,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>325</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>608</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -775,13 +2437,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>326</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>609</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -795,16 +2457,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>327</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" t="s">
-        <v>109</v>
+        <v>610</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -815,13 +2477,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>308</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>328</v>
+      </c>
+      <c r="E6" t="s">
+        <v>609</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -835,13 +2497,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>329</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>611</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -855,13 +2517,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>330</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>612</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -875,13 +2537,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>331</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>613</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -895,16 +2557,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>332</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" t="s">
-        <v>110</v>
+        <v>609</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -915,16 +2577,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>333</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>614</v>
+      </c>
+      <c r="F11" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -935,13 +2597,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>334</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>611</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -955,13 +2617,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>314</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" t="s">
-        <v>95</v>
+        <v>335</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -975,13 +2637,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>612</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -995,13 +2657,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>316</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>615</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1015,13 +2677,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>615</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1035,13 +2697,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>318</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>616</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1055,16 +2717,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>319</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+        <v>340</v>
+      </c>
+      <c r="E18" t="s">
+        <v>617</v>
+      </c>
+      <c r="F18" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1075,13 +2737,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>320</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>618</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1095,13 +2757,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>320</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>610</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1115,16 +2777,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>321</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>343</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+        <v>619</v>
+      </c>
+      <c r="F21" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1135,13 +2797,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>321</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>344</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>612</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1155,13 +2817,13 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>322</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>345</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>620</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1175,16 +2837,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>323</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>346</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" t="s">
-        <v>110</v>
+        <v>610</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1195,16 +2857,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>323</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>347</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+        <v>612</v>
+      </c>
+      <c r="F25" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1215,13 +2877,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>323</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>348</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>616</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1235,13 +2897,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>323</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>349</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>621</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1255,13 +2917,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>323</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>350</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>611</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1275,16 +2937,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>323</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>351</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>616</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>653</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1295,13 +2957,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>323</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>324</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>607</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1315,15 +2977,5415 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
+        <v>323</v>
+      </c>
+      <c r="D31" t="s">
+        <v>352</v>
+      </c>
+      <c r="E31" t="s">
+        <v>619</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>323</v>
+      </c>
+      <c r="D32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E32" t="s">
+        <v>620</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>323</v>
+      </c>
+      <c r="D33" t="s">
+        <v>354</v>
+      </c>
+      <c r="E33" t="s">
+        <v>618</v>
+      </c>
+      <c r="F33" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34" t="s">
+        <v>355</v>
+      </c>
+      <c r="E34" t="s">
+        <v>607</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>323</v>
+      </c>
+      <c r="D35" t="s">
+        <v>356</v>
+      </c>
+      <c r="E35" t="s">
+        <v>615</v>
+      </c>
+      <c r="F35" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>323</v>
+      </c>
+      <c r="D36" t="s">
+        <v>357</v>
+      </c>
+      <c r="E36" t="s">
+        <v>622</v>
+      </c>
+      <c r="F36" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>323</v>
+      </c>
+      <c r="D37" t="s">
+        <v>358</v>
+      </c>
+      <c r="E37" t="s">
+        <v>623</v>
+      </c>
+      <c r="F37" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>323</v>
+      </c>
+      <c r="D38" t="s">
+        <v>359</v>
+      </c>
+      <c r="E38" t="s">
+        <v>621</v>
+      </c>
+      <c r="F38" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>323</v>
+      </c>
+      <c r="D39" t="s">
+        <v>360</v>
+      </c>
+      <c r="E39" t="s">
+        <v>615</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>323</v>
+      </c>
+      <c r="D40" t="s">
+        <v>361</v>
+      </c>
+      <c r="E40" t="s">
+        <v>624</v>
+      </c>
+      <c r="F40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>323</v>
+      </c>
+      <c r="D41" t="s">
+        <v>362</v>
+      </c>
+      <c r="E41" t="s">
+        <v>620</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>323</v>
+      </c>
+      <c r="D42" t="s">
+        <v>363</v>
+      </c>
+      <c r="E42" t="s">
+        <v>620</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>323</v>
+      </c>
+      <c r="D43" t="s">
+        <v>364</v>
+      </c>
+      <c r="E43" t="s">
+        <v>610</v>
+      </c>
+      <c r="F43" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>323</v>
+      </c>
+      <c r="D44" t="s">
+        <v>365</v>
+      </c>
+      <c r="E44" t="s">
+        <v>620</v>
+      </c>
+      <c r="F44" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>323</v>
+      </c>
+      <c r="D45" t="s">
+        <v>366</v>
+      </c>
+      <c r="E45" t="s">
+        <v>625</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D46" t="s">
+        <v>367</v>
+      </c>
+      <c r="E46" t="s">
+        <v>621</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>323</v>
+      </c>
+      <c r="D47" t="s">
+        <v>368</v>
+      </c>
+      <c r="E47" t="s">
+        <v>618</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>323</v>
+      </c>
+      <c r="D48" t="s">
+        <v>369</v>
+      </c>
+      <c r="E48" t="s">
+        <v>626</v>
+      </c>
+      <c r="F48" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>323</v>
+      </c>
+      <c r="D49" t="s">
+        <v>370</v>
+      </c>
+      <c r="E49" t="s">
+        <v>621</v>
+      </c>
+      <c r="F49" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>323</v>
+      </c>
+      <c r="D50" t="s">
+        <v>371</v>
+      </c>
+      <c r="E50" t="s">
+        <v>627</v>
+      </c>
+      <c r="F50" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>323</v>
+      </c>
+      <c r="D51" t="s">
+        <v>372</v>
+      </c>
+      <c r="E51" t="s">
+        <v>619</v>
+      </c>
+      <c r="F51" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>323</v>
+      </c>
+      <c r="D52" t="s">
+        <v>373</v>
+      </c>
+      <c r="E52" t="s">
+        <v>615</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
+        <v>323</v>
+      </c>
+      <c r="D53" t="s">
+        <v>374</v>
+      </c>
+      <c r="E53" t="s">
+        <v>628</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>323</v>
+      </c>
+      <c r="D54" t="s">
+        <v>375</v>
+      </c>
+      <c r="E54" t="s">
+        <v>619</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>323</v>
+      </c>
+      <c r="D55" t="s">
+        <v>376</v>
+      </c>
+      <c r="E55" t="s">
+        <v>607</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>323</v>
+      </c>
+      <c r="D56" t="s">
+        <v>377</v>
+      </c>
+      <c r="E56" t="s">
+        <v>628</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>323</v>
+      </c>
+      <c r="D57" t="s">
+        <v>378</v>
+      </c>
+      <c r="E57" t="s">
+        <v>608</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>323</v>
+      </c>
+      <c r="D58" t="s">
+        <v>379</v>
+      </c>
+      <c r="E58" t="s">
+        <v>629</v>
+      </c>
+      <c r="F58" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>323</v>
+      </c>
+      <c r="D59" t="s">
+        <v>380</v>
+      </c>
+      <c r="E59" t="s">
+        <v>608</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>323</v>
+      </c>
+      <c r="D60" t="s">
+        <v>381</v>
+      </c>
+      <c r="E60" t="s">
+        <v>622</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>64</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C61" t="s">
+        <v>323</v>
+      </c>
+      <c r="D61" t="s">
+        <v>382</v>
+      </c>
+      <c r="E61" t="s">
+        <v>608</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>323</v>
+      </c>
+      <c r="D62" t="s">
+        <v>383</v>
+      </c>
+      <c r="E62" t="s">
+        <v>630</v>
+      </c>
+      <c r="F62" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>323</v>
+      </c>
+      <c r="D63" t="s">
+        <v>384</v>
+      </c>
+      <c r="E63" t="s">
+        <v>610</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>323</v>
+      </c>
+      <c r="D64" t="s">
+        <v>385</v>
+      </c>
+      <c r="E64" t="s">
+        <v>612</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>323</v>
+      </c>
+      <c r="D65" t="s">
+        <v>386</v>
+      </c>
+      <c r="E65" t="s">
+        <v>612</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>323</v>
+      </c>
+      <c r="D66" t="s">
+        <v>387</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>323</v>
+      </c>
+      <c r="D67" t="s">
+        <v>388</v>
+      </c>
+      <c r="E67" t="s">
+        <v>631</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>323</v>
+      </c>
+      <c r="D68" t="s">
+        <v>389</v>
+      </c>
+      <c r="E68" t="s">
+        <v>608</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>323</v>
+      </c>
+      <c r="D69" t="s">
+        <v>390</v>
+      </c>
+      <c r="E69" t="s">
+        <v>623</v>
+      </c>
+      <c r="F69" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>323</v>
+      </c>
+      <c r="D70" t="s">
+        <v>391</v>
+      </c>
+      <c r="E70" t="s">
+        <v>621</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s">
+        <v>323</v>
+      </c>
+      <c r="D71" t="s">
+        <v>392</v>
+      </c>
+      <c r="E71" t="s">
+        <v>630</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>323</v>
+      </c>
+      <c r="D72" t="s">
+        <v>393</v>
+      </c>
+      <c r="E72" t="s">
+        <v>619</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>323</v>
+      </c>
+      <c r="D73" t="s">
+        <v>394</v>
+      </c>
+      <c r="E73" t="s">
+        <v>621</v>
+      </c>
+      <c r="F73" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>323</v>
+      </c>
+      <c r="D74" t="s">
+        <v>395</v>
+      </c>
+      <c r="E74" t="s">
+        <v>632</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>323</v>
+      </c>
+      <c r="D75" t="s">
+        <v>396</v>
+      </c>
+      <c r="E75" t="s">
+        <v>633</v>
+      </c>
+      <c r="F75" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>323</v>
+      </c>
+      <c r="D76" t="s">
+        <v>397</v>
+      </c>
+      <c r="E76" t="s">
+        <v>634</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>323</v>
+      </c>
+      <c r="D77" t="s">
+        <v>398</v>
+      </c>
+      <c r="E77" t="s">
+        <v>618</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>323</v>
+      </c>
+      <c r="D78" t="s">
+        <v>396</v>
+      </c>
+      <c r="E78" t="s">
+        <v>635</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>323</v>
+      </c>
+      <c r="D79" t="s">
+        <v>399</v>
+      </c>
+      <c r="E79" t="s">
+        <v>608</v>
+      </c>
+      <c r="F79" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>323</v>
+      </c>
+      <c r="D80" t="s">
+        <v>400</v>
+      </c>
+      <c r="E80" t="s">
+        <v>616</v>
+      </c>
+      <c r="F80" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>323</v>
+      </c>
+      <c r="D81" t="s">
+        <v>401</v>
+      </c>
+      <c r="E81" t="s">
+        <v>636</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
+        <v>323</v>
+      </c>
+      <c r="D82" t="s">
+        <v>402</v>
+      </c>
+      <c r="E82" t="s">
+        <v>624</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
+        <v>323</v>
+      </c>
+      <c r="D83" t="s">
+        <v>403</v>
+      </c>
+      <c r="E83" t="s">
+        <v>619</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>323</v>
+      </c>
+      <c r="D84" t="s">
+        <v>404</v>
+      </c>
+      <c r="E84" t="s">
+        <v>615</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" t="s">
+        <v>323</v>
+      </c>
+      <c r="D85" t="s">
+        <v>405</v>
+      </c>
+      <c r="E85" t="s">
+        <v>607</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" t="s">
+        <v>323</v>
+      </c>
+      <c r="D86" t="s">
+        <v>406</v>
+      </c>
+      <c r="E86" t="s">
+        <v>624</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" t="s">
+        <v>323</v>
+      </c>
+      <c r="D87" t="s">
+        <v>407</v>
+      </c>
+      <c r="E87" t="s">
+        <v>637</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" t="s">
+        <v>323</v>
+      </c>
+      <c r="D88" t="s">
+        <v>408</v>
+      </c>
+      <c r="E88" t="s">
+        <v>620</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" t="s">
+        <v>323</v>
+      </c>
+      <c r="D89" t="s">
+        <v>409</v>
+      </c>
+      <c r="E89" t="s">
+        <v>630</v>
+      </c>
+      <c r="F89" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" t="s">
+        <v>323</v>
+      </c>
+      <c r="D90" t="s">
+        <v>410</v>
+      </c>
+      <c r="E90" t="s">
+        <v>608</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>94</v>
       </c>
-      <c r="E31" t="s">
+      <c r="C91" t="s">
+        <v>323</v>
+      </c>
+      <c r="D91" t="s">
+        <v>411</v>
+      </c>
+      <c r="E91" t="s">
+        <v>638</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" t="s">
+        <v>323</v>
+      </c>
+      <c r="D92" t="s">
+        <v>412</v>
+      </c>
+      <c r="E92" t="s">
+        <v>633</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" t="s">
+        <v>323</v>
+      </c>
+      <c r="D93" t="s">
+        <v>413</v>
+      </c>
+      <c r="E93" t="s">
+        <v>618</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" t="s">
+        <v>323</v>
+      </c>
+      <c r="D94" t="s">
+        <v>414</v>
+      </c>
+      <c r="E94" t="s">
+        <v>639</v>
+      </c>
+      <c r="F94" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
         <v>98</v>
       </c>
-      <c r="F31">
+      <c r="C95" t="s">
+        <v>323</v>
+      </c>
+      <c r="D95" t="s">
+        <v>415</v>
+      </c>
+      <c r="E95" t="s">
+        <v>620</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" t="s">
+        <v>323</v>
+      </c>
+      <c r="D96" t="s">
+        <v>416</v>
+      </c>
+      <c r="E96" t="s">
+        <v>620</v>
+      </c>
+      <c r="F96" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" t="s">
+        <v>323</v>
+      </c>
+      <c r="D97" t="s">
+        <v>417</v>
+      </c>
+      <c r="E97" t="s">
+        <v>630</v>
+      </c>
+      <c r="F97" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" t="s">
+        <v>323</v>
+      </c>
+      <c r="D98" t="s">
+        <v>418</v>
+      </c>
+      <c r="E98" t="s">
+        <v>619</v>
+      </c>
+      <c r="F98" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" t="s">
+        <v>323</v>
+      </c>
+      <c r="D99" t="s">
+        <v>419</v>
+      </c>
+      <c r="E99" t="s">
+        <v>640</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" t="s">
+        <v>323</v>
+      </c>
+      <c r="D100" t="s">
+        <v>420</v>
+      </c>
+      <c r="E100" t="s">
+        <v>635</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" t="s">
+        <v>323</v>
+      </c>
+      <c r="D101" t="s">
+        <v>421</v>
+      </c>
+      <c r="E101" t="s">
+        <v>619</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" t="s">
+        <v>323</v>
+      </c>
+      <c r="D102" t="s">
+        <v>422</v>
+      </c>
+      <c r="E102" t="s">
+        <v>624</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" t="s">
+        <v>323</v>
+      </c>
+      <c r="D103" t="s">
+        <v>423</v>
+      </c>
+      <c r="E103" t="s">
+        <v>641</v>
+      </c>
+      <c r="F103" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" t="s">
+        <v>323</v>
+      </c>
+      <c r="D104" t="s">
+        <v>424</v>
+      </c>
+      <c r="E104" t="s">
+        <v>642</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" t="s">
+        <v>323</v>
+      </c>
+      <c r="D105" t="s">
+        <v>425</v>
+      </c>
+      <c r="E105" t="s">
+        <v>624</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" t="s">
+        <v>323</v>
+      </c>
+      <c r="D106" t="s">
+        <v>426</v>
+      </c>
+      <c r="E106" t="s">
+        <v>608</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" t="s">
+        <v>323</v>
+      </c>
+      <c r="D107" t="s">
+        <v>427</v>
+      </c>
+      <c r="E107" t="s">
+        <v>621</v>
+      </c>
+      <c r="F107" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" t="s">
+        <v>323</v>
+      </c>
+      <c r="D108" t="s">
+        <v>428</v>
+      </c>
+      <c r="E108" t="s">
+        <v>632</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" t="s">
+        <v>323</v>
+      </c>
+      <c r="D109" t="s">
+        <v>429</v>
+      </c>
+      <c r="E109" t="s">
+        <v>616</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" t="s">
+        <v>323</v>
+      </c>
+      <c r="D110" t="s">
+        <v>430</v>
+      </c>
+      <c r="E110" t="s">
+        <v>616</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" t="s">
+        <v>323</v>
+      </c>
+      <c r="D111" t="s">
+        <v>431</v>
+      </c>
+      <c r="E111" t="s">
+        <v>620</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" t="s">
+        <v>323</v>
+      </c>
+      <c r="D112" t="s">
+        <v>432</v>
+      </c>
+      <c r="E112" t="s">
+        <v>633</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" t="s">
+        <v>323</v>
+      </c>
+      <c r="D113" t="s">
+        <v>433</v>
+      </c>
+      <c r="E113" t="s">
+        <v>614</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" t="s">
+        <v>323</v>
+      </c>
+      <c r="D114" t="s">
+        <v>434</v>
+      </c>
+      <c r="E114" t="s">
+        <v>621</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" t="s">
+        <v>323</v>
+      </c>
+      <c r="D115" t="s">
+        <v>435</v>
+      </c>
+      <c r="E115" t="s">
+        <v>620</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" t="s">
+        <v>323</v>
+      </c>
+      <c r="D116" t="s">
+        <v>436</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" t="s">
+        <v>323</v>
+      </c>
+      <c r="D117" t="s">
+        <v>419</v>
+      </c>
+      <c r="E117" t="s">
+        <v>616</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" t="s">
+        <v>323</v>
+      </c>
+      <c r="D118" t="s">
+        <v>437</v>
+      </c>
+      <c r="E118" t="s">
+        <v>625</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" t="s">
+        <v>323</v>
+      </c>
+      <c r="D119" t="s">
+        <v>383</v>
+      </c>
+      <c r="E119" t="s">
+        <v>608</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" t="s">
+        <v>323</v>
+      </c>
+      <c r="D120" t="s">
+        <v>438</v>
+      </c>
+      <c r="E120" t="s">
+        <v>611</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121" t="s">
+        <v>323</v>
+      </c>
+      <c r="D121" t="s">
+        <v>439</v>
+      </c>
+      <c r="E121" t="s">
+        <v>618</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" t="s">
+        <v>323</v>
+      </c>
+      <c r="D122" t="s">
+        <v>440</v>
+      </c>
+      <c r="E122" t="s">
+        <v>608</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" t="s">
+        <v>323</v>
+      </c>
+      <c r="D123" t="s">
+        <v>441</v>
+      </c>
+      <c r="E123" t="s">
+        <v>621</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" t="s">
+        <v>323</v>
+      </c>
+      <c r="D124" t="s">
+        <v>442</v>
+      </c>
+      <c r="E124" t="s">
+        <v>607</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
+      <c r="C125" t="s">
+        <v>323</v>
+      </c>
+      <c r="D125" t="s">
+        <v>443</v>
+      </c>
+      <c r="E125" t="s">
+        <v>632</v>
+      </c>
+      <c r="F125" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126" t="s">
+        <v>323</v>
+      </c>
+      <c r="D126" t="s">
+        <v>444</v>
+      </c>
+      <c r="E126" t="s">
+        <v>610</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127" t="s">
+        <v>323</v>
+      </c>
+      <c r="D127" t="s">
+        <v>445</v>
+      </c>
+      <c r="E127" t="s">
+        <v>607</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+      <c r="C128" t="s">
+        <v>323</v>
+      </c>
+      <c r="D128" t="s">
+        <v>446</v>
+      </c>
+      <c r="E128" t="s">
+        <v>609</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
+      <c r="C129" t="s">
+        <v>323</v>
+      </c>
+      <c r="D129" t="s">
+        <v>332</v>
+      </c>
+      <c r="E129" t="s">
+        <v>607</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130" t="s">
+        <v>323</v>
+      </c>
+      <c r="D130" t="s">
+        <v>447</v>
+      </c>
+      <c r="E130" t="s">
+        <v>612</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131" t="s">
+        <v>323</v>
+      </c>
+      <c r="D131" t="s">
+        <v>448</v>
+      </c>
+      <c r="E131" t="s">
+        <v>609</v>
+      </c>
+      <c r="F131" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132" t="s">
+        <v>323</v>
+      </c>
+      <c r="D132" t="s">
+        <v>449</v>
+      </c>
+      <c r="E132" t="s">
+        <v>643</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133" t="s">
+        <v>323</v>
+      </c>
+      <c r="D133" t="s">
+        <v>450</v>
+      </c>
+      <c r="E133" t="s">
+        <v>626</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>137</v>
+      </c>
+      <c r="C134" t="s">
+        <v>323</v>
+      </c>
+      <c r="D134" t="s">
+        <v>451</v>
+      </c>
+      <c r="E134" t="s">
+        <v>633</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135" t="s">
+        <v>323</v>
+      </c>
+      <c r="D135" t="s">
+        <v>452</v>
+      </c>
+      <c r="E135" t="s">
+        <v>608</v>
+      </c>
+      <c r="F135" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>139</v>
+      </c>
+      <c r="C136" t="s">
+        <v>323</v>
+      </c>
+      <c r="D136" t="s">
+        <v>453</v>
+      </c>
+      <c r="E136" t="s">
+        <v>623</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
+      <c r="C137" t="s">
+        <v>323</v>
+      </c>
+      <c r="D137" t="s">
+        <v>454</v>
+      </c>
+      <c r="E137" t="s">
+        <v>633</v>
+      </c>
+      <c r="F137" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>141</v>
+      </c>
+      <c r="C138" t="s">
+        <v>323</v>
+      </c>
+      <c r="D138" t="s">
+        <v>455</v>
+      </c>
+      <c r="E138" t="s">
+        <v>621</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>142</v>
+      </c>
+      <c r="C139" t="s">
+        <v>323</v>
+      </c>
+      <c r="D139" t="s">
+        <v>456</v>
+      </c>
+      <c r="E139" t="s">
+        <v>619</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140" t="s">
+        <v>323</v>
+      </c>
+      <c r="D140" t="s">
+        <v>457</v>
+      </c>
+      <c r="E140" t="s">
+        <v>616</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>144</v>
+      </c>
+      <c r="C141" t="s">
+        <v>323</v>
+      </c>
+      <c r="D141" t="s">
+        <v>458</v>
+      </c>
+      <c r="E141" t="s">
+        <v>609</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142" t="s">
+        <v>323</v>
+      </c>
+      <c r="D142" t="s">
+        <v>459</v>
+      </c>
+      <c r="E142" t="s">
+        <v>616</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
+      <c r="C143" t="s">
+        <v>323</v>
+      </c>
+      <c r="D143" t="s">
+        <v>324</v>
+      </c>
+      <c r="E143" t="s">
+        <v>609</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144" t="s">
+        <v>323</v>
+      </c>
+      <c r="D144" t="s">
+        <v>387</v>
+      </c>
+      <c r="E144" t="s">
+        <v>624</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
+      <c r="C145" t="s">
+        <v>323</v>
+      </c>
+      <c r="D145" t="s">
+        <v>460</v>
+      </c>
+      <c r="E145" t="s">
+        <v>619</v>
+      </c>
+      <c r="F145" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>149</v>
+      </c>
+      <c r="C146" t="s">
+        <v>323</v>
+      </c>
+      <c r="D146" t="s">
+        <v>461</v>
+      </c>
+      <c r="E146" t="s">
+        <v>644</v>
+      </c>
+      <c r="F146" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
+      <c r="C147" t="s">
+        <v>323</v>
+      </c>
+      <c r="D147" t="s">
+        <v>462</v>
+      </c>
+      <c r="E147" t="s">
+        <v>608</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148" t="s">
+        <v>323</v>
+      </c>
+      <c r="D148" t="s">
+        <v>463</v>
+      </c>
+      <c r="E148" t="s">
+        <v>607</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
+      <c r="C149" t="s">
+        <v>323</v>
+      </c>
+      <c r="D149" t="s">
+        <v>464</v>
+      </c>
+      <c r="E149" t="s">
+        <v>609</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>153</v>
+      </c>
+      <c r="C150" t="s">
+        <v>323</v>
+      </c>
+      <c r="D150" t="s">
+        <v>465</v>
+      </c>
+      <c r="E150" t="s">
+        <v>615</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
+      <c r="C151" t="s">
+        <v>323</v>
+      </c>
+      <c r="D151" t="s">
+        <v>466</v>
+      </c>
+      <c r="E151" t="s">
+        <v>633</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152" t="s">
+        <v>323</v>
+      </c>
+      <c r="D152" t="s">
+        <v>467</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
+      <c r="C153" t="s">
+        <v>323</v>
+      </c>
+      <c r="D153" t="s">
+        <v>468</v>
+      </c>
+      <c r="E153" t="s">
+        <v>620</v>
+      </c>
+      <c r="F153" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" t="s">
+        <v>323</v>
+      </c>
+      <c r="D154" t="s">
+        <v>469</v>
+      </c>
+      <c r="E154" t="s">
+        <v>618</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
+      <c r="C155" t="s">
+        <v>323</v>
+      </c>
+      <c r="D155" t="s">
+        <v>470</v>
+      </c>
+      <c r="E155" t="s">
+        <v>619</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156" t="s">
+        <v>323</v>
+      </c>
+      <c r="D156" t="s">
+        <v>471</v>
+      </c>
+      <c r="E156" t="s">
+        <v>612</v>
+      </c>
+      <c r="F156" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157" t="s">
+        <v>323</v>
+      </c>
+      <c r="D157" t="s">
+        <v>472</v>
+      </c>
+      <c r="E157" t="s">
+        <v>618</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>161</v>
+      </c>
+      <c r="C158" t="s">
+        <v>323</v>
+      </c>
+      <c r="D158" t="s">
+        <v>374</v>
+      </c>
+      <c r="E158" t="s">
+        <v>608</v>
+      </c>
+      <c r="F158" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>162</v>
+      </c>
+      <c r="C159" t="s">
+        <v>323</v>
+      </c>
+      <c r="D159" t="s">
+        <v>325</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>163</v>
+      </c>
+      <c r="C160" t="s">
+        <v>323</v>
+      </c>
+      <c r="D160" t="s">
+        <v>473</v>
+      </c>
+      <c r="E160" t="s">
+        <v>631</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>164</v>
+      </c>
+      <c r="C161" t="s">
+        <v>323</v>
+      </c>
+      <c r="D161" t="s">
+        <v>474</v>
+      </c>
+      <c r="E161" t="s">
+        <v>615</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>165</v>
+      </c>
+      <c r="C162" t="s">
+        <v>323</v>
+      </c>
+      <c r="D162" t="s">
+        <v>475</v>
+      </c>
+      <c r="E162" t="s">
+        <v>615</v>
+      </c>
+      <c r="F162" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>166</v>
+      </c>
+      <c r="C163" t="s">
+        <v>323</v>
+      </c>
+      <c r="D163" t="s">
+        <v>476</v>
+      </c>
+      <c r="E163" t="s">
+        <v>611</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>167</v>
+      </c>
+      <c r="C164" t="s">
+        <v>323</v>
+      </c>
+      <c r="D164" t="s">
+        <v>477</v>
+      </c>
+      <c r="E164" t="s">
+        <v>611</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>168</v>
+      </c>
+      <c r="C165" t="s">
+        <v>323</v>
+      </c>
+      <c r="D165" t="s">
+        <v>478</v>
+      </c>
+      <c r="E165" t="s">
+        <v>625</v>
+      </c>
+      <c r="F165" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>169</v>
+      </c>
+      <c r="C166" t="s">
+        <v>323</v>
+      </c>
+      <c r="D166" t="s">
+        <v>479</v>
+      </c>
+      <c r="E166" t="s">
+        <v>645</v>
+      </c>
+      <c r="F166" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>170</v>
+      </c>
+      <c r="C167" t="s">
+        <v>323</v>
+      </c>
+      <c r="D167" t="s">
+        <v>480</v>
+      </c>
+      <c r="E167" t="s">
+        <v>633</v>
+      </c>
+      <c r="F167" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>171</v>
+      </c>
+      <c r="C168" t="s">
+        <v>323</v>
+      </c>
+      <c r="D168" t="s">
+        <v>481</v>
+      </c>
+      <c r="E168" t="s">
+        <v>615</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>172</v>
+      </c>
+      <c r="C169" t="s">
+        <v>323</v>
+      </c>
+      <c r="D169" t="s">
+        <v>482</v>
+      </c>
+      <c r="E169" t="s">
+        <v>622</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>173</v>
+      </c>
+      <c r="C170" t="s">
+        <v>323</v>
+      </c>
+      <c r="D170" t="s">
+        <v>483</v>
+      </c>
+      <c r="E170" t="s">
+        <v>618</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>174</v>
+      </c>
+      <c r="C171" t="s">
+        <v>323</v>
+      </c>
+      <c r="D171" t="s">
+        <v>484</v>
+      </c>
+      <c r="E171" t="s">
+        <v>610</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>175</v>
+      </c>
+      <c r="C172" t="s">
+        <v>323</v>
+      </c>
+      <c r="D172" t="s">
+        <v>485</v>
+      </c>
+      <c r="E172" t="s">
+        <v>633</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173" t="s">
+        <v>323</v>
+      </c>
+      <c r="D173" t="s">
+        <v>376</v>
+      </c>
+      <c r="E173" t="s">
+        <v>608</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>177</v>
+      </c>
+      <c r="C174" t="s">
+        <v>323</v>
+      </c>
+      <c r="D174" t="s">
+        <v>486</v>
+      </c>
+      <c r="E174" t="s">
+        <v>608</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>178</v>
+      </c>
+      <c r="C175" t="s">
+        <v>323</v>
+      </c>
+      <c r="D175" t="s">
+        <v>487</v>
+      </c>
+      <c r="E175" t="s">
+        <v>612</v>
+      </c>
+      <c r="F175" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>179</v>
+      </c>
+      <c r="C176" t="s">
+        <v>323</v>
+      </c>
+      <c r="D176" t="s">
+        <v>488</v>
+      </c>
+      <c r="E176" t="s">
+        <v>633</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177" t="s">
+        <v>323</v>
+      </c>
+      <c r="D177" t="s">
+        <v>489</v>
+      </c>
+      <c r="E177" t="s">
+        <v>627</v>
+      </c>
+      <c r="F177" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>181</v>
+      </c>
+      <c r="C178" t="s">
+        <v>323</v>
+      </c>
+      <c r="D178" t="s">
+        <v>490</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>182</v>
+      </c>
+      <c r="C179" t="s">
+        <v>323</v>
+      </c>
+      <c r="D179" t="s">
+        <v>491</v>
+      </c>
+      <c r="E179" t="s">
+        <v>619</v>
+      </c>
+      <c r="F179" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>183</v>
+      </c>
+      <c r="C180" t="s">
+        <v>323</v>
+      </c>
+      <c r="D180" t="s">
+        <v>492</v>
+      </c>
+      <c r="E180" t="s">
+        <v>633</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>184</v>
+      </c>
+      <c r="C181" t="s">
+        <v>323</v>
+      </c>
+      <c r="D181" t="s">
+        <v>493</v>
+      </c>
+      <c r="E181" t="s">
+        <v>611</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>185</v>
+      </c>
+      <c r="C182" t="s">
+        <v>323</v>
+      </c>
+      <c r="D182" t="s">
+        <v>494</v>
+      </c>
+      <c r="E182" t="s">
+        <v>618</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>186</v>
+      </c>
+      <c r="C183" t="s">
+        <v>323</v>
+      </c>
+      <c r="D183" t="s">
+        <v>495</v>
+      </c>
+      <c r="E183" t="s">
+        <v>619</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>187</v>
+      </c>
+      <c r="C184" t="s">
+        <v>323</v>
+      </c>
+      <c r="D184" t="s">
+        <v>496</v>
+      </c>
+      <c r="E184" t="s">
+        <v>607</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>188</v>
+      </c>
+      <c r="C185" t="s">
+        <v>323</v>
+      </c>
+      <c r="D185" t="s">
+        <v>497</v>
+      </c>
+      <c r="E185" t="s">
+        <v>620</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>189</v>
+      </c>
+      <c r="C186" t="s">
+        <v>323</v>
+      </c>
+      <c r="D186" t="s">
+        <v>387</v>
+      </c>
+      <c r="E186" t="s">
+        <v>607</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>190</v>
+      </c>
+      <c r="C187" t="s">
+        <v>323</v>
+      </c>
+      <c r="D187" t="s">
+        <v>498</v>
+      </c>
+      <c r="E187" t="s">
+        <v>631</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>191</v>
+      </c>
+      <c r="C188" t="s">
+        <v>323</v>
+      </c>
+      <c r="D188" t="s">
+        <v>499</v>
+      </c>
+      <c r="E188" t="s">
+        <v>621</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>192</v>
+      </c>
+      <c r="C189" t="s">
+        <v>323</v>
+      </c>
+      <c r="D189" t="s">
+        <v>500</v>
+      </c>
+      <c r="E189" t="s">
+        <v>618</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>193</v>
+      </c>
+      <c r="C190" t="s">
+        <v>323</v>
+      </c>
+      <c r="D190" t="s">
+        <v>467</v>
+      </c>
+      <c r="E190" t="s">
+        <v>611</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>194</v>
+      </c>
+      <c r="C191" t="s">
+        <v>323</v>
+      </c>
+      <c r="D191" t="s">
+        <v>501</v>
+      </c>
+      <c r="E191" t="s">
+        <v>626</v>
+      </c>
+      <c r="F191" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>195</v>
+      </c>
+      <c r="C192" t="s">
+        <v>323</v>
+      </c>
+      <c r="D192" t="s">
+        <v>502</v>
+      </c>
+      <c r="E192" t="s">
+        <v>625</v>
+      </c>
+      <c r="F192" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>196</v>
+      </c>
+      <c r="C193" t="s">
+        <v>323</v>
+      </c>
+      <c r="D193" t="s">
+        <v>503</v>
+      </c>
+      <c r="E193" t="s">
+        <v>633</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>197</v>
+      </c>
+      <c r="C194" t="s">
+        <v>323</v>
+      </c>
+      <c r="D194" t="s">
+        <v>504</v>
+      </c>
+      <c r="E194" t="s">
+        <v>615</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>198</v>
+      </c>
+      <c r="C195" t="s">
+        <v>323</v>
+      </c>
+      <c r="D195" t="s">
+        <v>505</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>199</v>
+      </c>
+      <c r="C196" t="s">
+        <v>323</v>
+      </c>
+      <c r="D196" t="s">
+        <v>506</v>
+      </c>
+      <c r="E196" t="s">
+        <v>646</v>
+      </c>
+      <c r="F196" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>200</v>
+      </c>
+      <c r="C197" t="s">
+        <v>323</v>
+      </c>
+      <c r="D197" t="s">
+        <v>507</v>
+      </c>
+      <c r="E197" t="s">
+        <v>620</v>
+      </c>
+      <c r="F197" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>201</v>
+      </c>
+      <c r="C198" t="s">
+        <v>323</v>
+      </c>
+      <c r="D198" t="s">
+        <v>508</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>202</v>
+      </c>
+      <c r="C199" t="s">
+        <v>323</v>
+      </c>
+      <c r="D199" t="s">
+        <v>509</v>
+      </c>
+      <c r="E199" t="s">
+        <v>621</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>203</v>
+      </c>
+      <c r="C200" t="s">
+        <v>323</v>
+      </c>
+      <c r="D200" t="s">
+        <v>510</v>
+      </c>
+      <c r="E200" t="s">
+        <v>647</v>
+      </c>
+      <c r="F200" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>204</v>
+      </c>
+      <c r="C201" t="s">
+        <v>323</v>
+      </c>
+      <c r="D201" t="s">
+        <v>511</v>
+      </c>
+      <c r="E201" t="s">
+        <v>619</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>205</v>
+      </c>
+      <c r="C202" t="s">
+        <v>323</v>
+      </c>
+      <c r="D202" t="s">
+        <v>512</v>
+      </c>
+      <c r="E202" t="s">
+        <v>632</v>
+      </c>
+      <c r="F202" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>206</v>
+      </c>
+      <c r="C203" t="s">
+        <v>323</v>
+      </c>
+      <c r="D203" t="s">
+        <v>513</v>
+      </c>
+      <c r="E203" t="s">
+        <v>607</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>207</v>
+      </c>
+      <c r="C204" t="s">
+        <v>323</v>
+      </c>
+      <c r="D204" t="s">
+        <v>514</v>
+      </c>
+      <c r="E204" t="s">
+        <v>632</v>
+      </c>
+      <c r="F204" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>208</v>
+      </c>
+      <c r="C205" t="s">
+        <v>323</v>
+      </c>
+      <c r="D205" t="s">
+        <v>515</v>
+      </c>
+      <c r="E205" t="s">
+        <v>633</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>209</v>
+      </c>
+      <c r="C206" t="s">
+        <v>323</v>
+      </c>
+      <c r="D206" t="s">
+        <v>516</v>
+      </c>
+      <c r="E206" t="s">
+        <v>615</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>210</v>
+      </c>
+      <c r="C207" t="s">
+        <v>323</v>
+      </c>
+      <c r="D207" t="s">
+        <v>517</v>
+      </c>
+      <c r="E207" t="s">
+        <v>624</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>211</v>
+      </c>
+      <c r="C208" t="s">
+        <v>323</v>
+      </c>
+      <c r="D208" t="s">
+        <v>518</v>
+      </c>
+      <c r="E208" t="s">
+        <v>629</v>
+      </c>
+      <c r="F208" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>212</v>
+      </c>
+      <c r="C209" t="s">
+        <v>323</v>
+      </c>
+      <c r="D209" t="s">
+        <v>519</v>
+      </c>
+      <c r="E209" t="s">
+        <v>609</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>213</v>
+      </c>
+      <c r="C210" t="s">
+        <v>323</v>
+      </c>
+      <c r="D210" t="s">
+        <v>520</v>
+      </c>
+      <c r="E210" t="s">
+        <v>609</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>214</v>
+      </c>
+      <c r="C211" t="s">
+        <v>323</v>
+      </c>
+      <c r="D211" t="s">
+        <v>521</v>
+      </c>
+      <c r="E211" t="s">
+        <v>612</v>
+      </c>
+      <c r="F211" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>215</v>
+      </c>
+      <c r="C212" t="s">
+        <v>323</v>
+      </c>
+      <c r="D212" t="s">
+        <v>522</v>
+      </c>
+      <c r="E212" t="s">
+        <v>648</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>216</v>
+      </c>
+      <c r="C213" t="s">
+        <v>323</v>
+      </c>
+      <c r="D213" t="s">
+        <v>523</v>
+      </c>
+      <c r="E213" t="s">
+        <v>616</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>217</v>
+      </c>
+      <c r="C214" t="s">
+        <v>323</v>
+      </c>
+      <c r="D214" t="s">
+        <v>524</v>
+      </c>
+      <c r="E214" t="s">
+        <v>620</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>218</v>
+      </c>
+      <c r="C215" t="s">
+        <v>323</v>
+      </c>
+      <c r="D215" t="s">
+        <v>525</v>
+      </c>
+      <c r="E215" t="s">
+        <v>617</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>219</v>
+      </c>
+      <c r="C216" t="s">
+        <v>323</v>
+      </c>
+      <c r="D216" t="s">
+        <v>526</v>
+      </c>
+      <c r="E216" t="s">
+        <v>619</v>
+      </c>
+      <c r="F216" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>220</v>
+      </c>
+      <c r="C217" t="s">
+        <v>323</v>
+      </c>
+      <c r="D217" t="s">
+        <v>527</v>
+      </c>
+      <c r="E217" t="s">
+        <v>607</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>221</v>
+      </c>
+      <c r="C218" t="s">
+        <v>323</v>
+      </c>
+      <c r="D218" t="s">
+        <v>528</v>
+      </c>
+      <c r="E218" t="s">
+        <v>607</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>222</v>
+      </c>
+      <c r="C219" t="s">
+        <v>323</v>
+      </c>
+      <c r="D219" t="s">
+        <v>529</v>
+      </c>
+      <c r="E219" t="s">
+        <v>612</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>223</v>
+      </c>
+      <c r="C220" t="s">
+        <v>323</v>
+      </c>
+      <c r="D220" t="s">
+        <v>530</v>
+      </c>
+      <c r="E220" t="s">
+        <v>609</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>224</v>
+      </c>
+      <c r="C221" t="s">
+        <v>323</v>
+      </c>
+      <c r="D221" t="s">
+        <v>531</v>
+      </c>
+      <c r="E221" t="s">
+        <v>611</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>225</v>
+      </c>
+      <c r="C222" t="s">
+        <v>323</v>
+      </c>
+      <c r="D222" t="s">
+        <v>532</v>
+      </c>
+      <c r="E222" t="s">
+        <v>649</v>
+      </c>
+      <c r="F222" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C223" t="s">
+        <v>323</v>
+      </c>
+      <c r="D223" t="s">
+        <v>533</v>
+      </c>
+      <c r="E223" t="s">
+        <v>615</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>227</v>
+      </c>
+      <c r="C224" t="s">
+        <v>323</v>
+      </c>
+      <c r="D224" t="s">
+        <v>326</v>
+      </c>
+      <c r="E224" t="s">
+        <v>611</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
+      <c r="C225" t="s">
+        <v>323</v>
+      </c>
+      <c r="D225" t="s">
+        <v>534</v>
+      </c>
+      <c r="E225" t="s">
+        <v>620</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>229</v>
+      </c>
+      <c r="C226" t="s">
+        <v>323</v>
+      </c>
+      <c r="D226" t="s">
+        <v>535</v>
+      </c>
+      <c r="E226" t="s">
+        <v>612</v>
+      </c>
+      <c r="F226" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>230</v>
+      </c>
+      <c r="C227" t="s">
+        <v>323</v>
+      </c>
+      <c r="D227" t="s">
+        <v>536</v>
+      </c>
+      <c r="E227" t="s">
+        <v>624</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>231</v>
+      </c>
+      <c r="C228" t="s">
+        <v>323</v>
+      </c>
+      <c r="D228" t="s">
+        <v>537</v>
+      </c>
+      <c r="E228" t="s">
+        <v>616</v>
+      </c>
+      <c r="F228" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>232</v>
+      </c>
+      <c r="C229" t="s">
+        <v>323</v>
+      </c>
+      <c r="D229" t="s">
+        <v>538</v>
+      </c>
+      <c r="E229" t="s">
+        <v>612</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>233</v>
+      </c>
+      <c r="C230" t="s">
+        <v>323</v>
+      </c>
+      <c r="D230" t="s">
+        <v>539</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>234</v>
+      </c>
+      <c r="C231" t="s">
+        <v>323</v>
+      </c>
+      <c r="D231" t="s">
+        <v>540</v>
+      </c>
+      <c r="E231" t="s">
+        <v>633</v>
+      </c>
+      <c r="F231" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>235</v>
+      </c>
+      <c r="C232" t="s">
+        <v>323</v>
+      </c>
+      <c r="D232" t="s">
+        <v>541</v>
+      </c>
+      <c r="E232" t="s">
+        <v>638</v>
+      </c>
+      <c r="F232" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>236</v>
+      </c>
+      <c r="C233" t="s">
+        <v>323</v>
+      </c>
+      <c r="D233" t="s">
+        <v>542</v>
+      </c>
+      <c r="E233" t="s">
+        <v>618</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>237</v>
+      </c>
+      <c r="C234" t="s">
+        <v>323</v>
+      </c>
+      <c r="D234" t="s">
+        <v>543</v>
+      </c>
+      <c r="E234" t="s">
+        <v>633</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>238</v>
+      </c>
+      <c r="C235" t="s">
+        <v>323</v>
+      </c>
+      <c r="D235" t="s">
+        <v>544</v>
+      </c>
+      <c r="E235" t="s">
+        <v>607</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>239</v>
+      </c>
+      <c r="C236" t="s">
+        <v>323</v>
+      </c>
+      <c r="D236" t="s">
+        <v>545</v>
+      </c>
+      <c r="E236" t="s">
+        <v>624</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>240</v>
+      </c>
+      <c r="C237" t="s">
+        <v>323</v>
+      </c>
+      <c r="D237" t="s">
+        <v>546</v>
+      </c>
+      <c r="E237" t="s">
+        <v>609</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>241</v>
+      </c>
+      <c r="C238" t="s">
+        <v>323</v>
+      </c>
+      <c r="D238" t="s">
+        <v>547</v>
+      </c>
+      <c r="E238" t="s">
+        <v>628</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>242</v>
+      </c>
+      <c r="C239" t="s">
+        <v>323</v>
+      </c>
+      <c r="D239" t="s">
+        <v>548</v>
+      </c>
+      <c r="E239" t="s">
+        <v>610</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>243</v>
+      </c>
+      <c r="C240" t="s">
+        <v>323</v>
+      </c>
+      <c r="D240" t="s">
+        <v>549</v>
+      </c>
+      <c r="E240" t="s">
+        <v>625</v>
+      </c>
+      <c r="F240" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>244</v>
+      </c>
+      <c r="C241" t="s">
+        <v>323</v>
+      </c>
+      <c r="D241" t="s">
+        <v>550</v>
+      </c>
+      <c r="E241" t="s">
+        <v>611</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>245</v>
+      </c>
+      <c r="C242" t="s">
+        <v>323</v>
+      </c>
+      <c r="D242" t="s">
+        <v>551</v>
+      </c>
+      <c r="E242" t="s">
+        <v>624</v>
+      </c>
+      <c r="F242" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>246</v>
+      </c>
+      <c r="C243" t="s">
+        <v>323</v>
+      </c>
+      <c r="D243" t="s">
+        <v>552</v>
+      </c>
+      <c r="E243" t="s">
+        <v>620</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>247</v>
+      </c>
+      <c r="C244" t="s">
+        <v>323</v>
+      </c>
+      <c r="D244" t="s">
+        <v>361</v>
+      </c>
+      <c r="E244" t="s">
+        <v>609</v>
+      </c>
+      <c r="F244" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>248</v>
+      </c>
+      <c r="C245" t="s">
+        <v>323</v>
+      </c>
+      <c r="D245" t="s">
+        <v>553</v>
+      </c>
+      <c r="E245" t="s">
+        <v>609</v>
+      </c>
+      <c r="F245" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>249</v>
+      </c>
+      <c r="C246" t="s">
+        <v>323</v>
+      </c>
+      <c r="D246" t="s">
+        <v>554</v>
+      </c>
+      <c r="E246" t="s">
+        <v>607</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>250</v>
+      </c>
+      <c r="C247" t="s">
+        <v>323</v>
+      </c>
+      <c r="D247" t="s">
+        <v>555</v>
+      </c>
+      <c r="E247" t="s">
+        <v>624</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>251</v>
+      </c>
+      <c r="C248" t="s">
+        <v>323</v>
+      </c>
+      <c r="D248" t="s">
+        <v>556</v>
+      </c>
+      <c r="E248" t="s">
+        <v>609</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>252</v>
+      </c>
+      <c r="C249" t="s">
+        <v>323</v>
+      </c>
+      <c r="D249" t="s">
+        <v>548</v>
+      </c>
+      <c r="E249" t="s">
+        <v>633</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>253</v>
+      </c>
+      <c r="C250" t="s">
+        <v>323</v>
+      </c>
+      <c r="D250" t="s">
+        <v>557</v>
+      </c>
+      <c r="E250" t="s">
+        <v>633</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>254</v>
+      </c>
+      <c r="C251" t="s">
+        <v>323</v>
+      </c>
+      <c r="D251" t="s">
+        <v>558</v>
+      </c>
+      <c r="E251" t="s">
+        <v>633</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>255</v>
+      </c>
+      <c r="C252" t="s">
+        <v>323</v>
+      </c>
+      <c r="D252" t="s">
+        <v>559</v>
+      </c>
+      <c r="E252" t="s">
+        <v>608</v>
+      </c>
+      <c r="F252" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>256</v>
+      </c>
+      <c r="C253" t="s">
+        <v>323</v>
+      </c>
+      <c r="D253" t="s">
+        <v>560</v>
+      </c>
+      <c r="E253" t="s">
+        <v>650</v>
+      </c>
+      <c r="F253" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>257</v>
+      </c>
+      <c r="C254" t="s">
+        <v>323</v>
+      </c>
+      <c r="D254" t="s">
+        <v>561</v>
+      </c>
+      <c r="E254" t="s">
+        <v>607</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>258</v>
+      </c>
+      <c r="C255" t="s">
+        <v>323</v>
+      </c>
+      <c r="D255" t="s">
+        <v>562</v>
+      </c>
+      <c r="E255" t="s">
+        <v>607</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>259</v>
+      </c>
+      <c r="C256" t="s">
+        <v>323</v>
+      </c>
+      <c r="D256" t="s">
+        <v>563</v>
+      </c>
+      <c r="E256" t="s">
+        <v>615</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>260</v>
+      </c>
+      <c r="C257" t="s">
+        <v>323</v>
+      </c>
+      <c r="D257" t="s">
+        <v>564</v>
+      </c>
+      <c r="E257" t="s">
+        <v>607</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>261</v>
+      </c>
+      <c r="C258" t="s">
+        <v>323</v>
+      </c>
+      <c r="D258" t="s">
+        <v>565</v>
+      </c>
+      <c r="E258" t="s">
+        <v>618</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>262</v>
+      </c>
+      <c r="C259" t="s">
+        <v>323</v>
+      </c>
+      <c r="D259" t="s">
+        <v>566</v>
+      </c>
+      <c r="E259" t="s">
+        <v>620</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>263</v>
+      </c>
+      <c r="C260" t="s">
+        <v>323</v>
+      </c>
+      <c r="D260" t="s">
+        <v>567</v>
+      </c>
+      <c r="E260" t="s">
+        <v>609</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>264</v>
+      </c>
+      <c r="C261" t="s">
+        <v>323</v>
+      </c>
+      <c r="D261" t="s">
+        <v>418</v>
+      </c>
+      <c r="E261" t="s">
+        <v>607</v>
+      </c>
+      <c r="F261" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>265</v>
+      </c>
+      <c r="C262" t="s">
+        <v>323</v>
+      </c>
+      <c r="D262" t="s">
+        <v>568</v>
+      </c>
+      <c r="E262" t="s">
+        <v>632</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>266</v>
+      </c>
+      <c r="C263" t="s">
+        <v>323</v>
+      </c>
+      <c r="D263" t="s">
+        <v>569</v>
+      </c>
+      <c r="E263" t="s">
+        <v>608</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>267</v>
+      </c>
+      <c r="C264" t="s">
+        <v>323</v>
+      </c>
+      <c r="D264" t="s">
+        <v>570</v>
+      </c>
+      <c r="E264" t="s">
+        <v>628</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>268</v>
+      </c>
+      <c r="C265" t="s">
+        <v>323</v>
+      </c>
+      <c r="D265" t="s">
+        <v>368</v>
+      </c>
+      <c r="E265" t="s">
+        <v>610</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>269</v>
+      </c>
+      <c r="C266" t="s">
+        <v>323</v>
+      </c>
+      <c r="D266" t="s">
+        <v>571</v>
+      </c>
+      <c r="E266" t="s">
+        <v>620</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>270</v>
+      </c>
+      <c r="C267" t="s">
+        <v>323</v>
+      </c>
+      <c r="D267" t="s">
+        <v>572</v>
+      </c>
+      <c r="E267" t="s">
+        <v>624</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>271</v>
+      </c>
+      <c r="C268" t="s">
+        <v>323</v>
+      </c>
+      <c r="D268" t="s">
+        <v>573</v>
+      </c>
+      <c r="E268" t="s">
+        <v>633</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>272</v>
+      </c>
+      <c r="C269" t="s">
+        <v>323</v>
+      </c>
+      <c r="D269" t="s">
+        <v>574</v>
+      </c>
+      <c r="E269" t="s">
+        <v>607</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>273</v>
+      </c>
+      <c r="C270" t="s">
+        <v>323</v>
+      </c>
+      <c r="D270" t="s">
+        <v>575</v>
+      </c>
+      <c r="E270" t="s">
+        <v>608</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>194</v>
+      </c>
+      <c r="C271" t="s">
+        <v>323</v>
+      </c>
+      <c r="D271" t="s">
+        <v>576</v>
+      </c>
+      <c r="E271" t="s">
+        <v>613</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>274</v>
+      </c>
+      <c r="C272" t="s">
+        <v>323</v>
+      </c>
+      <c r="D272" t="s">
+        <v>577</v>
+      </c>
+      <c r="E272" t="s">
+        <v>625</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>275</v>
+      </c>
+      <c r="C273" t="s">
+        <v>323</v>
+      </c>
+      <c r="D273" t="s">
+        <v>578</v>
+      </c>
+      <c r="E273" t="s">
+        <v>620</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>276</v>
+      </c>
+      <c r="C274" t="s">
+        <v>323</v>
+      </c>
+      <c r="D274" t="s">
+        <v>579</v>
+      </c>
+      <c r="E274" t="s">
+        <v>607</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>277</v>
+      </c>
+      <c r="C275" t="s">
+        <v>323</v>
+      </c>
+      <c r="D275" t="s">
+        <v>580</v>
+      </c>
+      <c r="E275" t="s">
+        <v>611</v>
+      </c>
+      <c r="F275" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>278</v>
+      </c>
+      <c r="C276" t="s">
+        <v>323</v>
+      </c>
+      <c r="D276" t="s">
+        <v>581</v>
+      </c>
+      <c r="E276" t="s">
+        <v>607</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>279</v>
+      </c>
+      <c r="C277" t="s">
+        <v>323</v>
+      </c>
+      <c r="D277" t="s">
+        <v>582</v>
+      </c>
+      <c r="E277" t="s">
+        <v>633</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>280</v>
+      </c>
+      <c r="C278" t="s">
+        <v>323</v>
+      </c>
+      <c r="D278" t="s">
+        <v>583</v>
+      </c>
+      <c r="E278" t="s">
+        <v>651</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>281</v>
+      </c>
+      <c r="C279" t="s">
+        <v>323</v>
+      </c>
+      <c r="D279" t="s">
+        <v>584</v>
+      </c>
+      <c r="E279" t="s">
+        <v>633</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>282</v>
+      </c>
+      <c r="C280" t="s">
+        <v>323</v>
+      </c>
+      <c r="D280" t="s">
+        <v>585</v>
+      </c>
+      <c r="E280" t="s">
+        <v>615</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>283</v>
+      </c>
+      <c r="C281" t="s">
+        <v>323</v>
+      </c>
+      <c r="D281" t="s">
+        <v>586</v>
+      </c>
+      <c r="E281" t="s">
+        <v>609</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>284</v>
+      </c>
+      <c r="C282" t="s">
+        <v>323</v>
+      </c>
+      <c r="D282" t="s">
+        <v>587</v>
+      </c>
+      <c r="E282" t="s">
+        <v>633</v>
+      </c>
+      <c r="F282" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>285</v>
+      </c>
+      <c r="C283" t="s">
+        <v>323</v>
+      </c>
+      <c r="D283" t="s">
+        <v>588</v>
+      </c>
+      <c r="E283" t="s">
+        <v>633</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>286</v>
+      </c>
+      <c r="C284" t="s">
+        <v>323</v>
+      </c>
+      <c r="D284" t="s">
+        <v>589</v>
+      </c>
+      <c r="E284" t="s">
+        <v>616</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>287</v>
+      </c>
+      <c r="C285" t="s">
+        <v>323</v>
+      </c>
+      <c r="D285" t="s">
+        <v>590</v>
+      </c>
+      <c r="E285" t="s">
+        <v>615</v>
+      </c>
+      <c r="F285" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>288</v>
+      </c>
+      <c r="C286" t="s">
+        <v>323</v>
+      </c>
+      <c r="D286" t="s">
+        <v>591</v>
+      </c>
+      <c r="E286" t="s">
+        <v>625</v>
+      </c>
+      <c r="F286" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>289</v>
+      </c>
+      <c r="C287" t="s">
+        <v>323</v>
+      </c>
+      <c r="D287" t="s">
+        <v>592</v>
+      </c>
+      <c r="E287" t="s">
+        <v>608</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>290</v>
+      </c>
+      <c r="C288" t="s">
+        <v>323</v>
+      </c>
+      <c r="D288" t="s">
+        <v>593</v>
+      </c>
+      <c r="E288" t="s">
+        <v>611</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>291</v>
+      </c>
+      <c r="C289" t="s">
+        <v>323</v>
+      </c>
+      <c r="D289" t="s">
+        <v>594</v>
+      </c>
+      <c r="E289" t="s">
+        <v>609</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>292</v>
+      </c>
+      <c r="C290" t="s">
+        <v>323</v>
+      </c>
+      <c r="D290" t="s">
+        <v>595</v>
+      </c>
+      <c r="E290" t="s">
+        <v>618</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>293</v>
+      </c>
+      <c r="C291" t="s">
+        <v>323</v>
+      </c>
+      <c r="D291" t="s">
+        <v>596</v>
+      </c>
+      <c r="E291" t="s">
+        <v>607</v>
+      </c>
+      <c r="F291" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>294</v>
+      </c>
+      <c r="C292" t="s">
+        <v>323</v>
+      </c>
+      <c r="D292" t="s">
+        <v>597</v>
+      </c>
+      <c r="E292" t="s">
+        <v>615</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>295</v>
+      </c>
+      <c r="C293" t="s">
+        <v>323</v>
+      </c>
+      <c r="D293" t="s">
+        <v>598</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>296</v>
+      </c>
+      <c r="C294" t="s">
+        <v>323</v>
+      </c>
+      <c r="D294" t="s">
+        <v>599</v>
+      </c>
+      <c r="E294" t="s">
+        <v>616</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>297</v>
+      </c>
+      <c r="C295" t="s">
+        <v>323</v>
+      </c>
+      <c r="D295" t="s">
+        <v>600</v>
+      </c>
+      <c r="E295" t="s">
+        <v>615</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>298</v>
+      </c>
+      <c r="C296" t="s">
+        <v>323</v>
+      </c>
+      <c r="D296" t="s">
+        <v>601</v>
+      </c>
+      <c r="E296" t="s">
+        <v>616</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>299</v>
+      </c>
+      <c r="C297" t="s">
+        <v>323</v>
+      </c>
+      <c r="D297" t="s">
+        <v>602</v>
+      </c>
+      <c r="E297" t="s">
+        <v>624</v>
+      </c>
+      <c r="F297" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>300</v>
+      </c>
+      <c r="C298" t="s">
+        <v>323</v>
+      </c>
+      <c r="D298" t="s">
+        <v>603</v>
+      </c>
+      <c r="E298" t="s">
+        <v>608</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>301</v>
+      </c>
+      <c r="C299" t="s">
+        <v>323</v>
+      </c>
+      <c r="D299" t="s">
+        <v>604</v>
+      </c>
+      <c r="E299" t="s">
+        <v>610</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>302</v>
+      </c>
+      <c r="C300" t="s">
+        <v>323</v>
+      </c>
+      <c r="D300" t="s">
+        <v>605</v>
+      </c>
+      <c r="E300" t="s">
+        <v>628</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>303</v>
+      </c>
+      <c r="C301" t="s">
+        <v>323</v>
+      </c>
+      <c r="D301" t="s">
+        <v>606</v>
+      </c>
+      <c r="E301" t="s">
+        <v>633</v>
+      </c>
+      <c r="F301">
         <v>0</v>
       </c>
     </row>

--- a/data/뽐뿌.xlsx
+++ b/data/뽐뿌.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="812">
   <si>
     <t>제목</t>
   </si>
@@ -31,6 +31,594 @@
     <t>추천수</t>
   </si>
   <si>
+    <t>확실히 명품은 한국이 싸네요.</t>
+  </si>
+  <si>
+    <t>구글은 대단한듯 스포츠 아나운서 배우</t>
+  </si>
+  <si>
+    <t>오늘 수능 본 학생들 모두 좋은 결과 있으면 좋겠네요</t>
+  </si>
+  <si>
+    <t>사용자와 노동자는 언제까지 갑과 을이어야 하나?</t>
+  </si>
+  <si>
+    <t>'담배 훈계' 보복한 중학생들 "우린 사람 죽여도 교도소 안 가"</t>
+  </si>
+  <si>
+    <t>패딩조끼가 이쁜 옷이라고 생각하시나여?</t>
+  </si>
+  <si>
+    <t>치킨 만큼은 진심이였던 황교안</t>
+  </si>
+  <si>
+    <t>딸 바보 되기 쉽네영..</t>
+  </si>
+  <si>
+    <t>확실한 암호 해독법 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>사나가 확실히 예쁘긴하네요</t>
+  </si>
+  <si>
+    <t>수능기념  수학문제푸는 박명수</t>
+  </si>
+  <si>
+    <t>와이프가 자전거 동호회 나간다해서 걱정인 유부남</t>
+  </si>
+  <si>
+    <t>시험 종료 후 답안지 30초 작성한 학생... 결국 0점 처리 감행</t>
+  </si>
+  <si>
+    <t>오늘 휴가쓰고 라면 먹으니까 엄청 맛있네요</t>
+  </si>
+  <si>
+    <t>세계적 뮤지션 두명의 선택을 받았던 여자, 그녀를 위해 만들어진 히트송이 무려 세곡.....</t>
+  </si>
+  <si>
+    <t>10조가 넘는 1kg 흙</t>
+  </si>
+  <si>
+    <t>궁금한게 여경이 지원요청을 했는데 또 여경이 오면 어떻게 하죠??</t>
+  </si>
+  <si>
+    <t>신발 이런 경우도 있군요 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>영국 보건 전문가 "코로나19 대응, 한국서 배워야"</t>
+  </si>
+  <si>
+    <t>근데 닭강정 이나 후라이드 치킨 트레이더스에서 샀었는데  맛있어요</t>
+  </si>
+  <si>
+    <t>쇼미더머니 보시는분</t>
+  </si>
+  <si>
+    <t>소니가 내건 스파이더맨의 조건.jpg</t>
+  </si>
+  <si>
+    <t>치킨값 또 오른다.</t>
+  </si>
+  <si>
+    <t>오퀴즈 16시 - 오늘만</t>
+  </si>
+  <si>
+    <t>흉기 현장 이탈한건 여경인데 왜 남경 이미지?</t>
+  </si>
+  <si>
+    <t>qcy t13 그냥 qcy 이어폰 수준이에요.</t>
+  </si>
+  <si>
+    <t>인천 여경사건 경찰 사과문</t>
+  </si>
+  <si>
+    <t>30년간 연 끊었던 아들 "유족급여 달라" 법원 판단은</t>
+  </si>
+  <si>
+    <t>교촌 영업이익</t>
+  </si>
+  <si>
+    <t>뭉쏜 vs 골때녀 콜라보해도 재밌을거 같지 않나요</t>
+  </si>
+  <si>
+    <t>트럭에서 파는 귤 장수</t>
+  </si>
+  <si>
+    <t>교촌치킨, 22일부터 가격인상 최대 2천원 오른다</t>
+  </si>
+  <si>
+    <t>다이어트 도시락을 싸와도..</t>
+  </si>
+  <si>
+    <t>어느 할머니로부터 온 전화</t>
+  </si>
+  <si>
+    <t>아 진짜 갑자기 떡볶이 땡기네요</t>
+  </si>
+  <si>
+    <t>김민주 쳐바르는 유일한 아이돌</t>
+  </si>
+  <si>
+    <t>롯데리아 ㅂㄷㅂㄷ.. 제가 진상인걸까요 ?!</t>
+  </si>
+  <si>
+    <t>당근 예약 밀어내기 ..신선하네요</t>
+  </si>
+  <si>
+    <t>인천 경찰 사과문에서 시민의 눈높이?</t>
+  </si>
+  <si>
+    <t>얀센 + 모더나 맞았어요</t>
+  </si>
+  <si>
+    <t>다음달에 재개봉하는 전설의 영화.jpg</t>
+  </si>
+  <si>
+    <t>쿠팡잇츠 이디야드셧던분?</t>
+  </si>
+  <si>
+    <t>네파 그린란드 중고 패딩 구매 세탁 망했어요</t>
+  </si>
+  <si>
+    <t>오늘자 장원영 길거리 직찍...jpg</t>
+  </si>
+  <si>
+    <t>얀센 맞고 부스터샷 맞으신분잇나요?? 오늘 네이트 기사보니 맞기 두려워지네요...ㄷㄷㄷ</t>
+  </si>
+  <si>
+    <t>톰형님 급노화 온듯</t>
+  </si>
+  <si>
+    <t>여자 초등생 권투실력</t>
+  </si>
+  <si>
+    <t>이번 여경 사건으로 다시보는 짤들</t>
+  </si>
+  <si>
+    <t>회사 네이트온 통해서 피싱 당하기 직전까지 갔습니다 ^^;;</t>
+  </si>
+  <si>
+    <t>호불호 갈리는 소세지 1위</t>
+  </si>
+  <si>
+    <t>자꾸 옷판매 관련해서 전화가 잘못오네요.</t>
+  </si>
+  <si>
+    <t>로봇청소기 써보신분</t>
+  </si>
+  <si>
+    <t>10~20년 후면.. 남자가 집해와야 된다 라는 개소리 마인드는 없어지겠지요?</t>
+  </si>
+  <si>
+    <t>지금 헤어지는 중입니다 잼써요~</t>
+  </si>
+  <si>
+    <t>자유로운 조직이면서 경쟁상태에 있어야 된다면  자영업을 뜻 하는 건가요?</t>
+  </si>
+  <si>
+    <t>어제에 비해 위중증 환자가 16명 줄었네요</t>
+  </si>
+  <si>
+    <t>인천경찰청장 공식사과문</t>
+  </si>
+  <si>
+    <t>여자라고 주장하는 이란 축구선수</t>
+  </si>
+  <si>
+    <t>게시판 추천해주세요!</t>
+  </si>
+  <si>
+    <t>전기장판 틀어놓고 귤까먹는 날이 빨리 왔으면</t>
+  </si>
+  <si>
+    <t>월드오브탱크 하시는분 혹시 계시나요?</t>
+  </si>
+  <si>
+    <t>이제 요기요 담달 끝나면 강제 다이어트행이네요..</t>
+  </si>
+  <si>
+    <t>자영업은 아무나하는게 아닙니다.</t>
+  </si>
+  <si>
+    <t>요즘 신도들은 빠졌군요</t>
+  </si>
+  <si>
+    <t>현재 지영이 때문에 난리난 미국...JPG</t>
+  </si>
+  <si>
+    <t>뽐뿌 아이디 움짤 설정하는법 아시는분! 있나요?</t>
+  </si>
+  <si>
+    <t>아오 빡치네요 누가 차박고 갔는데...</t>
+  </si>
+  <si>
+    <t>8년차 남경이 말한 여경의 문제점</t>
+  </si>
+  <si>
+    <t>냉동만두</t>
+  </si>
+  <si>
+    <t>요기요 점심쿠폰</t>
+  </si>
+  <si>
+    <t>유튜브에 룩복 옷갈아 입는거 올리는 여자들요</t>
+  </si>
+  <si>
+    <t>왕릉아파트가 진짜 건설사만의 잘못인가요?</t>
+  </si>
+  <si>
+    <t>저도 받아 보네요 ㅎ</t>
+  </si>
+  <si>
+    <t>요기요슈클 파바 지난 다음에 가입해서 10회언제다쓰나 다 못쓸거같다 싶었는데</t>
+  </si>
+  <si>
+    <t>GP66 11UG.. 아직 한발 남았다.</t>
+  </si>
+  <si>
+    <t>크롬에서 굵은 글자 뭉개지는 거 해결 하는 법</t>
+  </si>
+  <si>
+    <t>한국에서 제일 어처구니 없는 상황</t>
+  </si>
+  <si>
+    <t>대한민국 계급측정기 2021년판</t>
+  </si>
+  <si>
+    <t>연합뉴스, 18일 오후 4시 포털 뉴스편집에서 사라져</t>
+  </si>
+  <si>
+    <t>음식점 갔는데 아.. 브레이크 타임이라네요</t>
+  </si>
+  <si>
+    <t>위드 코로나? 개뿔.</t>
+  </si>
+  <si>
+    <t>점심부터 치킨 달렸습니다.</t>
+  </si>
+  <si>
+    <t>LG 스탠바이미TV는 대량생산 계획이 없나보네요</t>
+  </si>
+  <si>
+    <t>캐시워크 ㅡ 세균증식</t>
+  </si>
+  <si>
+    <t>부산행 헐리웃 리메이크작 제목 공개.. news</t>
+  </si>
+  <si>
+    <t>SBS [단독] 보도로 보는 범인 제압 안 하고 나간 여경 사건</t>
+  </si>
+  <si>
+    <t>대우 벽걸이 세탁기 사용하시는분들 계신가요?</t>
+  </si>
+  <si>
+    <t>해외판 비정상회담에서 말하는 한국드라마.jpg</t>
+  </si>
+  <si>
+    <t>냉동 돈까스 먹을만한거 없나요?</t>
+  </si>
+  <si>
+    <t>오퀴즈 15시 - 5</t>
+  </si>
+  <si>
+    <t>간만에 기차탔는데 킹받네요 ㄷㄷ</t>
+  </si>
+  <si>
+    <t>회식 자주 하시나요?</t>
+  </si>
+  <si>
+    <t>211119 And 2111120 음악방송 출연진 라인업</t>
+  </si>
+  <si>
+    <t>진짜 게임 갈증 너무 심하다</t>
+  </si>
+  <si>
+    <t>"콘테가 지켜본다" 토트넘 김민재 러브콜 로메로 대안 거론</t>
+  </si>
+  <si>
+    <t>왜 여경 여소방관 늘리라는걸까요?</t>
+  </si>
+  <si>
+    <t>내일 수면 위내시경 하는데 떨리네요</t>
+  </si>
+  <si>
+    <t>샤오미 공기청정기 쓰시는분들 먼지센서 금방 고장나지않나요?(알리구매)</t>
+  </si>
+  <si>
+    <t>저는 앞으로 경찰 신고할때</t>
+  </si>
+  <si>
+    <t>무엇이든 물어보세요</t>
+  </si>
+  <si>
+    <t>43세 민증 검사한 편의점 알바.</t>
+  </si>
+  <si>
+    <t>여자가 자유로워야 사회도 자유롭죠</t>
+  </si>
+  <si>
+    <t>부스터샷 모더나로 예약했는데 전화왔네요</t>
+  </si>
+  <si>
+    <t>에브라, 박지성은 내 아들의 대부</t>
+  </si>
+  <si>
+    <t>얀센 후 모더나 맞았습니다</t>
+  </si>
+  <si>
+    <t>여경도망사건은 충격이네요.</t>
+  </si>
+  <si>
+    <t>올해 수능 필적 확인란 문구 (역대 수능 필적확인 문구)</t>
+  </si>
+  <si>
+    <t>역시 as는 대기업제품이 좋긴한거같아요</t>
+  </si>
+  <si>
+    <t>친구들이랑 ott뿜빠이하는데</t>
+  </si>
+  <si>
+    <t>여경은 이번사건으로 이제 무조건 내근으로만 빠지겠네요</t>
+  </si>
+  <si>
+    <t>갤럭시버즈2 사용하시는분들 외이도염 이슈 없으신가요?</t>
+  </si>
+  <si>
+    <t>여경 도망사건이 판결로 가면 좀 복잡해집니다.</t>
+  </si>
+  <si>
+    <t>이번 년도 생굴이 비싼 이유 (Feat. 굴 수협의 횡포)</t>
+  </si>
+  <si>
+    <t>각 방송사별 최고 시청률 프로그램</t>
+  </si>
+  <si>
+    <t>카톡 친구 삭제 많이들 하시나요?</t>
+  </si>
+  <si>
+    <t>색깔이 진해지고 있는 프랑스 국기..news</t>
+  </si>
+  <si>
+    <t>스트릿 맨 파이터</t>
+  </si>
+  <si>
+    <t>컴퓨터 사양인데 컴퓨터 게임 가능할까요?</t>
+  </si>
+  <si>
+    <t>편의점 비빔밥  기본.....     대결.</t>
+  </si>
+  <si>
+    <t>장판에 찌든때 제거하는 tip 있으신가요 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>수능날이군요.</t>
+  </si>
+  <si>
+    <t>여자친구나 와이프들은 이런 여성차별정책에 대해서 어떻게 생각하시나요??</t>
+  </si>
+  <si>
+    <t>펑</t>
+  </si>
+  <si>
+    <t>여친 흉기로 찌르고 고층 베란다서 추락 30대 체포</t>
+  </si>
+  <si>
+    <t>라면이나 짜파게티 먹고 화장실 들락날락 하시는 분 계신가요?</t>
+  </si>
+  <si>
+    <t>바나나 리퍼블릭 팩토리 블랙프라이데이 시작이어서 하나 샀는데.. 한번 봐주세요...</t>
+  </si>
+  <si>
+    <t>속보 당국 고3사망  코로나 접종 인과성 없어</t>
+  </si>
+  <si>
+    <t>뽐쿠폰 (1매x3명) 나눔(완료)</t>
+  </si>
+  <si>
+    <t>넷플릭스 구독하시는분들 유지 하실건가요??</t>
+  </si>
+  <si>
+    <t>오늘의 여경 뉴스</t>
+  </si>
+  <si>
+    <t>옛날에 한 15년쯤 전에 TV에서 본 황당한 차량 맞바뀜 사고..</t>
+  </si>
+  <si>
+    <t>11월12일 광군절에 주문한 p11이 벌써왔네요</t>
+  </si>
+  <si>
+    <t>GLG 레이블 (긱스 소속사 산하), 1호 아이돌 걸그룹 하이키 1월 데뷔</t>
+  </si>
+  <si>
+    <t>정해인 남동생</t>
+  </si>
+  <si>
+    <t>[단독] 경찰 앞 흉기 휘둘렀는데"제압 안 하고 나가" / SBS</t>
+  </si>
+  <si>
+    <t>대체 LED형광등 품질 미달</t>
+  </si>
+  <si>
+    <t>평발도 유연성 평발은 덜 나쁘다고 합니다</t>
+  </si>
+  <si>
+    <t>8년차 현직 남경이 말하는 오토케이 여경실체..ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>하남교산 청약 인정금액 2500~3000만원 당첨 예상</t>
+  </si>
+  <si>
+    <t>결국 치킨값도 올랐다..교촌 최대 2000원 인상</t>
+  </si>
+  <si>
+    <t>오퀴즈 3시 있습니다</t>
+  </si>
+  <si>
+    <t>상생소비지원금 캐시백 10만원 받았는데</t>
+  </si>
+  <si>
+    <t>비트코인 하면 안되는 이유.jpg</t>
+  </si>
+  <si>
+    <t>나혼산 유튜브에 김밥을 스시라 해놨네요</t>
+  </si>
+  <si>
+    <t>제일 어처구니가 없던 여경 표창장...ㅋㅋ</t>
+  </si>
+  <si>
+    <t>여자배구 조송화 문제가 많네요</t>
+  </si>
+  <si>
+    <t>페이코인 2만원 서비스로 받은거 있는데</t>
+  </si>
+  <si>
+    <t>모 언론사(?) 취재차량 주차수준</t>
+  </si>
+  <si>
+    <t>4대법정의무교육은 필수사항인가요?</t>
+  </si>
+  <si>
+    <t>하남 3~4억과천 5~8억 원대 3차 공공분야 사전청약 오늘 시작</t>
+  </si>
+  <si>
+    <t>영화에도 안나올 일이 현실에서 일어나네요. 여고생 허위미투 네요</t>
+  </si>
+  <si>
+    <t>마른여자나 마른 남자는 진짜 밥을 조금먹겠죠?</t>
+  </si>
+  <si>
+    <t>각 국가별 사실과 의견을 판단하는 능력.jpg</t>
+  </si>
+  <si>
+    <t>수능 끝났는데 이벤트 하는거 뭐 있을까?</t>
+  </si>
+  <si>
+    <t>이번 독감접종은 꽤나 아프네요</t>
+  </si>
+  <si>
+    <t>168.7cm, 42.2kg인 신예은.jpg</t>
+  </si>
+  <si>
+    <t>여경은 너무 준 공무원화 된거같아요</t>
+  </si>
+  <si>
+    <t>채널 추가 무료이모티콘</t>
+  </si>
+  <si>
+    <t>처음 본 남성에게 "돈 좀 내주세요"거절 당하자 가슴 만진 20대 여</t>
+  </si>
+  <si>
+    <t>오징어게임시즌2요</t>
+  </si>
+  <si>
+    <t>요기요 bhc 좋네요</t>
+  </si>
+  <si>
+    <t>캐시워크</t>
+  </si>
+  <si>
+    <t>수능보러 갈때 삼다수를 그대로 가져가면 안되는 이유</t>
+  </si>
+  <si>
+    <t>기아, 레이 처음 타봤는데요</t>
+  </si>
+  <si>
+    <t>지리산</t>
+  </si>
+  <si>
+    <t>이와중 경찰 최신근황.jpg</t>
+  </si>
+  <si>
+    <t>5대편의점 행사한거....</t>
+  </si>
+  <si>
+    <t>몇년 째 게시판 보면서 본 뿜뿌인들~</t>
+  </si>
+  <si>
+    <t>아이디 바꿨네요</t>
+  </si>
+  <si>
+    <t>요기요 bhc 행사는 약간 이런 느낌...</t>
+  </si>
+  <si>
+    <t>텀블러 들고 맥도날드에 커피 받으러 가야겠네요.</t>
+  </si>
+  <si>
+    <t>현대 기아차가 스텔스가 많은 이유.</t>
+  </si>
+  <si>
+    <t>팀삼성 상품권 5만원도 아직 안들어오신 분 계신가요?</t>
+  </si>
+  <si>
+    <t>디즈니 플러스에 포켓몬은 없겠죠?</t>
+  </si>
+  <si>
+    <t>여경문제는 그냥 내근직으로 돌리고 끝납니다</t>
+  </si>
+  <si>
+    <t>요기요 터졌나요</t>
+  </si>
+  <si>
+    <t>요기요 포장 주문 잘되시는가요?</t>
+  </si>
+  <si>
+    <t>요기요</t>
+  </si>
+  <si>
+    <t>하남 교산, 지장물조사 1년 넘도록 제자리</t>
+  </si>
+  <si>
+    <t>ott 생각보다 부담스럽네요</t>
+  </si>
+  <si>
+    <t>오늘자 꽤 어려운 수능 국어 문제</t>
+  </si>
+  <si>
+    <t>요즘 한국 인터넷 여혐 유교 탈레반님들 본 소감</t>
+  </si>
+  <si>
+    <t>요기요 이런 경우 결제가 어떻게 되는 걸까요</t>
+  </si>
+  <si>
+    <t>층간소음에 이사가려고 갈집 알아본날... 윗집 칼부림에 일가족 중경상</t>
+  </si>
+  <si>
+    <t>점심으로 닭갈비 먹고싶은데</t>
+  </si>
+  <si>
+    <t>오늘 배민 수능 이벤트 있네요 (3천원 할인)</t>
+  </si>
+  <si>
+    <t>미국이 한미일을 묶어보려고 하는데, 일본의 견제가 엄청나네요.</t>
+  </si>
+  <si>
+    <t>오늘 포장은 맛쵸킹!!</t>
+  </si>
+  <si>
+    <t>K-여경 근황.jpg</t>
+  </si>
+  <si>
+    <t>지민 영어표기 Jeemeeen jimin....???</t>
+  </si>
+  <si>
+    <t>같이삽시다 여배우 피시앤칩스7억 날렸다는데</t>
+  </si>
+  <si>
+    <t>10일간 일본자가격리 끝났습니다.</t>
+  </si>
+  <si>
+    <t>PC주의는 공산주의 같아요</t>
+  </si>
+  <si>
+    <t>오징어 게임 인기 넘을 드라마는</t>
+  </si>
+  <si>
+    <t>드라마 지리산에서....</t>
+  </si>
+  <si>
+    <t>수능 전날 너무 웃기네요.</t>
+  </si>
+  <si>
     <t>엄청 날씬한 여자 호불호 어떠신가요? 160cm 45kg</t>
   </si>
   <si>
@@ -202,9 +790,6 @@
     <t>창고에 요소수 8천 리터, 시가 6배 팔려다 덜미</t>
   </si>
   <si>
-    <t>상담 전화 남겼더니 유의사항을 변경시켜 버린거 같습니다. (수정)</t>
-  </si>
-  <si>
     <t>경찰, 소방, 군대는 여자가 굳이 필요없는 직종이죠</t>
   </si>
   <si>
@@ -346,589 +931,337 @@
     <t>돌아가신 아버지를 향해 부른 감동의 노래...jpg</t>
   </si>
   <si>
-    <t>락휴나 준코 같은 주점 가고 싶어하는 분이 많네요</t>
-  </si>
-  <si>
-    <t>노빠꾸 신혼부부.gisa</t>
-  </si>
-  <si>
-    <t>애플, 2022년부터 아이폰 맥 '자가수리' 허용</t>
-  </si>
-  <si>
-    <t>왘 치킫 당첨</t>
-  </si>
-  <si>
-    <t>요기요 런치 룰렛도 있어요</t>
-  </si>
-  <si>
-    <t>뽐게발 나무늘보 머그컵(미떼컵)왔어요</t>
-  </si>
-  <si>
-    <t>kb룰렛 돌리세요~ 스벅 됐네요ㅋㅋ</t>
-  </si>
-  <si>
-    <t>하와이 여행은 며칠 정도가 좋을까요?</t>
-  </si>
-  <si>
-    <t>실손보험 2세대 가입잔데 설계사들 말 100퍼 믿지 마세요.</t>
-  </si>
-  <si>
-    <t>KB 룰렛 치킨 당첨</t>
-  </si>
-  <si>
-    <t>디딤돌대출 이율 낮췄네요</t>
-  </si>
-  <si>
-    <t>톰 홀랜드 근황.JPG (feat 손흥민)</t>
-  </si>
-  <si>
-    <t>캐시워크 키토</t>
-  </si>
-  <si>
-    <t>KB룰렛 오늘 없어요?</t>
-  </si>
-  <si>
-    <t>kb 룰렛 돌리셨나요들~~</t>
-  </si>
-  <si>
-    <t>자율주행 상용화가 얼마나 어려운 거냐면</t>
-  </si>
-  <si>
-    <t>내가 훔친거지만 다시 빼앗길까바 못줌</t>
-  </si>
-  <si>
-    <t>디즈니플러스 자막</t>
-  </si>
-  <si>
-    <t>요즘 한국이 건설업 진출하는 추세가...</t>
-  </si>
-  <si>
-    <t>치킨대전 아무리 출연자들이 만들어봐야</t>
-  </si>
-  <si>
-    <t>30년간 연 끊었던 아들 "유족급여 달라"..법원 판단은</t>
-  </si>
-  <si>
-    <t>교직원이 집으로 유인해 성폭행" 고소한 여고생</t>
-  </si>
-  <si>
-    <t>크라임씬 재밌게 봤었는데 시즌4는 아예 물건너 간거죠? ㅠㅠ</t>
-  </si>
-  <si>
-    <t>옛 수능 담임생각나네요</t>
-  </si>
-  <si>
-    <t>KT 인터넷 재약정 할인은 안되나봐요..</t>
-  </si>
-  <si>
-    <t>폼뿌 휴대폰 계시판은 별로 인것 같아요.</t>
-  </si>
-  <si>
-    <t>G마켓 스마일포인트 만원 채우기 미션</t>
-  </si>
-  <si>
-    <t>버거킹, 맘스터치 요즘 양상추 잘나오나요?</t>
-  </si>
-  <si>
-    <t>수험생에게 손목시계 빌려준 구청장</t>
-  </si>
-  <si>
-    <t>한번 할때 큰맘 먹어야하는 시(수)술들</t>
-  </si>
-  <si>
-    <t>진짜 답없네요 무단횡단도 정도가 있지;</t>
-  </si>
-  <si>
-    <t>넷플릭스 가격인상 한국만 그런건 아니겠죠??</t>
-  </si>
-  <si>
-    <t>치킨대전 2회 우승치킨이요 표절의심이 듭니다.</t>
-  </si>
-  <si>
-    <t>요기요 카카오페이 쿠폰 받으세요</t>
-  </si>
-  <si>
-    <t>만취해 아파트 주차장서 차량 3대 들이받은 여경 검찰송치</t>
-  </si>
-  <si>
-    <t>한국이 붙어먹는 국가 중에 가장 성공적이라 보이는 게... UAE</t>
-  </si>
-  <si>
-    <t>항상 시작은 좋았지....</t>
-  </si>
-  <si>
-    <t>오늘부터 일산대교.jpg</t>
-  </si>
-  <si>
-    <t>국민카드 포인트리 적립금이 안맞는데 이런 경우 있으신분있나요?</t>
-  </si>
-  <si>
-    <t>여성할당 다 좋아도 군경소방은 아닙니다.</t>
-  </si>
-  <si>
-    <t>캣맘에게 정중하게 부탁하면 생기는 일</t>
-  </si>
-  <si>
-    <t>넷플 가격인상이네요.</t>
-  </si>
-  <si>
-    <t>윤서인 이번엔 안중근 의사 비하</t>
-  </si>
-  <si>
-    <t>아랍에미리트로 무기수출을 하는군요</t>
-  </si>
-  <si>
-    <t>모더나 부스터 맞으러 왔는데 한산하네요</t>
-  </si>
-  <si>
-    <t>배구 쌍둥이 근황.jpg</t>
-  </si>
-  <si>
-    <t>당근마켓 네고왕ㄷㄷㄷ</t>
-  </si>
-  <si>
-    <t>캐시워크 위메프 바뀐답</t>
-  </si>
-  <si>
-    <t>KG이니시스, 현대H몰에 NFC결제 솔루션 제공 "홈쇼핑 업계 최초"</t>
-  </si>
-  <si>
-    <t>재택업무의 부작용에 대해서 기사가 나왓네요..</t>
-  </si>
-  <si>
-    <t>광주광역시에서 최고 대장 아파트 곧 착공 jpg</t>
-  </si>
-  <si>
-    <t>어휴 히터..미쳐버려..</t>
-  </si>
-  <si>
-    <t>[완료] 카뱅 26주 적금 던킨 30프로 쿠폰</t>
-  </si>
-  <si>
-    <t>한 15일동안 국내에서 의미있게 보낼수 있는게 있을까요?ㅎㅎ</t>
-  </si>
-  <si>
-    <t>건설 현장용어 우리말 순화</t>
-  </si>
-  <si>
-    <t>바이든 뭔가 꺼려졌었는데</t>
-  </si>
-  <si>
-    <t>토스 정답 모음 11/18</t>
-  </si>
-  <si>
-    <t>캐시워크11시</t>
-  </si>
-  <si>
-    <t>[MLB] 벌랜더, 휴스턴과 2년 계약</t>
-  </si>
-  <si>
-    <t>넷플릭스 요금인상 동의 안하면 일반 채널 못보네요</t>
-  </si>
-  <si>
-    <t>일본 넷플릭스에 한국 컨텐츠가 순위권에 주르륵 있는것에 대한 팩트체크</t>
-  </si>
-  <si>
-    <t>CGV 엘칸토 예고편.....CJONE 500포인트 받으세요~</t>
-  </si>
-  <si>
-    <t>용인 한숨시티 근황</t>
-  </si>
-  <si>
-    <t>개인적으로 꼽는 K-여경 레전드 사건.jpg</t>
-  </si>
-  <si>
-    <t>아침부터 충격이네요. 이번 칼부림 사건 보니 진짜 신고했는데 여경 오면 불안하겠어요.</t>
-  </si>
-  <si>
-    <t>넷플릭스 프리미엄 월 17,000원 가격 인상 ㄷㄷ</t>
-  </si>
-  <si>
-    <t>그동안 스마일클럽으로 받은 혜택 금액 가장높은사람 계세요? ㅎ</t>
-  </si>
-  <si>
-    <t>종전반대가 웃긴게</t>
-  </si>
-  <si>
-    <t>아침부터 이벤트 1등 당첨 소식!</t>
-  </si>
-  <si>
-    <t>종전선언한다고 달라지는 거 없습니다</t>
-  </si>
-  <si>
-    <t>[완료] CU 신상데이 반값쿠폰 나눔 합니다.</t>
-  </si>
-  <si>
-    <t>"시계가 없어요" 울먹이는 수험생...여경이 함께 달렸다</t>
-  </si>
-  <si>
-    <t>어제도 결국 버티지 못하고 야식을..</t>
-  </si>
-  <si>
-    <t>여경 레전드.JPG</t>
-  </si>
-  <si>
-    <t>얀센+화이자 추가접종했습니다</t>
-  </si>
-  <si>
-    <t>막막하네요...</t>
-  </si>
-  <si>
-    <t>동료 여경 표창장 주려 공문서 위조 ㄷㄷ</t>
-  </si>
-  <si>
-    <t>크리스마스 때 제주도 여행 추천이요!</t>
-  </si>
-  <si>
-    <t>날 진심으로 좋아해주는 여자 vs 적당히 스펙 괜찮은 여자</t>
-  </si>
-  <si>
-    <t>한양대 알로에 빌런ㄷㄷ.jpg</t>
-  </si>
-  <si>
-    <t>어제 남양주 근처에 팔팔장어?? 가서 저녁 먹었는데!! 넘나 맛있엇어요....</t>
-  </si>
-  <si>
-    <t>종전이 진짜로 되는걸까요 종전이후로 바뀌게 될 모습은 어떨까요</t>
-  </si>
-  <si>
-    <t>11번가 우주패스 해지 이상하군요</t>
-  </si>
-  <si>
-    <t>광고 어떻게 나올지 궁금ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>블랙 쓰시는분 계신가요?</t>
-  </si>
-  <si>
-    <t>SBS 층간소음칼부림 여경 도망간 뉴스보니 자기몸간수잘해야할듯</t>
-  </si>
-  <si>
-    <t>출근 엄청 빨리했는데</t>
-  </si>
-  <si>
-    <t>보통 여자친구 어디서 만나셨나요?</t>
-  </si>
-  <si>
-    <t>요즘 인스타에 잘 나간다는 작명소 수준.jpg</t>
-  </si>
-  <si>
-    <t>콩순이 ai가 곧 도착하는데...과연</t>
-  </si>
-  <si>
-    <t>코로나 검사결과 엄청 빨리 알려주네요 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>일면 종전선언글 한명 포인트 다 날아가네요</t>
-  </si>
-  <si>
-    <t>영화 그랜드부다페스트 보신분들 재밌게 보셨었나요</t>
-  </si>
-  <si>
-    <t>6.25전쟁 인천상륙작전후 반격속도</t>
-  </si>
-  <si>
-    <t>수능때 경찰이 태워주는거 해주지 말아야죠</t>
-  </si>
-  <si>
-    <t>얀더나 맞은 지 하루 경과</t>
-  </si>
-  <si>
-    <t>캐시워크위메프</t>
-  </si>
-  <si>
-    <t>일본 '한국 경찰청장 독도 방문' 거론하며 한미일 회견 불참</t>
-  </si>
-  <si>
-    <t>수능 늦거나 중요한일에 늦는사람은 원래 그렇게 사는사람이 대부분이더라구요</t>
-  </si>
-  <si>
-    <t>회사에 꼭 있었으면 하는 복지 하나씩 말해주세요</t>
-  </si>
-  <si>
-    <t>제가 어릴때 젤 충격받은 표절곡</t>
-  </si>
-  <si>
-    <t>매운거 먹고 싶어요</t>
-  </si>
-  <si>
-    <t>전북대사대부고-전주대사대부고 "수험장 헷갈렸어요"</t>
-  </si>
-  <si>
-    <t>오늘부터 주말까지 자영업 하시는 분들 기대중이신가요?</t>
-  </si>
-  <si>
-    <t>아이폰 실리콘 케이스로 바꿨는데요</t>
-  </si>
-  <si>
-    <t>별거 아닌거 같지만 사실 엄청난 국뽕 뉴스</t>
-  </si>
-  <si>
-    <t>3박4일 거제도 다녀왔더니</t>
-  </si>
-  <si>
-    <t>크롬 업데이트 된 폰트 적응 안되네요</t>
-  </si>
-  <si>
-    <t>수능날 지각해서 경찰 부르는게 언제 부터 관례가 된거예요</t>
-  </si>
-  <si>
-    <t>집 가까이에서 주민센터 짓느라 맨날 소음인데</t>
-  </si>
-  <si>
-    <t>종전선언을 반대하는건 매국노죠.</t>
-  </si>
-  <si>
-    <t>중국에서 평점9점대 유지하고있는 한국 드라마들</t>
-  </si>
-  <si>
-    <t>여고생 허위미투에 x될뻔한 학교 직원</t>
-  </si>
-  <si>
-    <t>무착륙항공 아 ㅠ</t>
-  </si>
-  <si>
-    <t>"우리 딸이 이제 일어났어요"...경찰차타고 입실완료</t>
-  </si>
-  <si>
-    <t>해장국집 가면 고추 드시나요?</t>
-  </si>
-  <si>
-    <t>넷플릭스 구독료 기습 인상ㄷㄷ.jpg</t>
-  </si>
-  <si>
-    <t>의자 하나 질렀는데, 기름냄새 같은게 심하네요.</t>
-  </si>
-  <si>
-    <t>오늘 수능일인데</t>
-  </si>
-  <si>
-    <t>여의도고를 여의도여고로 착각...수험생들 경찰차, 오토바이 타</t>
-  </si>
-  <si>
-    <t>수능치는 아이 안아줬는데..</t>
-  </si>
-  <si>
-    <t>검단 왕릉 아파트 남의 일 같지가 않군요</t>
-  </si>
-  <si>
-    <t>수능이 오늘이라니 몰랐네요</t>
-  </si>
-  <si>
-    <t>이분은 대체 누굴까요?</t>
-  </si>
-  <si>
-    <t>윤계상 결혼했네요</t>
-  </si>
-  <si>
-    <t>홈플답 해남</t>
-  </si>
-  <si>
-    <t>ㅎㅃ 중 하나만 고르시오.jpg</t>
-  </si>
-  <si>
-    <t>인터넷 어떤걸 고르는게 나을까요?</t>
-  </si>
-  <si>
-    <t>일본 잇따르는 무차별 범행</t>
-  </si>
-  <si>
-    <t>네이버페이 스토어찜 160원 받으세요</t>
-  </si>
-  <si>
-    <t>리브메이트 오늘의퀴즈 정답</t>
-  </si>
-  <si>
-    <t>편의점서 처음 본 남성에 "계산 좀"거절하자 손 '쑥' 넣고 몸 만진 20대 여성</t>
-  </si>
-  <si>
-    <t>배스킨라빈스에서 우유3종 출시 했네요??민초..</t>
-  </si>
-  <si>
-    <t>집 구하는 현명한 방법이 뭘까요?</t>
-  </si>
-  <si>
-    <t>어제 공중파에서 야구중계가 당연한 이유 jpg</t>
-  </si>
-  <si>
-    <t>요소수 6배 올려 팔다 털렸네요... 저러니 요소수 가격이 오르지</t>
-  </si>
-  <si>
-    <t>여경, 여군, 여성소방관 비판은 여성혐오</t>
-  </si>
-  <si>
-    <t>수능 출제위원의 인생위기.jpg</t>
-  </si>
-  <si>
-    <t>넷플릭스...ㅂㄷㅂㄷ</t>
-  </si>
-  <si>
-    <t>코지마 카이저 시그니처</t>
-  </si>
-  <si>
-    <t>친구네 회사 미친 듯...</t>
-  </si>
-  <si>
-    <t>여자들이 보는 노트북 브랜드별 이미지</t>
-  </si>
-  <si>
-    <t>골때녀 어제 결방했군요 ㅠ</t>
-  </si>
-  <si>
-    <t>코로나바이러스감염증-19 국내 발생 현황(11월18일, 0시 기준) - 3,292명</t>
-  </si>
-  <si>
-    <t>반값택배는... 확실히 택배보단 느린가보네요.</t>
-  </si>
-  <si>
-    <t>옆 섬나라도 구인난인가보네요</t>
-  </si>
-  <si>
-    <t>코로나 괴담은 중국에서 주로 나오는 군요 이번엔 택배상자..</t>
-  </si>
-  <si>
-    <t>아 디플 자막ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>수능 이네요.</t>
-  </si>
-  <si>
-    <t>뽐뿌 나만 느린가요??</t>
-  </si>
-  <si>
-    <t>속보 코로나 확진 3292 명 역대 최대</t>
-  </si>
-  <si>
-    <t>폐쇄됐던 신천지 대구교회 다시 열리나</t>
-  </si>
-  <si>
-    <t>"여경 뽑을수록 피해 보는건 국민...경찰, 페미코인 그만"</t>
-  </si>
-  <si>
-    <t>아침부터 존나열받네요 제가잘못한건가요?</t>
-  </si>
-  <si>
-    <t>날씨 부덜부덜</t>
-  </si>
-  <si>
-    <t>경찰 소방 여자가 더 빨리 승진하는 이유</t>
-  </si>
-  <si>
-    <t>자전거 배달 알바 올해 벌써 두번째 오배송 했습니다.</t>
-  </si>
-  <si>
-    <t>오늘 코로나 확진자 수는 3292명 입니다. 최다 확진자 기록이네요.</t>
-  </si>
-  <si>
-    <t>81년생 네이버 CEO 스펙이 후덜덜 하네요..</t>
-  </si>
-  <si>
-    <t>굴 껍데기도 이렇게 쓰이는 군요...ㄷㄷ</t>
-  </si>
-  <si>
-    <t>워치4 삼성이벤트</t>
-  </si>
-  <si>
-    <t>건강검진 해당년도가 1월부터 시작되나요</t>
-  </si>
-  <si>
-    <t>한국인이면 진짜 참을 수 없는 서양문화</t>
-  </si>
-  <si>
-    <t>레스토랑 거지들ㄷㄷ.jpg</t>
-  </si>
-  <si>
-    <t>애플이 셀프서비스 프로그램을 발표했습니다</t>
-  </si>
-  <si>
-    <t>박지윤 카카오 조수용 대표 부부 첫 공식석상</t>
-  </si>
-  <si>
-    <t>이별통보에 흉기로 찌른후 아파트 19층에서 던져 살해한 남자친구</t>
-  </si>
-  <si>
-    <t>수능이 올때바다 1년이 너무 빨리 지나간거 같다는 생각이 드네요.</t>
-  </si>
-  <si>
-    <t>지금쯤이면 아들녀석이 수능시험을 시작했겠군요</t>
-  </si>
-  <si>
-    <t>위층남성 경찰앞에서 흉기 휘둘러.. "경찰은 도망"</t>
-  </si>
-  <si>
-    <t>12월 중순부터 한 18일정도 연속으로 쉬게될것 같네요..</t>
-  </si>
-  <si>
-    <t>계속 달려드는 개에 당황한 여자 jpg</t>
-  </si>
-  <si>
-    <t>갑자기 비타500에 꽂혀서 40병 샀어요</t>
-  </si>
-  <si>
-    <t>벌써수능이라니..</t>
-  </si>
-  <si>
-    <t>어제 넷플릭스 게임 추가 나왔다고 이야기했는데 가격 인상;</t>
-  </si>
-  <si>
-    <t>새벽에 행군하던 남군 5명 중경상 ㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷ.jpg</t>
-  </si>
-  <si>
-    <t>자코모 소파 하자? 의견을 듣고 싶습니다</t>
-  </si>
-  <si>
-    <t>속보 수능 출제 예전 기조 유지</t>
-  </si>
-  <si>
-    <t>헤드업 디스플레이 써보신분 계신가요</t>
-  </si>
-  <si>
-    <t>왕릉뷰 아파트...최신 근황.....feat. 건설사 좃됨.....jpg</t>
-  </si>
-  <si>
-    <t>단독, 아이폰13 수신먹통.. 애플은 무대응</t>
-  </si>
-  <si>
-    <t>비상선언 내년 1월 개봉</t>
-  </si>
-  <si>
-    <t>이별통보한 애인 19층 배란다에서 떨어뜨려 살해한 남성.</t>
-  </si>
-  <si>
-    <t>하이킥을 다시보는 박민영</t>
-  </si>
-  <si>
-    <t>안입는옷 정리했는데 82키로 나왔어요.ㅋ</t>
-  </si>
-  <si>
-    <t>코빈 번스가 NL 사이영 이군요</t>
-  </si>
-  <si>
-    <t>유머/감동 게시판이 성인포럼화 되가네요;</t>
-  </si>
-  <si>
-    <t>저탄고지의 최후</t>
-  </si>
-  <si>
-    <t>어린이집 가야하는 이유</t>
-  </si>
-  <si>
-    <t>배스킨 쿼터 앉은 자리에서 순삭이네요..</t>
-  </si>
-  <si>
-    <t>갤럭시 통녹이 가끔 안되어 있네요...</t>
-  </si>
-  <si>
-    <t>틱톡 광고 더럽네요</t>
-  </si>
-  <si>
-    <t>넷플릭스 가격 인상 ㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷㄷ....jpg</t>
-  </si>
-  <si>
-    <t>중소기업 초봉 3300 20년차 5천</t>
-  </si>
-  <si>
-    <t>임신지원금 대폭 증가한다길래 정부가 이제 좀 일하나 싶었는데</t>
+    <t>2021.11.18 16:16</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:15</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:14</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:13</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:12</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:09</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:08</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:05</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:04</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:03</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:02</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:01</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:00</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:59</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:57</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:55</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:51</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:50</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:49</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:48</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:47</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:45</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:44</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:43</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:34</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:31</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:30</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:29</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:28</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:27</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:26</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:25</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:24</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:23</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:22</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:21</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:20</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:18</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:16</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:15</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:14</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:12</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:11</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:09</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:08</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:07</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:05</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:04</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:00</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:59</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:58</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:57</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:56</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:55</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:53</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:52</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:51</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:50</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:49</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:47</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:46</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:45</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:44</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:43</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:42</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:41</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:40</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:39</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:38</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:37</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:34</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:32</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:30</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:28</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:25</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:21</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:18</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:16</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:14</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:13</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:12</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:11</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:10</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:09</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:06</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:05</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:04</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:02</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:01</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:00</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:59</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:58</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:56</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:55</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:54</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:52</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:51</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:50</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:49</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:48</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:47</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:44</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:42</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:39</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:36</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:34</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:31</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:30</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:29</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:28</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:27</t>
   </si>
   <si>
     <t>2021.11.18 13:24</t>
@@ -1036,9 +1369,6 @@
     <t>2021.11.18 12:39</t>
   </si>
   <si>
-    <t>2021.11.18 12:35</t>
-  </si>
-  <si>
     <t>2021.11.18 12:33</t>
   </si>
   <si>
@@ -1132,1279 +1462,925 @@
     <t>2021.11.18 11:54</t>
   </si>
   <si>
-    <t>2021.11.18 11:53</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:49</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:48</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:46</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:45</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:43</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:42</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:39</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:36</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:35</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:34</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:33</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:32</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:29</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:27</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:26</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:24</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:22</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:21</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:20</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:19</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:17</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:16</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:15</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:12</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:08</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:07</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:05</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:04</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:03</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:02</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:01</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:00</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:59</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:58</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:57</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:54</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:53</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:52</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:51</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:50</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:48</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:47</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:46</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:42</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:41</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:39</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:37</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:36</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:35</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:33</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:32</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:31</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:29</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:28</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:27</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:26</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:25</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:24</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:23</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:22</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:19</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:18</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:15</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:14</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:12</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:11</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:09</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:08</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:07</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:06</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:03</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:02</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:01</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:00</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:59</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:57</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:56</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:55</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:54</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:53</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:51</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:48</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:47</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:43</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:41</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:40</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:38</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:37</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:36</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:33</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:32</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:31</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:26</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:21</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:20</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:19</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:18</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:17</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:14</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:13</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:11</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:10</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:06</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:05</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:03</t>
-  </si>
-  <si>
-    <t>2021.11.18 09:00</t>
-  </si>
-  <si>
-    <t>2021.11.18 08:59</t>
-  </si>
-  <si>
-    <t>2021.11.18 08:57</t>
-  </si>
-  <si>
-    <t>2021.11.18 08:56</t>
-  </si>
-  <si>
-    <t>2021.11.18 08:54</t>
-  </si>
-  <si>
-    <t>2021.11.18 08:53</t>
-  </si>
-  <si>
-    <t>2021.11.18 08:52</t>
-  </si>
-  <si>
-    <t>2021.11.18 08:48</t>
-  </si>
-  <si>
-    <t>2021.11.18 08:45</t>
-  </si>
-  <si>
-    <t>2021.11.18 08:42</t>
-  </si>
-  <si>
-    <t>2021.11.18 08:34</t>
-  </si>
-  <si>
-    <t>2021.11.18 08:33</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>923</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>922</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>1410</t>
+  </si>
+  <si>
+    <t>1265</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>2498</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>939</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>1071</t>
+  </si>
+  <si>
+    <t>2958</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>1531</t>
+  </si>
+  <si>
+    <t>1562</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>1243</t>
+  </si>
+  <si>
+    <t>2372</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>783</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>3395</t>
+  </si>
+  <si>
+    <t>2443</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>3759</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>688</t>
+  </si>
+  <si>
+    <t>1346</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>825</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>1377</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>1425</t>
+  </si>
+  <si>
+    <t>755</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>2142</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>2224</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>947</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>2539</t>
+  </si>
+  <si>
+    <t>849</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>875</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>1663</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>1734</t>
+  </si>
+  <si>
+    <t>1262</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>1258</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>664</t>
+  </si>
+  <si>
+    <t>1260</t>
   </si>
   <si>
     <t>135</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>484</t>
+    <t>737</t>
+  </si>
+  <si>
+    <t>1752</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>3834</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>3084</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>2288</t>
+  </si>
+  <si>
+    <t>823</t>
+  </si>
+  <si>
+    <t>3558</t>
+  </si>
+  <si>
+    <t>2641</t>
+  </si>
+  <si>
+    <t>1421</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>721</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>1088</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>4054</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>2171</t>
+  </si>
+  <si>
+    <t>765</t>
+  </si>
+  <si>
+    <t>1413</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>2265</t>
+  </si>
+  <si>
+    <t>1362</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>3052</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>1197</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>2198</t>
+  </si>
+  <si>
+    <t>1351</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>983</t>
+  </si>
+  <si>
+    <t>2817</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>1152</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>1898</t>
+  </si>
+  <si>
+    <t>2514</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>4362</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>2145</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>2140</t>
+  </si>
+  <si>
+    <t>1584</t>
+  </si>
+  <si>
+    <t>1487</t>
+  </si>
+  <si>
+    <t>1894</t>
+  </si>
+  <si>
+    <t>992</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>3671</t>
+  </si>
+  <si>
+    <t>1264</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>942</t>
+  </si>
+  <si>
+    <t>1777</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>880</t>
   </si>
   <si>
     <t>198</t>
   </si>
   <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
-    <t>474</t>
-  </si>
-  <si>
-    <t>543</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>466</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>453</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>452</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>858</t>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>1499</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>651</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>956</t>
+  </si>
+  <si>
+    <t>2356</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>1455</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>3211</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>919</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>2890</t>
+  </si>
+  <si>
+    <t>1329</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>2066</t>
+  </si>
+  <si>
+    <t>3110</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>876</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>1168</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>1785</t>
+  </si>
+  <si>
+    <t>644</t>
+  </si>
+  <si>
+    <t>1892</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>3440</t>
+  </si>
+  <si>
+    <t>1522</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>1828</t>
+  </si>
+  <si>
+    <t>36164</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>1252</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>4542</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>687</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>2667</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>3493</t>
+  </si>
+  <si>
+    <t>769</t>
+  </si>
+  <si>
+    <t>1526</t>
+  </si>
+  <si>
+    <t>3889</t>
   </si>
   <si>
     <t>418</t>
   </si>
   <si>
-    <t>1148</t>
-  </si>
-  <si>
-    <t>482</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>661</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>652</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>1482</t>
-  </si>
-  <si>
-    <t>758</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>1084</t>
-  </si>
-  <si>
-    <t>1041</t>
-  </si>
-  <si>
-    <t>2127</t>
-  </si>
-  <si>
-    <t>1501</t>
-  </si>
-  <si>
-    <t>1328</t>
-  </si>
-  <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>1540</t>
-  </si>
-  <si>
-    <t>1492</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>2065</t>
-  </si>
-  <si>
-    <t>1033</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>1599</t>
-  </si>
-  <si>
-    <t>2289</t>
-  </si>
-  <si>
-    <t>629</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>1024</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>861</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>955</t>
-  </si>
-  <si>
-    <t>1669</t>
-  </si>
-  <si>
-    <t>967</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>1588</t>
-  </si>
-  <si>
-    <t>696</t>
-  </si>
-  <si>
-    <t>1018</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>1485</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>1623</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>2654</t>
-  </si>
-  <si>
-    <t>1284</t>
-  </si>
-  <si>
-    <t>498</t>
-  </si>
-  <si>
-    <t>1447</t>
-  </si>
-  <si>
-    <t>4962</t>
-  </si>
-  <si>
-    <t>667</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>703</t>
-  </si>
-  <si>
-    <t>3632</t>
-  </si>
-  <si>
-    <t>714</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>2337</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>2729</t>
-  </si>
-  <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>1330</t>
-  </si>
-  <si>
-    <t>2795</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>3455</t>
-  </si>
-  <si>
-    <t>951</t>
-  </si>
-  <si>
-    <t>1498</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>718</t>
-  </si>
-  <si>
-    <t>1031</t>
-  </si>
-  <si>
-    <t>757</t>
-  </si>
-  <si>
-    <t>915</t>
-  </si>
-  <si>
-    <t>2334</t>
-  </si>
-  <si>
-    <t>1028</t>
-  </si>
-  <si>
-    <t>462</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>3327</t>
-  </si>
-  <si>
-    <t>1242</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>905</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>1344</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>654</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>1222</t>
-  </si>
-  <si>
-    <t>2204</t>
+    <t>4470</t>
+  </si>
+  <si>
+    <t>1065</t>
   </si>
   <si>
     <t>377</t>
   </si>
   <si>
-    <t>987</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>796</t>
-  </si>
-  <si>
-    <t>3146</t>
-  </si>
-  <si>
-    <t>885</t>
-  </si>
-  <si>
-    <t>1068</t>
-  </si>
-  <si>
-    <t>735</t>
-  </si>
-  <si>
-    <t>1824</t>
-  </si>
-  <si>
-    <t>2273</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>439</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>1552</t>
-  </si>
-  <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>2674</t>
-  </si>
-  <si>
-    <t>3674</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>902</t>
-  </si>
-  <si>
-    <t>1543</t>
-  </si>
-  <si>
-    <t>1505</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>1691</t>
-  </si>
-  <si>
-    <t>2581</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>1132</t>
-  </si>
-  <si>
-    <t>2743</t>
-  </si>
-  <si>
-    <t>1182</t>
-  </si>
-  <si>
-    <t>1358</t>
-  </si>
-  <si>
-    <t>547</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>3980</t>
-  </si>
-  <si>
-    <t>3138</t>
-  </si>
-  <si>
-    <t>417</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>872</t>
-  </si>
-  <si>
-    <t>934</t>
-  </si>
-  <si>
-    <t>2869</t>
-  </si>
-  <si>
-    <t>486</t>
-  </si>
-  <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>1246</t>
-  </si>
-  <si>
-    <t>1082</t>
-  </si>
-  <si>
-    <t>636</t>
-  </si>
-  <si>
-    <t>1185</t>
-  </si>
-  <si>
-    <t>1796</t>
-  </si>
-  <si>
-    <t>1914</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>729</t>
-  </si>
-  <si>
-    <t>2168</t>
-  </si>
-  <si>
-    <t>1094</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>2929</t>
-  </si>
-  <si>
-    <t>541</t>
-  </si>
-  <si>
-    <t>4316</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>2824</t>
-  </si>
-  <si>
-    <t>1059</t>
-  </si>
-  <si>
-    <t>4970</t>
-  </si>
-  <si>
-    <t>527</t>
-  </si>
-  <si>
-    <t>880</t>
-  </si>
-  <si>
-    <t>689</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>2154</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>849</t>
-  </si>
-  <si>
-    <t>2639</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>537</t>
-  </si>
-  <si>
-    <t>564</t>
-  </si>
-  <si>
-    <t>477</t>
-  </si>
-  <si>
-    <t>1313</t>
-  </si>
-  <si>
-    <t>1465</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>671</t>
-  </si>
-  <si>
-    <t>455</t>
-  </si>
-  <si>
-    <t>722</t>
-  </si>
-  <si>
-    <t>1298</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>1558</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>881</t>
-  </si>
-  <si>
-    <t>599</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>1444</t>
-  </si>
-  <si>
-    <t>1533</t>
-  </si>
-  <si>
-    <t>1480</t>
-  </si>
-  <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>2125</t>
-  </si>
-  <si>
-    <t>528</t>
-  </si>
-  <si>
-    <t>3393</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>1713</t>
-  </si>
-  <si>
-    <t>1618</t>
-  </si>
-  <si>
-    <t>1489</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>948</t>
-  </si>
-  <si>
-    <t>3178</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>2382</t>
-  </si>
-  <si>
-    <t>2048</t>
-  </si>
-  <si>
-    <t>4413</t>
-  </si>
-  <si>
-    <t>823</t>
-  </si>
-  <si>
-    <t>1748</t>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t>522</t>
-  </si>
-  <si>
-    <t>3208</t>
-  </si>
-  <si>
-    <t>1378</t>
-  </si>
-  <si>
-    <t>1174</t>
-  </si>
-  <si>
-    <t>2555</t>
-  </si>
-  <si>
-    <t>1598</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>3437</t>
-  </si>
-  <si>
-    <t>1863</t>
-  </si>
-  <si>
-    <t>578</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>1428</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>2091</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>2455</t>
-  </si>
-  <si>
-    <t>1785</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>2384</t>
-  </si>
-  <si>
-    <t>1828</t>
-  </si>
-  <si>
-    <t>645</t>
-  </si>
-  <si>
-    <t>3380</t>
-  </si>
-  <si>
-    <t>1696</t>
-  </si>
-  <si>
-    <t>4270</t>
-  </si>
-  <si>
-    <t>5864</t>
-  </si>
-  <si>
-    <t>1746</t>
-  </si>
-  <si>
-    <t>5102</t>
-  </si>
-  <si>
-    <t>1780</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>559</t>
-  </si>
-  <si>
-    <t>1645</t>
-  </si>
-  <si>
-    <t>665</t>
-  </si>
-  <si>
-    <t>5340</t>
-  </si>
-  <si>
-    <t>781</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>1066</t>
-  </si>
-  <si>
-    <t>6975</t>
-  </si>
-  <si>
-    <t>1278</t>
-  </si>
-  <si>
-    <t>669</t>
-  </si>
-  <si>
-    <t>1173</t>
-  </si>
-  <si>
-    <t>41730</t>
-  </si>
-  <si>
-    <t>1946</t>
-  </si>
-  <si>
-    <t>2073</t>
-  </si>
-  <si>
-    <t>2056</t>
-  </si>
-  <si>
-    <t>3941</t>
-  </si>
-  <si>
-    <t>1556</t>
-  </si>
-  <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>3643</t>
-  </si>
-  <si>
-    <t>2713</t>
-  </si>
-  <si>
-    <t>706</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>2116</t>
-  </si>
-  <si>
-    <t>35650</t>
-  </si>
-  <si>
-    <t>3197</t>
-  </si>
-  <si>
-    <t>2723</t>
+    <t>1651</t>
+  </si>
+  <si>
+    <t>834</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>839</t>
+  </si>
+  <si>
+    <t>964</t>
+  </si>
+  <si>
+    <t>2613</t>
+  </si>
+  <si>
+    <t>1160</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17 </t>
   </si>
   <si>
     <t xml:space="preserve"> 5 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4 </t>
+    <t xml:space="preserve"> 7 </t>
   </si>
   <si>
     <t xml:space="preserve"> 2 </t>
   </si>
   <si>
+    <t xml:space="preserve"> 23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 18 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 </t>
+    <t xml:space="preserve"> 46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54 </t>
   </si>
   <si>
     <t xml:space="preserve"> 8 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38 </t>
+    <t xml:space="preserve"> 43 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27 </t>
   </si>
   <si>
     <t xml:space="preserve"> 29 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 31 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 79 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 44 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11 </t>
+    <t xml:space="preserve"> 24 </t>
   </si>
   <si>
     <t xml:space="preserve"> 30 </t>
@@ -2413,100 +2389,67 @@
     <t xml:space="preserve"> 22 </t>
   </si>
   <si>
+    <t xml:space="preserve"> 53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 61 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 34 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 33 </t>
+    <t xml:space="preserve"> 32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74 </t>
   </si>
   <si>
     <t xml:space="preserve"> 28 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 26 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 43 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 48 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 98 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 72 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 66 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54 </t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>13</t>
   </si>
 </sst>
 </file>
@@ -2898,10 +2841,10 @@
         <v>305</v>
       </c>
       <c r="D2" t="s">
-        <v>490</v>
-      </c>
-      <c r="E2" t="s">
-        <v>772</v>
+        <v>482</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2918,10 +2861,10 @@
         <v>306</v>
       </c>
       <c r="D3" t="s">
-        <v>491</v>
-      </c>
-      <c r="E3" t="s">
-        <v>773</v>
+        <v>483</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2938,10 +2881,10 @@
         <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>492</v>
-      </c>
-      <c r="E4" t="s">
-        <v>774</v>
+        <v>484</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2958,10 +2901,10 @@
         <v>307</v>
       </c>
       <c r="D5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E5" t="s">
-        <v>775</v>
+        <v>485</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2978,10 +2921,10 @@
         <v>308</v>
       </c>
       <c r="D6" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E6" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2995,13 +2938,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D7" t="s">
-        <v>495</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>487</v>
+      </c>
+      <c r="E7" t="s">
+        <v>757</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3015,16 +2958,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D8" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E8" t="s">
-        <v>777</v>
-      </c>
-      <c r="F8" t="s">
-        <v>819</v>
+        <v>758</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3038,13 +2981,13 @@
         <v>310</v>
       </c>
       <c r="D9" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E9" t="s">
-        <v>778</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>756</v>
+      </c>
+      <c r="F9" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3055,13 +2998,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D10" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="E10" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3075,13 +3018,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D11" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E11" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3095,13 +3038,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D12" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E12" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3115,13 +3058,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D13" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E13" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3135,16 +3078,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D14" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E14" t="s">
-        <v>782</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+        <v>761</v>
+      </c>
+      <c r="F14" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3155,13 +3098,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E15" t="s">
-        <v>775</v>
+        <v>495</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3175,13 +3118,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D16" t="s">
-        <v>503</v>
-      </c>
-      <c r="E16" t="s">
-        <v>773</v>
+        <v>496</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3195,13 +3138,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D17" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E17" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3215,13 +3158,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D18" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E18" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3235,13 +3178,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D19" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3255,16 +3198,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D20" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E20" t="s">
-        <v>778</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+        <v>756</v>
+      </c>
+      <c r="F20" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3275,16 +3218,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D21" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E21" t="s">
-        <v>777</v>
-      </c>
-      <c r="F21" t="s">
-        <v>819</v>
+        <v>765</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3295,13 +3238,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D22" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E22" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3315,13 +3258,13 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D23" t="s">
-        <v>510</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>503</v>
+      </c>
+      <c r="E23" t="s">
+        <v>766</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3335,13 +3278,13 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D24" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E24" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3355,16 +3298,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D25" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E25" t="s">
-        <v>774</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+        <v>768</v>
+      </c>
+      <c r="F25" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3375,13 +3318,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D26" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E26" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3395,13 +3338,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D27" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E27" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3415,13 +3358,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D28" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E28" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3435,13 +3378,13 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D29" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E29" t="s">
-        <v>784</v>
+        <v>757</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3455,16 +3398,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D30" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E30" t="s">
-        <v>784</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+        <v>760</v>
+      </c>
+      <c r="F30" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3475,16 +3418,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D31" t="s">
-        <v>518</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>819</v>
+        <v>511</v>
+      </c>
+      <c r="E31" t="s">
+        <v>765</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3495,16 +3438,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D32" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="E32" t="s">
-        <v>774</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+        <v>758</v>
+      </c>
+      <c r="F32" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3515,13 +3458,13 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D33" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E33" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3535,16 +3478,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D34" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E34" t="s">
-        <v>774</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
+        <v>770</v>
+      </c>
+      <c r="F34" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3555,16 +3498,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D35" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E35" t="s">
-        <v>775</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
+        <v>762</v>
+      </c>
+      <c r="F35" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3575,13 +3518,13 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D36" t="s">
-        <v>523</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
+        <v>516</v>
+      </c>
+      <c r="E36" t="s">
+        <v>764</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3595,13 +3538,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D37" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E37" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3615,16 +3558,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D38" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E38" t="s">
-        <v>772</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
+        <v>773</v>
+      </c>
+      <c r="F38" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3635,13 +3578,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D39" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="E39" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3655,16 +3598,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D40" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E40" t="s">
-        <v>787</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
+        <v>774</v>
+      </c>
+      <c r="F40" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3675,13 +3618,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D41" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="E41" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3695,16 +3638,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D42" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E42" t="s">
-        <v>781</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
+        <v>775</v>
+      </c>
+      <c r="F42" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3715,16 +3658,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D43" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E43" t="s">
-        <v>788</v>
-      </c>
-      <c r="F43" t="s">
-        <v>819</v>
+        <v>760</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3735,13 +3678,13 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D44" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E44" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3755,13 +3698,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D45" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E45" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -3775,13 +3718,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D46" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E46" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -3795,16 +3738,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D47" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E47" t="s">
-        <v>789</v>
-      </c>
-      <c r="F47" t="s">
-        <v>820</v>
+        <v>761</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3815,13 +3758,13 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D48" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="E48" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3835,13 +3778,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D49" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E49" t="s">
-        <v>791</v>
+        <v>759</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3855,13 +3798,13 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D50" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E50" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3875,13 +3818,13 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D51" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E51" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3895,16 +3838,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D52" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E52" t="s">
-        <v>792</v>
-      </c>
-      <c r="F52" t="s">
-        <v>820</v>
+        <v>758</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3915,13 +3858,13 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D53" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E53" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3935,13 +3878,13 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D54" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E54" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3955,13 +3898,13 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D55" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E55" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3975,13 +3918,13 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D56" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E56" t="s">
-        <v>794</v>
+        <v>757</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3995,13 +3938,13 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D57" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="E57" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4015,16 +3958,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D58" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E58" t="s">
-        <v>782</v>
-      </c>
-      <c r="F58" t="s">
-        <v>819</v>
+        <v>778</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4035,13 +3978,13 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D59" t="s">
-        <v>545</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
+        <v>538</v>
+      </c>
+      <c r="E59" t="s">
+        <v>769</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4055,13 +3998,13 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D60" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E60" t="s">
-        <v>795</v>
+        <v>756</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4075,13 +4018,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D61" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="E61" t="s">
-        <v>796</v>
+        <v>769</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4095,13 +4038,13 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D62" t="s">
-        <v>548</v>
-      </c>
-      <c r="E62" t="s">
-        <v>779</v>
+        <v>541</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -4115,13 +4058,13 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D63" t="s">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="E63" t="s">
-        <v>794</v>
+        <v>756</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -4135,16 +4078,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D64" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E64" t="s">
-        <v>779</v>
-      </c>
-      <c r="F64" t="s">
-        <v>819</v>
+        <v>765</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4155,13 +4098,13 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D65" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E65" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -4175,16 +4118,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D66" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="E66" t="s">
-        <v>790</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
+        <v>779</v>
+      </c>
+      <c r="F66" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4195,13 +4138,13 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D67" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E67" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4215,13 +4158,13 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D68" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="E68" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4235,16 +4178,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D69" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="E69" t="s">
-        <v>778</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
+        <v>762</v>
+      </c>
+      <c r="F69" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4255,16 +4198,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D70" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E70" t="s">
-        <v>797</v>
-      </c>
-      <c r="F70" t="s">
-        <v>820</v>
+        <v>760</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4275,13 +4218,13 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D71" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="E71" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4295,13 +4238,13 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D72" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="E72" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4315,13 +4258,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D73" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="E73" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -4335,16 +4278,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D74" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="E74" t="s">
-        <v>776</v>
-      </c>
-      <c r="F74" t="s">
-        <v>819</v>
+        <v>762</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4355,13 +4298,13 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D75" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="E75" t="s">
-        <v>798</v>
+        <v>758</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4375,13 +4318,13 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D76" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="E76" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4395,16 +4338,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D77" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="E77" t="s">
-        <v>780</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
+        <v>781</v>
+      </c>
+      <c r="F77" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4415,13 +4358,13 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D78" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E78" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -4435,16 +4378,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D79" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E79" t="s">
-        <v>796</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
+        <v>770</v>
+      </c>
+      <c r="F79" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4455,13 +4398,13 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D80" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E80" t="s">
-        <v>799</v>
+        <v>764</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4475,13 +4418,13 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D81" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="E81" t="s">
-        <v>796</v>
+        <v>774</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4495,16 +4438,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D82" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="E82" t="s">
-        <v>799</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
+        <v>770</v>
+      </c>
+      <c r="F82" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4515,16 +4458,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D83" t="s">
-        <v>569</v>
+        <v>498</v>
       </c>
       <c r="E83" t="s">
-        <v>800</v>
-      </c>
-      <c r="F83" t="s">
-        <v>821</v>
+        <v>757</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4535,13 +4478,13 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D84" t="s">
-        <v>509</v>
+        <v>560</v>
       </c>
       <c r="E84" t="s">
-        <v>801</v>
+        <v>761</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4555,16 +4498,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D85" t="s">
-        <v>570</v>
-      </c>
-      <c r="E85" t="s">
-        <v>775</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
+        <v>561</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4575,16 +4518,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D86" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="E86" t="s">
-        <v>784</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
+        <v>769</v>
+      </c>
+      <c r="F86" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4595,16 +4538,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D87" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="E87" t="s">
-        <v>781</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
+        <v>782</v>
+      </c>
+      <c r="F87" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4615,13 +4558,13 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D88" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="E88" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4635,16 +4578,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D89" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="E89" t="s">
-        <v>773</v>
-      </c>
-      <c r="F89" t="s">
-        <v>819</v>
+        <v>781</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4655,13 +4598,13 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D90" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E90" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4675,16 +4618,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D91" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="E91" t="s">
-        <v>802</v>
+        <v>769</v>
       </c>
       <c r="F91" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4695,16 +4638,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D92" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="E92" t="s">
-        <v>779</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
+        <v>783</v>
+      </c>
+      <c r="F92" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4715,16 +4658,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D93" t="s">
-        <v>578</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93" t="s">
-        <v>819</v>
+        <v>569</v>
+      </c>
+      <c r="E93" t="s">
+        <v>766</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4735,13 +4678,13 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D94" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="E94" t="s">
-        <v>796</v>
+        <v>756</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -4755,16 +4698,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D95" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="E95" t="s">
-        <v>772</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
+        <v>774</v>
+      </c>
+      <c r="F95" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4775,13 +4718,13 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D96" t="s">
-        <v>507</v>
+        <v>572</v>
       </c>
       <c r="E96" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4795,13 +4738,13 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D97" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E97" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4815,16 +4758,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D98" t="s">
-        <v>582</v>
+        <v>500</v>
       </c>
       <c r="E98" t="s">
-        <v>772</v>
-      </c>
-      <c r="F98" t="s">
-        <v>820</v>
+        <v>775</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4835,13 +4778,13 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="D99" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E99" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -4855,16 +4798,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="D100" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="E100" t="s">
-        <v>772</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
+        <v>759</v>
+      </c>
+      <c r="F100" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4875,13 +4818,13 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D101" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="E101" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -4895,16 +4838,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D102" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E102" t="s">
-        <v>773</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
+        <v>760</v>
+      </c>
+      <c r="F102" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4915,16 +4858,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D103" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E103" t="s">
-        <v>775</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
+        <v>784</v>
+      </c>
+      <c r="F103" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4935,16 +4878,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D104" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="E104" t="s">
-        <v>803</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
+        <v>756</v>
+      </c>
+      <c r="F104" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4955,16 +4898,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D105" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E105" t="s">
-        <v>791</v>
+        <v>767</v>
       </c>
       <c r="F105" t="s">
-        <v>819</v>
+        <v>482</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4975,13 +4918,13 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D106" t="s">
-        <v>589</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="E106" t="s">
+        <v>757</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -4995,16 +4938,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D107" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E107" t="s">
-        <v>775</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
+        <v>785</v>
+      </c>
+      <c r="F107" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5015,13 +4958,13 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D108" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="E108" t="s">
-        <v>787</v>
+        <v>760</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -5035,13 +4978,13 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D109" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E109" t="s">
-        <v>791</v>
+        <v>767</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -5055,13 +4998,13 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D110" t="s">
-        <v>593</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
+        <v>551</v>
+      </c>
+      <c r="E110" t="s">
+        <v>769</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5075,16 +5018,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D111" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="E111" t="s">
-        <v>779</v>
-      </c>
-      <c r="F111" t="s">
-        <v>819</v>
+        <v>759</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5095,13 +5038,13 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D112" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="E112" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -5115,16 +5058,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D113" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="E113" t="s">
         <v>786</v>
       </c>
-      <c r="F113" t="s">
-        <v>822</v>
+      <c r="F113">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5135,16 +5078,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D114" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="E114" t="s">
-        <v>784</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
+        <v>768</v>
+      </c>
+      <c r="F114" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5155,16 +5098,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D115" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="E115" t="s">
-        <v>784</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
+        <v>760</v>
+      </c>
+      <c r="F115" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5175,13 +5118,13 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D116" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="E116" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -5195,16 +5138,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D117" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E117" t="s">
-        <v>804</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
+        <v>760</v>
+      </c>
+      <c r="F117" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5215,13 +5158,13 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D118" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="E118" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -5235,13 +5178,13 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D119" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="E119" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -5255,13 +5198,13 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D120" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E120" t="s">
-        <v>805</v>
+        <v>772</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -5275,13 +5218,13 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D121" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="E121" t="s">
-        <v>787</v>
+        <v>760</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -5295,13 +5238,13 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D122" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="E122" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -5315,13 +5258,13 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D123" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="E123" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -5335,13 +5278,13 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D124" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="E124" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -5355,13 +5298,13 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D125" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="E125" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -5375,13 +5318,13 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D126" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="E126" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -5395,13 +5338,13 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D127" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="E127" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -5415,13 +5358,13 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D128" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="E128" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -5435,16 +5378,16 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D129" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E129" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="F129" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5455,13 +5398,13 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D130" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="E130" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -5475,13 +5418,13 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D131" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="E131" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -5495,13 +5438,13 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="D132" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="E132" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -5515,13 +5458,13 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D133" t="s">
-        <v>616</v>
+        <v>558</v>
       </c>
       <c r="E133" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -5535,13 +5478,13 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="D134" t="s">
-        <v>617</v>
-      </c>
-      <c r="E134" t="s">
-        <v>796</v>
+        <v>607</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -5555,13 +5498,13 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D135" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="E135" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -5575,16 +5518,16 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D136" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E136" t="s">
-        <v>786</v>
+        <v>759</v>
       </c>
       <c r="F136" t="s">
-        <v>820</v>
+        <v>482</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5595,16 +5538,16 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D137" t="s">
-        <v>620</v>
-      </c>
-      <c r="E137" t="s">
-        <v>781</v>
-      </c>
-      <c r="F137" t="s">
-        <v>820</v>
+        <v>497</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5615,13 +5558,13 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D138" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="E138" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -5635,16 +5578,16 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D139" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="E139" t="s">
-        <v>772</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
+        <v>790</v>
+      </c>
+      <c r="F139" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5655,16 +5598,16 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D140" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="E140" t="s">
-        <v>780</v>
-      </c>
-      <c r="F140" t="s">
-        <v>823</v>
+        <v>766</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5675,16 +5618,16 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D141" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="E141" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="F141" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5695,16 +5638,16 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D142" t="s">
-        <v>625</v>
-      </c>
-      <c r="E142" t="s">
-        <v>806</v>
+        <v>598</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>820</v>
+        <v>482</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5715,16 +5658,16 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D143" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="E143" t="s">
-        <v>773</v>
-      </c>
-      <c r="F143" t="s">
-        <v>819</v>
+        <v>756</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5735,16 +5678,16 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D144" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="E144" t="s">
-        <v>791</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
+        <v>787</v>
+      </c>
+      <c r="F144" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5755,13 +5698,13 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D145" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="E145" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -5775,13 +5718,13 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D146" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="E146" t="s">
-        <v>800</v>
+        <v>766</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -5795,16 +5738,16 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D147" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E147" t="s">
-        <v>805</v>
-      </c>
-      <c r="F147" t="s">
-        <v>819</v>
+        <v>775</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5815,13 +5758,13 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D148" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="E148" t="s">
-        <v>784</v>
+        <v>758</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -5835,16 +5778,16 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D149" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="E149" t="s">
-        <v>792</v>
-      </c>
-      <c r="F149" t="s">
-        <v>824</v>
+        <v>760</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5855,13 +5798,13 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D150" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E150" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -5875,13 +5818,13 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D151" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="E151" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -5895,13 +5838,13 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D152" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="E152" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -5915,13 +5858,13 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="D153" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="E153" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -5935,16 +5878,16 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D154" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="E154" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F154" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5955,16 +5898,16 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D155" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="E155" t="s">
-        <v>778</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
+        <v>760</v>
+      </c>
+      <c r="F155" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5975,13 +5918,13 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D156" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="E156" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -5995,13 +5938,13 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D157" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="E157" t="s">
-        <v>803</v>
+        <v>779</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -6015,13 +5958,13 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D158" t="s">
-        <v>640</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
+        <v>629</v>
+      </c>
+      <c r="E158" t="s">
+        <v>776</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -6035,16 +5978,16 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D159" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="E159" t="s">
-        <v>775</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
+        <v>758</v>
+      </c>
+      <c r="F159" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -6055,13 +5998,13 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D160" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="E160" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -6075,13 +6018,13 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="D161" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="E161" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -6095,13 +6038,13 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="D162" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="E162" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -6115,16 +6058,16 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D163" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="E163" t="s">
-        <v>796</v>
+        <v>756</v>
       </c>
       <c r="F163" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -6135,16 +6078,16 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D164" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="E164" t="s">
-        <v>773</v>
-      </c>
-      <c r="F164" t="s">
-        <v>823</v>
+        <v>757</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -6155,13 +6098,13 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D165" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="E165" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -6175,16 +6118,16 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D166" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="E166" t="s">
-        <v>774</v>
-      </c>
-      <c r="F166" t="s">
-        <v>819</v>
+        <v>781</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -6195,16 +6138,16 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D167" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="E167" t="s">
-        <v>781</v>
-      </c>
-      <c r="F167" t="s">
-        <v>823</v>
+        <v>759</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -6215,16 +6158,16 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D168" t="s">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="E168" t="s">
-        <v>772</v>
-      </c>
-      <c r="F168" t="s">
-        <v>826</v>
+        <v>760</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -6235,13 +6178,13 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D169" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="E169" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -6255,16 +6198,16 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D170" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="E170" t="s">
-        <v>783</v>
-      </c>
-      <c r="F170" t="s">
-        <v>819</v>
+        <v>756</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -6275,16 +6218,16 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D171" t="s">
-        <v>527</v>
+        <v>641</v>
       </c>
       <c r="E171" t="s">
-        <v>776</v>
-      </c>
-      <c r="F171" t="s">
-        <v>821</v>
+        <v>759</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -6295,13 +6238,13 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D172" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="E172" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -6315,13 +6258,13 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D173" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="E173" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -6335,16 +6278,16 @@
         <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D174" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="E174" t="s">
-        <v>807</v>
-      </c>
-      <c r="F174" t="s">
-        <v>823</v>
+        <v>760</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -6355,16 +6298,16 @@
         <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D175" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="E175" t="s">
-        <v>791</v>
-      </c>
-      <c r="F175" t="s">
-        <v>823</v>
+        <v>761</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -6375,16 +6318,16 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D176" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="E176" t="s">
-        <v>808</v>
-      </c>
-      <c r="F176" t="s">
-        <v>819</v>
+        <v>767</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -6395,16 +6338,16 @@
         <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D177" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="E177" t="s">
-        <v>774</v>
-      </c>
-      <c r="F177" t="s">
-        <v>823</v>
+        <v>760</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -6415,16 +6358,16 @@
         <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D178" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="E178" t="s">
-        <v>808</v>
-      </c>
-      <c r="F178" t="s">
-        <v>819</v>
+        <v>758</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -6435,16 +6378,16 @@
         <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D179" t="s">
-        <v>660</v>
+        <v>551</v>
       </c>
       <c r="E179" t="s">
-        <v>778</v>
-      </c>
-      <c r="F179">
-        <v>0</v>
+        <v>781</v>
+      </c>
+      <c r="F179" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -6455,16 +6398,16 @@
         <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D180" t="s">
-        <v>661</v>
+        <v>581</v>
       </c>
       <c r="E180" t="s">
-        <v>798</v>
-      </c>
-      <c r="F180" t="s">
-        <v>819</v>
+        <v>757</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -6475,13 +6418,13 @@
         <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D181" t="s">
-        <v>602</v>
+        <v>649</v>
       </c>
       <c r="E181" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -6495,16 +6438,16 @@
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D182" t="s">
-        <v>662</v>
-      </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
+        <v>650</v>
+      </c>
+      <c r="E182" t="s">
+        <v>792</v>
+      </c>
+      <c r="F182" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -6515,16 +6458,16 @@
         <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D183" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="E183" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="F183" t="s">
-        <v>826</v>
+        <v>804</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -6535,13 +6478,13 @@
         <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D184" t="s">
-        <v>551</v>
+        <v>593</v>
       </c>
       <c r="E184" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -6555,16 +6498,16 @@
         <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D185" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="E185" t="s">
-        <v>786</v>
-      </c>
-      <c r="F185" t="s">
-        <v>820</v>
+        <v>762</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -6575,16 +6518,16 @@
         <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D186" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="E186" t="s">
-        <v>779</v>
-      </c>
-      <c r="F186" t="s">
-        <v>819</v>
+        <v>767</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -6595,13 +6538,13 @@
         <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D187" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="E187" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -6615,13 +6558,13 @@
         <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D188" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="E188" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -6635,13 +6578,13 @@
         <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D189" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="E189" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -6655,13 +6598,13 @@
         <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D190" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="E190" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -6675,13 +6618,13 @@
         <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D191" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="E191" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -6695,13 +6638,13 @@
         <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D192" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="E192" t="s">
-        <v>810</v>
+        <v>775</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -6715,13 +6658,13 @@
         <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D193" t="s">
-        <v>672</v>
-      </c>
-      <c r="E193">
-        <v>0</v>
+        <v>660</v>
+      </c>
+      <c r="E193" t="s">
+        <v>757</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -6735,13 +6678,13 @@
         <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D194" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E194" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -6755,13 +6698,13 @@
         <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D195" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="E195" t="s">
-        <v>803</v>
+        <v>775</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -6775,13 +6718,13 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D196" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="E196" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -6795,13 +6738,13 @@
         <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D197" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="E197" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -6815,13 +6758,13 @@
         <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D198" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="E198" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -6835,16 +6778,16 @@
         <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D199" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="E199" t="s">
-        <v>802</v>
-      </c>
-      <c r="F199" t="s">
-        <v>819</v>
+        <v>790</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -6855,13 +6798,13 @@
         <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D200" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="E200" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -6875,13 +6818,13 @@
         <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D201" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="E201" t="s">
-        <v>811</v>
+        <v>770</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -6895,16 +6838,16 @@
         <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D202" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="E202" t="s">
-        <v>774</v>
-      </c>
-      <c r="F202" t="s">
-        <v>819</v>
+        <v>789</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -6915,16 +6858,16 @@
         <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D203" t="s">
-        <v>682</v>
-      </c>
-      <c r="E203" t="s">
-        <v>775</v>
-      </c>
-      <c r="F203" t="s">
-        <v>823</v>
+        <v>670</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -6935,16 +6878,16 @@
         <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D204" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="E204" t="s">
-        <v>781</v>
-      </c>
-      <c r="F204">
-        <v>0</v>
+        <v>775</v>
+      </c>
+      <c r="F204" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -6955,16 +6898,16 @@
         <v>208</v>
       </c>
       <c r="C205" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D205" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="E205" t="s">
-        <v>803</v>
-      </c>
-      <c r="F205" t="s">
-        <v>820</v>
+        <v>756</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -6975,16 +6918,16 @@
         <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D206" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="E206" t="s">
-        <v>805</v>
-      </c>
-      <c r="F206" t="s">
-        <v>819</v>
+        <v>769</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -6995,16 +6938,16 @@
         <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D207" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="E207" t="s">
-        <v>781</v>
-      </c>
-      <c r="F207" t="s">
-        <v>820</v>
+        <v>790</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -7015,13 +6958,13 @@
         <v>211</v>
       </c>
       <c r="C208" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D208" t="s">
-        <v>687</v>
-      </c>
-      <c r="E208">
-        <v>0</v>
+        <v>675</v>
+      </c>
+      <c r="E208" t="s">
+        <v>781</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -7035,13 +6978,13 @@
         <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D209" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="E209" t="s">
-        <v>790</v>
+        <v>757</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -7055,13 +6998,13 @@
         <v>213</v>
       </c>
       <c r="C210" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D210" t="s">
-        <v>689</v>
-      </c>
-      <c r="E210">
-        <v>0</v>
+        <v>677</v>
+      </c>
+      <c r="E210" t="s">
+        <v>776</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -7075,13 +7018,13 @@
         <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D211" t="s">
-        <v>690</v>
-      </c>
-      <c r="E211">
-        <v>0</v>
+        <v>678</v>
+      </c>
+      <c r="E211" t="s">
+        <v>761</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -7095,16 +7038,16 @@
         <v>215</v>
       </c>
       <c r="C212" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D212" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="E212" t="s">
-        <v>784</v>
-      </c>
-      <c r="F212" t="s">
-        <v>824</v>
+        <v>760</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -7115,13 +7058,13 @@
         <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D213" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="E213" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -7135,13 +7078,13 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D214" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="E214" t="s">
-        <v>772</v>
+        <v>795</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -7155,13 +7098,13 @@
         <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D215" t="s">
-        <v>694</v>
+        <v>573</v>
       </c>
       <c r="E215" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -7175,13 +7118,13 @@
         <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D216" t="s">
-        <v>602</v>
+        <v>682</v>
       </c>
       <c r="E216" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -7195,16 +7138,16 @@
         <v>220</v>
       </c>
       <c r="C217" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D217" t="s">
-        <v>583</v>
+        <v>683</v>
       </c>
       <c r="E217" t="s">
-        <v>811</v>
+        <v>766</v>
       </c>
       <c r="F217" t="s">
-        <v>823</v>
+        <v>482</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -7215,13 +7158,13 @@
         <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D218" t="s">
-        <v>695</v>
+        <v>633</v>
       </c>
       <c r="E218" t="s">
-        <v>784</v>
+        <v>757</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -7235,13 +7178,13 @@
         <v>222</v>
       </c>
       <c r="C219" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D219" t="s">
-        <v>696</v>
-      </c>
-      <c r="E219" t="s">
-        <v>777</v>
+        <v>684</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -7255,13 +7198,13 @@
         <v>223</v>
       </c>
       <c r="C220" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D220" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="E220" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -7275,13 +7218,13 @@
         <v>224</v>
       </c>
       <c r="C221" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D221" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="E221" t="s">
-        <v>800</v>
+        <v>757</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -7295,13 +7238,13 @@
         <v>225</v>
       </c>
       <c r="C222" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D222" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="E222" t="s">
-        <v>796</v>
+        <v>769</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -7315,13 +7258,13 @@
         <v>226</v>
       </c>
       <c r="C223" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D223" t="s">
-        <v>700</v>
+        <v>542</v>
       </c>
       <c r="E223" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -7335,13 +7278,13 @@
         <v>227</v>
       </c>
       <c r="C224" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D224" t="s">
-        <v>701</v>
+        <v>580</v>
       </c>
       <c r="E224" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -7355,13 +7298,13 @@
         <v>228</v>
       </c>
       <c r="C225" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D225" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="E225" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -7375,16 +7318,16 @@
         <v>229</v>
       </c>
       <c r="C226" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D226" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="E226" t="s">
-        <v>786</v>
-      </c>
-      <c r="F226" t="s">
-        <v>819</v>
+        <v>769</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -7395,16 +7338,16 @@
         <v>230</v>
       </c>
       <c r="C227" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D227" t="s">
-        <v>704</v>
-      </c>
-      <c r="E227" t="s">
-        <v>805</v>
+        <v>690</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
       </c>
       <c r="F227" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -7415,13 +7358,13 @@
         <v>231</v>
       </c>
       <c r="C228" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D228" t="s">
-        <v>705</v>
+        <v>670</v>
       </c>
       <c r="E228" t="s">
-        <v>791</v>
+        <v>757</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -7435,13 +7378,13 @@
         <v>232</v>
       </c>
       <c r="C229" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D229" t="s">
-        <v>706</v>
+        <v>594</v>
       </c>
       <c r="E229" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -7455,13 +7398,13 @@
         <v>233</v>
       </c>
       <c r="C230" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D230" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="E230" t="s">
-        <v>806</v>
+        <v>757</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -7475,13 +7418,13 @@
         <v>234</v>
       </c>
       <c r="C231" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D231" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="E231" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -7495,16 +7438,16 @@
         <v>235</v>
       </c>
       <c r="C232" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D232" t="s">
-        <v>709</v>
-      </c>
-      <c r="E232" t="s">
-        <v>778</v>
-      </c>
-      <c r="F232" t="s">
-        <v>824</v>
+        <v>564</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -7515,16 +7458,16 @@
         <v>236</v>
       </c>
       <c r="C233" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D233" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E233" t="s">
-        <v>786</v>
-      </c>
-      <c r="F233">
-        <v>0</v>
+        <v>789</v>
+      </c>
+      <c r="F233" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -7535,13 +7478,13 @@
         <v>237</v>
       </c>
       <c r="C234" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D234" t="s">
-        <v>658</v>
+        <v>694</v>
       </c>
       <c r="E234" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -7555,16 +7498,16 @@
         <v>238</v>
       </c>
       <c r="C235" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D235" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="E235" t="s">
-        <v>772</v>
-      </c>
-      <c r="F235" t="s">
-        <v>819</v>
+        <v>759</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -7575,16 +7518,16 @@
         <v>239</v>
       </c>
       <c r="C236" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D236" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="E236" t="s">
-        <v>791</v>
-      </c>
-      <c r="F236" t="s">
-        <v>828</v>
+        <v>776</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -7595,16 +7538,16 @@
         <v>240</v>
       </c>
       <c r="C237" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D237" t="s">
-        <v>713</v>
-      </c>
-      <c r="E237">
-        <v>0</v>
-      </c>
-      <c r="F237" t="s">
-        <v>829</v>
+        <v>697</v>
+      </c>
+      <c r="E237" t="s">
+        <v>761</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -7615,13 +7558,13 @@
         <v>241</v>
       </c>
       <c r="C238" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D238" t="s">
-        <v>714</v>
+        <v>530</v>
       </c>
       <c r="E238" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -7635,16 +7578,16 @@
         <v>242</v>
       </c>
       <c r="C239" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D239" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="E239" t="s">
-        <v>775</v>
-      </c>
-      <c r="F239">
-        <v>0</v>
+        <v>796</v>
+      </c>
+      <c r="F239" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -7655,13 +7598,13 @@
         <v>243</v>
       </c>
       <c r="C240" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D240" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="E240" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -7675,16 +7618,16 @@
         <v>244</v>
       </c>
       <c r="C241" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D241" t="s">
-        <v>717</v>
+        <v>587</v>
       </c>
       <c r="E241" t="s">
-        <v>795</v>
-      </c>
-      <c r="F241" t="s">
-        <v>823</v>
+        <v>769</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -7695,16 +7638,16 @@
         <v>245</v>
       </c>
       <c r="C242" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D242" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="E242" t="s">
-        <v>812</v>
-      </c>
-      <c r="F242" t="s">
-        <v>819</v>
+        <v>761</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -7715,16 +7658,16 @@
         <v>246</v>
       </c>
       <c r="C243" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D243" t="s">
-        <v>719</v>
+        <v>568</v>
       </c>
       <c r="E243" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="F243" t="s">
-        <v>826</v>
+        <v>804</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -7735,13 +7678,13 @@
         <v>247</v>
       </c>
       <c r="C244" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D244" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="E244" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -7755,13 +7698,13 @@
         <v>248</v>
       </c>
       <c r="C245" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D245" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="E245" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -7775,16 +7718,16 @@
         <v>249</v>
       </c>
       <c r="C246" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D246" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="E246" t="s">
-        <v>775</v>
-      </c>
-      <c r="F246" t="s">
-        <v>820</v>
+        <v>767</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -7795,13 +7738,13 @@
         <v>250</v>
       </c>
       <c r="C247" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D247" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="E247" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -7815,16 +7758,16 @@
         <v>251</v>
       </c>
       <c r="C248" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D248" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="E248" t="s">
+        <v>785</v>
+      </c>
+      <c r="F248" t="s">
         <v>804</v>
-      </c>
-      <c r="F248">
-        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -7835,13 +7778,13 @@
         <v>252</v>
       </c>
       <c r="C249" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D249" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="E249" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -7855,13 +7798,13 @@
         <v>253</v>
       </c>
       <c r="C250" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D250" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="E250" t="s">
-        <v>773</v>
+        <v>799</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -7875,13 +7818,13 @@
         <v>254</v>
       </c>
       <c r="C251" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D251" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="E251" t="s">
-        <v>787</v>
+        <v>756</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -7895,13 +7838,13 @@
         <v>255</v>
       </c>
       <c r="C252" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D252" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
       <c r="E252" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -7915,13 +7858,13 @@
         <v>256</v>
       </c>
       <c r="C253" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D253" t="s">
-        <v>617</v>
+        <v>709</v>
       </c>
       <c r="E253" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -7935,16 +7878,16 @@
         <v>257</v>
       </c>
       <c r="C254" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D254" t="s">
-        <v>664</v>
+        <v>710</v>
       </c>
       <c r="E254" t="s">
-        <v>779</v>
-      </c>
-      <c r="F254">
-        <v>0</v>
+        <v>764</v>
+      </c>
+      <c r="F254" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -7955,13 +7898,13 @@
         <v>258</v>
       </c>
       <c r="C255" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D255" t="s">
-        <v>729</v>
-      </c>
-      <c r="E255">
-        <v>0</v>
+        <v>711</v>
+      </c>
+      <c r="E255" t="s">
+        <v>771</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -7975,13 +7918,13 @@
         <v>259</v>
       </c>
       <c r="C256" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D256" t="s">
-        <v>670</v>
+        <v>712</v>
       </c>
       <c r="E256" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -7995,13 +7938,13 @@
         <v>260</v>
       </c>
       <c r="C257" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D257" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="E257" t="s">
-        <v>813</v>
+        <v>781</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -8015,13 +7958,13 @@
         <v>261</v>
       </c>
       <c r="C258" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D258" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="E258" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -8035,16 +7978,16 @@
         <v>262</v>
       </c>
       <c r="C259" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D259" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="E259" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="F259" t="s">
-        <v>827</v>
+        <v>482</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -8055,13 +7998,13 @@
         <v>263</v>
       </c>
       <c r="C260" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D260" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="E260" t="s">
-        <v>802</v>
+        <v>760</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -8075,13 +8018,13 @@
         <v>264</v>
       </c>
       <c r="C261" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D261" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="E261" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -8095,16 +8038,16 @@
         <v>265</v>
       </c>
       <c r="C262" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D262" t="s">
-        <v>735</v>
+        <v>614</v>
       </c>
       <c r="E262" t="s">
-        <v>798</v>
-      </c>
-      <c r="F262" t="s">
-        <v>821</v>
+        <v>765</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -8115,16 +8058,16 @@
         <v>266</v>
       </c>
       <c r="C263" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D263" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="E263" t="s">
-        <v>776</v>
-      </c>
-      <c r="F263" t="s">
-        <v>826</v>
+        <v>800</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -8135,13 +8078,13 @@
         <v>267</v>
       </c>
       <c r="C264" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D264" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="E264" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -8155,16 +8098,16 @@
         <v>268</v>
       </c>
       <c r="C265" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D265" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="E265" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
       <c r="F265" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -8175,13 +8118,13 @@
         <v>269</v>
       </c>
       <c r="C266" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D266" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="E266" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -8195,13 +8138,13 @@
         <v>270</v>
       </c>
       <c r="C267" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D267" t="s">
-        <v>515</v>
+        <v>722</v>
       </c>
       <c r="E267" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -8215,13 +8158,13 @@
         <v>271</v>
       </c>
       <c r="C268" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D268" t="s">
-        <v>614</v>
+        <v>723</v>
       </c>
       <c r="E268" t="s">
-        <v>782</v>
+        <v>758</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -8235,16 +8178,16 @@
         <v>272</v>
       </c>
       <c r="C269" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D269" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="E269" t="s">
-        <v>798</v>
-      </c>
-      <c r="F269">
-        <v>0</v>
+        <v>790</v>
+      </c>
+      <c r="F269" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -8255,13 +8198,13 @@
         <v>273</v>
       </c>
       <c r="C270" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D270" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="E270" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -8275,13 +8218,13 @@
         <v>274</v>
       </c>
       <c r="C271" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D271" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="E271" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -8295,13 +8238,13 @@
         <v>275</v>
       </c>
       <c r="C272" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D272" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="E272" t="s">
-        <v>807</v>
+        <v>765</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -8315,16 +8258,16 @@
         <v>276</v>
       </c>
       <c r="C273" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D273" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="E273" t="s">
-        <v>781</v>
-      </c>
-      <c r="F273">
-        <v>0</v>
+        <v>802</v>
+      </c>
+      <c r="F273" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -8335,13 +8278,13 @@
         <v>277</v>
       </c>
       <c r="C274" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D274" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="E274" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -8355,16 +8298,16 @@
         <v>278</v>
       </c>
       <c r="C275" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D275" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="E275" t="s">
-        <v>783</v>
-      </c>
-      <c r="F275" t="s">
-        <v>826</v>
+        <v>800</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -8375,16 +8318,16 @@
         <v>279</v>
       </c>
       <c r="C276" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D276" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="E276" t="s">
-        <v>808</v>
-      </c>
-      <c r="F276" t="s">
-        <v>819</v>
+        <v>774</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -8395,13 +8338,13 @@
         <v>280</v>
       </c>
       <c r="C277" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D277" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="E277" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -8415,16 +8358,16 @@
         <v>281</v>
       </c>
       <c r="C278" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D278" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="E278" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F278" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -8435,13 +8378,13 @@
         <v>282</v>
       </c>
       <c r="C279" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D279" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="E279" t="s">
-        <v>772</v>
+        <v>803</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -8455,13 +8398,13 @@
         <v>283</v>
       </c>
       <c r="C280" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D280" t="s">
-        <v>751</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
+        <v>735</v>
+      </c>
+      <c r="E280" t="s">
+        <v>758</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -8475,13 +8418,13 @@
         <v>284</v>
       </c>
       <c r="C281" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D281" t="s">
-        <v>752</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
+        <v>736</v>
+      </c>
+      <c r="E281" t="s">
+        <v>769</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -8495,16 +8438,16 @@
         <v>285</v>
       </c>
       <c r="C282" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D282" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="E282" t="s">
-        <v>812</v>
-      </c>
-      <c r="F282" t="s">
-        <v>820</v>
+        <v>781</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -8515,13 +8458,13 @@
         <v>286</v>
       </c>
       <c r="C283" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D283" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="E283" t="s">
-        <v>792</v>
+        <v>757</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -8535,16 +8478,16 @@
         <v>287</v>
       </c>
       <c r="C284" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D284" t="s">
-        <v>755</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>0</v>
+        <v>739</v>
+      </c>
+      <c r="E284" t="s">
+        <v>758</v>
+      </c>
+      <c r="F284" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -8555,13 +8498,13 @@
         <v>288</v>
       </c>
       <c r="C285" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D285" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="E285" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -8575,16 +8518,16 @@
         <v>289</v>
       </c>
       <c r="C286" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D286" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="E286" t="s">
-        <v>814</v>
+        <v>787</v>
       </c>
       <c r="F286" t="s">
-        <v>830</v>
+        <v>482</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -8595,10 +8538,10 @@
         <v>290</v>
       </c>
       <c r="C287" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D287" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="E287" t="s">
         <v>781</v>
@@ -8615,16 +8558,16 @@
         <v>291</v>
       </c>
       <c r="C288" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D288" t="s">
-        <v>759</v>
-      </c>
-      <c r="E288" t="s">
-        <v>803</v>
-      </c>
-      <c r="F288">
-        <v>0</v>
+        <v>743</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -8635,13 +8578,13 @@
         <v>292</v>
       </c>
       <c r="C289" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D289" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="E289" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -8655,13 +8598,13 @@
         <v>293</v>
       </c>
       <c r="C290" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D290" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="E290" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -8675,13 +8618,13 @@
         <v>294</v>
       </c>
       <c r="C291" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D291" t="s">
+        <v>746</v>
+      </c>
+      <c r="E291" t="s">
         <v>762</v>
-      </c>
-      <c r="E291" t="s">
-        <v>791</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -8695,13 +8638,13 @@
         <v>295</v>
       </c>
       <c r="C292" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D292" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="E292" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -8715,16 +8658,16 @@
         <v>296</v>
       </c>
       <c r="C293" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D293" t="s">
-        <v>509</v>
+        <v>748</v>
       </c>
       <c r="E293" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="F293" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -8735,16 +8678,16 @@
         <v>297</v>
       </c>
       <c r="C294" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D294" t="s">
-        <v>764</v>
+        <v>733</v>
       </c>
       <c r="E294" t="s">
-        <v>776</v>
-      </c>
-      <c r="F294" t="s">
-        <v>819</v>
+        <v>760</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -8755,13 +8698,13 @@
         <v>298</v>
       </c>
       <c r="C295" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D295" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="E295" t="s">
-        <v>815</v>
+        <v>760</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -8775,13 +8718,13 @@
         <v>299</v>
       </c>
       <c r="C296" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D296" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="E296" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -8795,13 +8738,13 @@
         <v>300</v>
       </c>
       <c r="C297" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D297" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="E297" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -8815,13 +8758,13 @@
         <v>301</v>
       </c>
       <c r="C298" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D298" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="E298" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -8835,16 +8778,16 @@
         <v>302</v>
       </c>
       <c r="C299" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D299" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="E299" t="s">
-        <v>816</v>
-      </c>
-      <c r="F299" t="s">
-        <v>819</v>
+        <v>779</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -8855,16 +8798,16 @@
         <v>303</v>
       </c>
       <c r="C300" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D300" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="E300" t="s">
-        <v>817</v>
+        <v>775</v>
       </c>
       <c r="F300" t="s">
-        <v>820</v>
+        <v>482</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -8875,16 +8818,16 @@
         <v>304</v>
       </c>
       <c r="C301" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D301" t="s">
-        <v>771</v>
-      </c>
-      <c r="E301" t="s">
-        <v>818</v>
-      </c>
-      <c r="F301" t="s">
-        <v>819</v>
+        <v>755</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/뽐뿌.xlsx
+++ b/data/뽐뿌.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="812">
   <si>
     <t>제목</t>
   </si>
@@ -31,6 +31,402 @@
     <t>추천수</t>
   </si>
   <si>
+    <t>도드람 한돈 삼겹살 왔어요.</t>
+  </si>
+  <si>
+    <t>갤럭시 아카데미 페스티벌 요약 (S7 FE 한정)</t>
+  </si>
+  <si>
+    <t>와디즈 역대급 주전부리 안주 출시...ㄷㄷ</t>
+  </si>
+  <si>
+    <t>로지텍 럭키박스 같은 거 저울로 재보는 사람이 실제로 있군요</t>
+  </si>
+  <si>
+    <t>여자배구..김사니 코치도 항명성 연속 무단 이탈,'총체적 난국' 기업은행 프로 팀 맞나....</t>
+  </si>
+  <si>
+    <t>원더걸스 선예, '엄마는 아이돌'로 복귀, 세 딸 엄마의 아이돌 재도전</t>
+  </si>
+  <si>
+    <t>롱패딩</t>
+  </si>
+  <si>
+    <t>캐시워크</t>
+  </si>
+  <si>
+    <t>여자배구 조송화 은퇴 고려 ㄷㄷ..jpg</t>
+  </si>
+  <si>
+    <t>유플러스 선물 받으러 가세요~~(장기가입선물 아님)</t>
+  </si>
+  <si>
+    <t>수험생들</t>
+  </si>
+  <si>
+    <t>지금 비와?</t>
+  </si>
+  <si>
+    <t>여자들 린스 뭐쓰세요?? 맨날 케라시스만 쓰다가 이번에 좀 교체좀 해보려는데...너무 ...</t>
+  </si>
+  <si>
+    <t>아무리 문신충욕해도</t>
+  </si>
+  <si>
+    <t>이별 통보한 여친 찌르고 고층 베란다 밖으로 던진 30대 체포</t>
+  </si>
+  <si>
+    <t>지금 배민 검색 1순위 치킨집..jpg</t>
+  </si>
+  <si>
+    <t>수능이 끝났네요</t>
+  </si>
+  <si>
+    <t>한국 출산정책에 따른 시대별 캠페인 포스터.jpg</t>
+  </si>
+  <si>
+    <t>유튜브에서 발견한 이색소개팅 (침대. 욕조)</t>
+  </si>
+  <si>
+    <t>이번 층간소음 사건은 처음부터 경찰이 잘못한거죠</t>
+  </si>
+  <si>
+    <t>요즘 집들이 선물 뭐가 좋으련지..</t>
+  </si>
+  <si>
+    <t>만달로리안이 과거이야기가 아니네요</t>
+  </si>
+  <si>
+    <t>하림 '장인라면' 한 달 누적 판매량 300만 봉 돌파</t>
+  </si>
+  <si>
+    <t>만취해 아파트 주차장 3대 들이받은 여경 검찰 송치</t>
+  </si>
+  <si>
+    <t>일본은 왜 드라마를 못 만들까요?</t>
+  </si>
+  <si>
+    <t>커튼 길이 잘못 맞췄는데 머리가 다 아프네요</t>
+  </si>
+  <si>
+    <t>남자 키 170중반 체중 70정도면 보통 골격근량 얼마나 나오나요?</t>
+  </si>
+  <si>
+    <t>다음주부터 레알 겨울시작인듯 ㅜㅜ</t>
+  </si>
+  <si>
+    <t>여경이 힘이 약하다고 총기를 자유롭게 쓰게 할수도 없고...</t>
+  </si>
+  <si>
+    <t>요즘 캐롤에 꽂혔네요ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>박명수 무례했네여</t>
+  </si>
+  <si>
+    <t>올해 고티라는데</t>
+  </si>
+  <si>
+    <t>모더나에서 화이자로 백신 바뀌신 분들 있나요?</t>
+  </si>
+  <si>
+    <t>곧 퇴근입니다!!</t>
+  </si>
+  <si>
+    <t>넷플릭스 가격올라도 계속 쓸수밖에 없는거같아요</t>
+  </si>
+  <si>
+    <t>북한 코로나 확진 '0'이라더니.."격리시설 입소자만 10만명"</t>
+  </si>
+  <si>
+    <t>카톡 수능이라고 귀여운 이미지 뜨네요</t>
+  </si>
+  <si>
+    <t>수조원 자산가의 트윗</t>
+  </si>
+  <si>
+    <t>아재들이 기억하는 여경</t>
+  </si>
+  <si>
+    <t>콩나물은 콩테크..?</t>
+  </si>
+  <si>
+    <t>한반도에 울려퍼지는 중화 대륙인의 기상</t>
+  </si>
+  <si>
+    <t>여경사건 터질수록 여경들은 더 만세부를거라봅니다.</t>
+  </si>
+  <si>
+    <t>"여경 뽑을수록 피해 보는건 국민.. 경찰, 페미코인 그만"</t>
+  </si>
+  <si>
+    <t>오퀘2 앱이나 홈피 확인해 보세요 캐쉬 주네요</t>
+  </si>
+  <si>
+    <t>요기요 bbq 할인</t>
+  </si>
+  <si>
+    <t>층간소음 여경사건.</t>
+  </si>
+  <si>
+    <t>요즘 신축은 40평대를 거의 찾아볼 수가 없네요</t>
+  </si>
+  <si>
+    <t>램2기가 4기가 8기가 보급 대중화 된게 각각 몇년도일까요</t>
+  </si>
+  <si>
+    <t>신안은 자정작용이 불가함을 인정하고 특별관리 해야할듯</t>
+  </si>
+  <si>
+    <t>오징어 게임 1위 기록이 내일로 완전히 깨질지도 모르겠군요.</t>
+  </si>
+  <si>
+    <t>삼성폰 카메라도 무음으로 할 수 있네요</t>
+  </si>
+  <si>
+    <t>모더나 2차 백신이 물량이 없어서 대신 화이자 맞는다네요</t>
+  </si>
+  <si>
+    <t>청약신청금이 천만원</t>
+  </si>
+  <si>
+    <t>이 영상을 이해하면 테슬람이 될겁니다.</t>
+  </si>
+  <si>
+    <t>이번 여경 사건은 이 사진으로 설명...</t>
+  </si>
+  <si>
+    <t>오징어 게임이 세운 대기록</t>
+  </si>
+  <si>
+    <t>솔리드옴므코트 125 만원짜리 95만원에 살수있는데</t>
+  </si>
+  <si>
+    <t>요즘 옷쇼핑몰 폰카로 사진찍는곳도 여럿보이네요</t>
+  </si>
+  <si>
+    <t>1차 얀센 추가접종 화이자 방금 맞았네요</t>
+  </si>
+  <si>
+    <t>실시간 달사진..</t>
+  </si>
+  <si>
+    <t>아 옷입기 너무 애매한 날씨 같아요</t>
+  </si>
+  <si>
+    <t>곰플레이어말고 1초 이하 단위로 재생시간 이동가능한 동영상 플레이어 또 있을까요</t>
+  </si>
+  <si>
+    <t>9x년 수능 실업계, 인문계 분리</t>
+  </si>
+  <si>
+    <t>지금 스팸?전화 받고 빵 터졌다 뻘쭘했네요</t>
+  </si>
+  <si>
+    <t>여자배구.. 기업은행 조송화, 또 팀 이탈..김사니 코치도 휴식..news</t>
+  </si>
+  <si>
+    <t>저녁은 치킨이 떙기네요</t>
+  </si>
+  <si>
+    <t>야구 두산에서 화좀 냈나 보네요 ㅋ</t>
+  </si>
+  <si>
+    <t>무엇이든 물어보세요...2탄</t>
+  </si>
+  <si>
+    <t>변태 인턴 직위해제</t>
+  </si>
+  <si>
+    <t>SBS [단독] 보도로 보는 범인 제압 안 하고 나간 여경 사건</t>
+  </si>
+  <si>
+    <t>직업에서의 성평등 문제</t>
+  </si>
+  <si>
+    <t>서울 족발 5대 맛집 ㄷㄷ..jpg</t>
+  </si>
+  <si>
+    <t>하루에 4시간만 자도 충분한 사람들 '쇼트 슬리퍼'</t>
+  </si>
+  <si>
+    <t>속보 내일 부터 임신근로자도 육아휴직 가능</t>
+  </si>
+  <si>
+    <t>수능지각 걱정되면 112  119 누르세요</t>
+  </si>
+  <si>
+    <t>ssg머니 이거 아무나 주는건지</t>
+  </si>
+  <si>
+    <t>저의 종류별 최애치킨 목록</t>
+  </si>
+  <si>
+    <t>올해 수능 응시자가 몇명정도 되나요?</t>
+  </si>
+  <si>
+    <t>수능  시험장 중학교에서도 본 세대 아닌 세대...</t>
+  </si>
+  <si>
+    <t>단어가 생각이 안나는데 이게 뭘까요?</t>
+  </si>
+  <si>
+    <t>수능 때 늦을 거 같으면 112 호출이 정답인가요?</t>
+  </si>
+  <si>
+    <t>아구찜은 맛나지만</t>
+  </si>
+  <si>
+    <t>오퀴즈 17시 - 4</t>
+  </si>
+  <si>
+    <t>속보 검찰 김건모 성폭행 무혐의 처분</t>
+  </si>
+  <si>
+    <t>저 수능볼때, 컨닝한 놈 있었어요;</t>
+  </si>
+  <si>
+    <t>105 입는데 올세인츠 가죽자켓 S가 딱 맞네요</t>
+  </si>
+  <si>
+    <t>디카프리오와 이정재 셀카 비하인드.jpg</t>
+  </si>
+  <si>
+    <t>겨울감기 죽겠네요</t>
+  </si>
+  <si>
+    <t>트래블 버블로 사이판 가는 사람 많네요</t>
+  </si>
+  <si>
+    <t>사상 초유의 신용카드 결제 전면 중단 사태가 올 수도 있답니다.NEWS</t>
+  </si>
+  <si>
+    <t>넷플릭스가 공개한 역대 모든 콘텐츠 시청시간.jpg</t>
+  </si>
+  <si>
+    <t>약빨고 만든 모바일 게임 광고</t>
+  </si>
+  <si>
+    <t>선생님 여경아니고 경찰이에요.</t>
+  </si>
+  <si>
+    <t>올해는 수능 못봤다고 생명 잃는 아이들은 안 봤으면...</t>
+  </si>
+  <si>
+    <t>2022학년도 국어영역 1번 문제</t>
+  </si>
+  <si>
+    <t>다들 최애 치킨 어디인가여</t>
+  </si>
+  <si>
+    <t>부산의 한 아파트 전출 전입 엘리베이터 사용료.jpg</t>
+  </si>
+  <si>
+    <t>화이자 추가 접종했습니다.</t>
+  </si>
+  <si>
+    <t>1년에 한 번 뿐인 수능을 날려버리는 애들은 무슨 생각인지 ㄷㄷ</t>
+  </si>
+  <si>
+    <t>요기패스</t>
+  </si>
+  <si>
+    <t>도마뱀이 콘돔 먹고 죽었다.</t>
+  </si>
+  <si>
+    <t>인천서 수능 보던 여학생 실신ㄷㄷㄷ</t>
+  </si>
+  <si>
+    <t>만취한 20대 여경, 아파트 주차장서 차 3대 들이받아 송치</t>
+  </si>
+  <si>
+    <t>여돌이 게임캐릭터로 변해가는 과정...gif</t>
+  </si>
+  <si>
+    <t>수능 끝나고 든 생각</t>
+  </si>
+  <si>
+    <t>왜 치킨만 뭐라 할까요..??ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>검찰, 김건모 성폭행 의혹 "무혐의 처분"</t>
+  </si>
+  <si>
+    <t>타호는 나와도 시에라는 안 나올 줄 알았는데</t>
+  </si>
+  <si>
+    <t>수능 현장 실시간 체험 유튜브 채널도 있네요.</t>
+  </si>
+  <si>
+    <t>손흥민이 확실히 빠르죠?</t>
+  </si>
+  <si>
+    <t>퇴근하고싶네요</t>
+  </si>
+  <si>
+    <t>날씨가 흐려서 그런가 벌써 어두컴컴 합니다</t>
+  </si>
+  <si>
+    <t>동네시장 500원짜리 호떡</t>
+  </si>
+  <si>
+    <t>치우는 데만 100억 이상.. 바다 떠도는 '새로운 재해'에 일본 골머리</t>
+  </si>
+  <si>
+    <t>수능 수학 한번 풀어봤는데 옛날보다는 쉬워지긴 했네요</t>
+  </si>
+  <si>
+    <t>박명수 인스타 최신.jpg</t>
+  </si>
+  <si>
+    <t>제주도 중학생 살해범 2인조 검찰사형 구형</t>
+  </si>
+  <si>
+    <t>요기패스 구독이요</t>
+  </si>
+  <si>
+    <t>국민청원답변 제1호를 아시나요?</t>
+  </si>
+  <si>
+    <t>넷플릭스 요금제</t>
+  </si>
+  <si>
+    <t>"연말 치킨 파티도 부담되네" 교촌치킨 최대 2000원 올린다</t>
+  </si>
+  <si>
+    <t>케이티 인터넷 장애 천원 정도 받네요.</t>
+  </si>
+  <si>
+    <t>뺑소니  k 캅스</t>
+  </si>
+  <si>
+    <t>지하철에 노인분들 굉장히 많네요</t>
+  </si>
+  <si>
+    <t>오늘 공기 엄청안좋네요</t>
+  </si>
+  <si>
+    <t>후배 어머니의 강력한 푸쉬는 손절이 답이네요..ㄷㄷ</t>
+  </si>
+  <si>
+    <t>만취한 20대 여경, 아파트 주차장서 차 3대 들이받아.link</t>
+  </si>
+  <si>
+    <t>잠옷추천</t>
+  </si>
+  <si>
+    <t>골때녀 재미 없는건 저뿐인가요?</t>
+  </si>
+  <si>
+    <t>세상은 넓고 XX는 많네요.</t>
+  </si>
+  <si>
+    <t>요기요 슈퍼클럽 10회였네요??</t>
+  </si>
+  <si>
+    <t>원더걸스 선예 복귀하네요</t>
+  </si>
+  <si>
     <t>확실히 명품은 한국이 싸네요.</t>
   </si>
   <si>
@@ -286,9 +682,6 @@
     <t>부산행 헐리웃 리메이크작 제목 공개.. news</t>
   </si>
   <si>
-    <t>SBS [단독] 보도로 보는 범인 제압 안 하고 나간 여경 사건</t>
-  </si>
-  <si>
     <t>대우 벽걸이 세탁기 사용하시는분들 계신가요?</t>
   </si>
   <si>
@@ -382,9 +775,6 @@
     <t>스트릿 맨 파이터</t>
   </si>
   <si>
-    <t>컴퓨터 사양인데 컴퓨터 게임 가능할까요?</t>
-  </si>
-  <si>
     <t>편의점 비빔밥  기본.....     대결.</t>
   </si>
   <si>
@@ -514,9 +904,6 @@
     <t>요기요 bhc 좋네요</t>
   </si>
   <si>
-    <t>캐시워크</t>
-  </si>
-  <si>
     <t>수능보러 갈때 삼다수를 그대로 가져가면 안되는 이유</t>
   </si>
   <si>
@@ -535,400 +922,247 @@
     <t>몇년 째 게시판 보면서 본 뿜뿌인들~</t>
   </si>
   <si>
-    <t>아이디 바꿨네요</t>
-  </si>
-  <si>
-    <t>요기요 bhc 행사는 약간 이런 느낌...</t>
-  </si>
-  <si>
-    <t>텀블러 들고 맥도날드에 커피 받으러 가야겠네요.</t>
-  </si>
-  <si>
-    <t>현대 기아차가 스텔스가 많은 이유.</t>
-  </si>
-  <si>
-    <t>팀삼성 상품권 5만원도 아직 안들어오신 분 계신가요?</t>
-  </si>
-  <si>
-    <t>디즈니 플러스에 포켓몬은 없겠죠?</t>
-  </si>
-  <si>
-    <t>여경문제는 그냥 내근직으로 돌리고 끝납니다</t>
-  </si>
-  <si>
-    <t>요기요 터졌나요</t>
-  </si>
-  <si>
-    <t>요기요 포장 주문 잘되시는가요?</t>
-  </si>
-  <si>
-    <t>요기요</t>
-  </si>
-  <si>
-    <t>하남 교산, 지장물조사 1년 넘도록 제자리</t>
-  </si>
-  <si>
-    <t>ott 생각보다 부담스럽네요</t>
-  </si>
-  <si>
-    <t>오늘자 꽤 어려운 수능 국어 문제</t>
-  </si>
-  <si>
-    <t>요즘 한국 인터넷 여혐 유교 탈레반님들 본 소감</t>
-  </si>
-  <si>
-    <t>요기요 이런 경우 결제가 어떻게 되는 걸까요</t>
-  </si>
-  <si>
-    <t>층간소음에 이사가려고 갈집 알아본날... 윗집 칼부림에 일가족 중경상</t>
-  </si>
-  <si>
-    <t>점심으로 닭갈비 먹고싶은데</t>
-  </si>
-  <si>
-    <t>오늘 배민 수능 이벤트 있네요 (3천원 할인)</t>
-  </si>
-  <si>
-    <t>미국이 한미일을 묶어보려고 하는데, 일본의 견제가 엄청나네요.</t>
-  </si>
-  <si>
-    <t>오늘 포장은 맛쵸킹!!</t>
-  </si>
-  <si>
-    <t>K-여경 근황.jpg</t>
-  </si>
-  <si>
-    <t>지민 영어표기 Jeemeeen jimin....???</t>
-  </si>
-  <si>
-    <t>같이삽시다 여배우 피시앤칩스7억 날렸다는데</t>
-  </si>
-  <si>
-    <t>10일간 일본자가격리 끝났습니다.</t>
-  </si>
-  <si>
-    <t>PC주의는 공산주의 같아요</t>
-  </si>
-  <si>
-    <t>오징어 게임 인기 넘을 드라마는</t>
-  </si>
-  <si>
-    <t>드라마 지리산에서....</t>
-  </si>
-  <si>
-    <t>수능 전날 너무 웃기네요.</t>
-  </si>
-  <si>
-    <t>엄청 날씬한 여자 호불호 어떠신가요? 160cm 45kg</t>
-  </si>
-  <si>
-    <t>열차에서 전화통화 크게하고 음식섭취하던 중년아줌마 되려 성질이네요.</t>
-  </si>
-  <si>
-    <t>경찰들의 시원한 진압장면.gif</t>
-  </si>
-  <si>
-    <t>재난지원금이 확실히 효과가 있나보네요</t>
-  </si>
-  <si>
-    <t>블라인드 한전 누님의 군경력에 대한 생각</t>
-  </si>
-  <si>
-    <t>뱅기 이착륙제한이라 뱅글뱅글 도네요</t>
-  </si>
-  <si>
-    <t>일본이 왜그러나했더니 독도 때문이라네요.</t>
-  </si>
-  <si>
-    <t>외모지상주의 해양동물편 - "먹었으면 어쩔 뻔!"미국서 '솜사탕 랍스터' 잡혀</t>
-  </si>
-  <si>
-    <t>동물원 탈출 방법 찾는 중</t>
-  </si>
-  <si>
-    <t>칼 휘두르니 도망간 여경이 불러온 경찰도 여경이면</t>
-  </si>
-  <si>
-    <t>OTT도 인플레가 일어나네요 젠장</t>
-  </si>
-  <si>
-    <t>아이엠택시 이용해보신분 있을까요?</t>
-  </si>
-  <si>
-    <t>공항에서 팬을 만난 인어공주 실사 배우.jpg</t>
-  </si>
-  <si>
-    <t>넷플릭스 초심 잃었나요</t>
-  </si>
-  <si>
-    <t>드라마 홍수 시대인듯</t>
-  </si>
-  <si>
-    <t>오늘 kb국민 룰렛 쿠폰 문자오신분있으세요?</t>
-  </si>
-  <si>
-    <t>폰 돌려준 택시기사에 사례하자 "그렇게 살지 마라" 왜?</t>
-  </si>
-  <si>
-    <t>여경 도망 사건 예상 해결책</t>
-  </si>
-  <si>
-    <t>개인적으로 OTT를 별로 안좋아하는 이유가요</t>
-  </si>
-  <si>
-    <t>여경 진짜  차별적인단어</t>
-  </si>
-  <si>
-    <t>매년 수능마다 떠오르는 트위터 명문.jpg</t>
-  </si>
-  <si>
-    <t>쿠농과 포농 그리고 안티 세력.</t>
-  </si>
-  <si>
-    <t>디즈니 플러스는 봤던것도 또 볼만한게</t>
-  </si>
-  <si>
-    <t>올해 추울거라 예상되세요?..</t>
-  </si>
-  <si>
-    <t>요기요 BHC 퇴근길 포장예약</t>
-  </si>
-  <si>
-    <t>여경 문제 지적하면 이상한사람으로 몰아가는데</t>
-  </si>
-  <si>
-    <t>층간소음 흉기난동 여경 현장이탈 썸네일 사진..jpg</t>
-  </si>
-  <si>
-    <t>112 신고시 여경 출동은 반대한다고 전제하고 신고</t>
-  </si>
-  <si>
-    <t>회사에서 자발적 아싸로 지내시는분들 계신가요~?</t>
-  </si>
-  <si>
-    <t>캐시워크 바뀐답</t>
-  </si>
-  <si>
-    <t>통오징어 짬뽕</t>
-  </si>
-  <si>
-    <t>솔직히 공무원들 거만한사람은 겁나 거만하죠.</t>
-  </si>
-  <si>
-    <t>ott 통합대행서비스 실시하면 좋을듯요.</t>
-  </si>
-  <si>
-    <t>디즈니+ 1년 구독 시작했습니다 친구가 2만원으로 해줬네요</t>
-  </si>
-  <si>
-    <t>캐시워크 키토선생</t>
-  </si>
-  <si>
-    <t>층간소음 살인미수 여경 대처 부적절 경찰 사과</t>
-  </si>
-  <si>
-    <t>오늘 국민은행 오픈룰렛 놓쳫네요</t>
-  </si>
-  <si>
-    <t>신용카드 결제 각종 페이로 대체되지 않을까요</t>
-  </si>
-  <si>
-    <t>넷플릭스 가격 17000원이라도 괜찮다고 생각될수가 있는게</t>
-  </si>
-  <si>
-    <t>넷플이 선빵 끊었으니 다른곳도 조만간이네요.</t>
-  </si>
-  <si>
-    <t>ott 다 쪼개져서 부담이네요 정말...</t>
-  </si>
-  <si>
-    <t>민원인 공무원 호칭 논란</t>
-  </si>
-  <si>
-    <t>메타가 구현하고자 하는 햅틱..</t>
-  </si>
-  <si>
-    <t>지하철이 물가가 가장 싸네요</t>
-  </si>
-  <si>
-    <t>여경이 필요한 이유</t>
-  </si>
-  <si>
-    <t>여경 뽑지말자는 사람 보면 조상님들이 기뻐하시겠네요</t>
-  </si>
-  <si>
-    <t>완다비전 진짜 재밌네요</t>
-  </si>
-  <si>
-    <t>혹시 굵은 글씨체 이상하게 보이시는 분 계신가요?</t>
-  </si>
-  <si>
-    <t>주한미군훈련 전면중단 선언</t>
-  </si>
-  <si>
-    <t>엘지 세탁기 사면 곰인형도 주나보네요</t>
-  </si>
-  <si>
-    <t>경찰소방군대는 행정업무 필요없어요</t>
-  </si>
-  <si>
-    <t>서울여행도 좋지 않나요?</t>
-  </si>
-  <si>
-    <t>호식이 두마리 치킨이 그렇게 맛있나요?</t>
-  </si>
-  <si>
-    <t>ㅋㅋSBS방송사고 제대로네여 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>미국에서 병원가는거 진짜 무섭고 힘든일인가요??</t>
-  </si>
-  <si>
-    <t>차가 여러대 있을 때 자동차 보험료</t>
-  </si>
-  <si>
-    <t>창고에 요소수 8천 리터, 시가 6배 팔려다 덜미</t>
-  </si>
-  <si>
-    <t>경찰, 소방, 군대는 여자가 굳이 필요없는 직종이죠</t>
-  </si>
-  <si>
-    <t>OCN에서 하는 영화 "군도'보는데 이건 완전 강동원 화보네요..</t>
-  </si>
-  <si>
-    <t>크보 ....정수빈 보면서....</t>
-  </si>
-  <si>
-    <t>메트릭스4 메인포스터</t>
-  </si>
-  <si>
-    <t>수능인데. 운동 열심히 하는 모습들</t>
-  </si>
-  <si>
-    <t>추가 모더나 접종했네요</t>
-  </si>
-  <si>
-    <t>지리산 답이 없는 드라마더군요</t>
-  </si>
-  <si>
-    <t>샤오미 백팩...</t>
-  </si>
-  <si>
-    <t>개랑 사람이랑 동급취급하는거</t>
-  </si>
-  <si>
-    <t>수능친지 오래</t>
-  </si>
-  <si>
-    <t>요즘 우리나라가 잘사는 나라라고 느끼는점</t>
-  </si>
-  <si>
-    <t>쿠팡이츠 금액권도 나오네요</t>
-  </si>
-  <si>
-    <t>미국주식으로 오세요</t>
-  </si>
-  <si>
-    <t>얀센 잔여백신 화이자 예약했네요</t>
-  </si>
-  <si>
-    <t>수능 보는 아들이 서브웨이 포장해달라고....</t>
-  </si>
-  <si>
-    <t>파주시, 여성공무원 숙직 내년 2월부터 시행</t>
-  </si>
-  <si>
-    <t>dp로 연결했을때와 hdmi로 연결했을때...</t>
-  </si>
-  <si>
-    <t>에어컨 버리려고 내놓고 나왔는데 벌써 사라졌다네요.</t>
-  </si>
-  <si>
-    <t>여자가 휴대폰 빌려줬더니 온 카톡...jpg</t>
-  </si>
-  <si>
-    <t>아직 갤럭시s8쓰고있는데 배터리교체 삼성필름교환했더니</t>
-  </si>
-  <si>
-    <t>수능 때 시계고장 났었네요. (교실에 시계없음)</t>
-  </si>
-  <si>
-    <t>와사비 고추냉이 겨자 각각 차이가 뭐예요?</t>
-  </si>
-  <si>
-    <t>내년에 한국 상륙한다는 초대형 OTT.jpg</t>
-  </si>
-  <si>
-    <t>그래도 오늘 수능 날인데..</t>
-  </si>
-  <si>
-    <t>와 이젠 닉네임가지고 시비거는 사람도 있네요</t>
-  </si>
-  <si>
-    <t>상생소비지원금이 보험료로..</t>
-  </si>
-  <si>
-    <t>왜 양치하면 잠이 달아날까요</t>
-  </si>
-  <si>
-    <t>국민은행 당첨이네요 왠일ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>오늘이 수능이라니;;</t>
-  </si>
-  <si>
-    <t>윤계상이 연기를 시작하게 된 계기. JPG</t>
-  </si>
-  <si>
-    <t>와 나이키 마운틴플라이 순삭이네요</t>
-  </si>
-  <si>
-    <t>한달에 380번다고 무시하던데;; 솔직히 이제는 근로 소득보다 자본소득이 대세아닌가요...</t>
-  </si>
-  <si>
-    <t>"스포츠 아나운서 출신 방송인이 가정 파탄냈다"</t>
-  </si>
-  <si>
-    <t>캐시워크 여기어때 답 공동구매</t>
-  </si>
-  <si>
-    <t>오늘자 165명의 정신빠진것들.jpg</t>
-  </si>
-  <si>
-    <t>기안84 채널 보는데 화보 또 찍었네요</t>
-  </si>
-  <si>
-    <t>팍스로비드 복제약 허용</t>
-  </si>
-  <si>
-    <t>김종국님 저격한 그렉 듀셋 있잖아요</t>
-  </si>
-  <si>
-    <t>인별 보면 젊은 친구들이 돈까지 많아요</t>
-  </si>
-  <si>
-    <t>[기사] 리니지 아이템이 뭐길래공금 30억 빼돌려 이것 산 수협 직원</t>
-  </si>
-  <si>
-    <t>저도 스벅 당첨됐네요</t>
-  </si>
-  <si>
-    <t>공무원들 민원에 시달린다고 하지만</t>
-  </si>
-  <si>
-    <t>저도 KB룰렛 드디어 스벅</t>
-  </si>
-  <si>
-    <t>룰렛 까먹고 처음돌렸는데 당첨이네요</t>
-  </si>
-  <si>
-    <t>국민은행앱 오픈런 룰렛 대박이네요</t>
-  </si>
-  <si>
-    <t>넷플릭스 디즈니+ 나온지 얼마안됐는데 가격 인상하는건</t>
-  </si>
-  <si>
-    <t>돌아가신 아버지를 향해 부른 감동의 노래...jpg</t>
+    <t>2021.11.18 18:08</t>
+  </si>
+  <si>
+    <t>2021.11.18 18:07</t>
+  </si>
+  <si>
+    <t>2021.11.18 18:06</t>
+  </si>
+  <si>
+    <t>2021.11.18 18:04</t>
+  </si>
+  <si>
+    <t>2021.11.18 18:02</t>
+  </si>
+  <si>
+    <t>2021.11.18 18:01</t>
+  </si>
+  <si>
+    <t>2021.11.18 18:00</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:59</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:57</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:56</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:53</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:52</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:51</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:50</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:49</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:48</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:47</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:46</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:45</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:44</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:41</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:40</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:39</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:38</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:36</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:34</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:33</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:31</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:30</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:29</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:27</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:26</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:25</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:24</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:23</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:22</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:21</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:20</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:18</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:17</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:15</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:14</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:13</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:12</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:11</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:10</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:09</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:06</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:04</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:03</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:02</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:00</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:58</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:53</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:52</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:51</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:50</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:49</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:48</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:47</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:46</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:42</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:41</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:40</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:38</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:37</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:36</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:34</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:33</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:31</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:30</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:29</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:28</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:27</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:26</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:25</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:21</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:20</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:19</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:18</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:17</t>
   </si>
   <si>
     <t>2021.11.18 16:16</t>
@@ -1120,9 +1354,6 @@
     <t>2021.11.18 14:44</t>
   </si>
   <si>
-    <t>2021.11.18 14:43</t>
-  </si>
-  <si>
     <t>2021.11.18 14:42</t>
   </si>
   <si>
@@ -1210,1240 +1441,1009 @@
     <t>2021.11.18 13:56</t>
   </si>
   <si>
-    <t>2021.11.18 13:55</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:54</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:52</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:51</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:50</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:49</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:48</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:47</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:44</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:42</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:39</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:36</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:34</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:31</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:30</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:29</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:28</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:27</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:24</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:23</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:22</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:21</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:20</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:19</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:18</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:16</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:15</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:14</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:13</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:12</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:11</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:09</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:08</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:07</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:06</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:04</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:03</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:02</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:01</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:00</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:57</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:54</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:53</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:52</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:50</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:49</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:48</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:47</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:45</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:44</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:43</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:41</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:39</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:33</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:31</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:30</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:29</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:28</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:27</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:26</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:25</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:24</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:23</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:22</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:21</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:19</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:18</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:16</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:15</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:14</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:13</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:11</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:10</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:08</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:06</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:05</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:02</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:01</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:00</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:59</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:58</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:57</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:55</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:54</t>
+    <t>28</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>1342</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>1436</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>664</t>
+  </si>
+  <si>
+    <t>662</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>743</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>684</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>1765</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>771</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>2533</t>
+  </si>
+  <si>
+    <t>1491</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>1267</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>1289</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>2818</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>1277</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>2648</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>2783</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>2823</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>1465</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>3243</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>1761</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>1789</t>
+  </si>
+  <si>
+    <t>3875</t>
+  </si>
+  <si>
+    <t>1362</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>1563</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>2255</t>
+  </si>
+  <si>
+    <t>2077</t>
+  </si>
+  <si>
+    <t>635</t>
+  </si>
+  <si>
+    <t>3653</t>
+  </si>
+  <si>
+    <t>983</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>636</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>1227</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>3126</t>
+  </si>
+  <si>
+    <t>1518</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>1260</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>1882</t>
+  </si>
+  <si>
+    <t>1686</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>1423</t>
+  </si>
+  <si>
+    <t>1571</t>
+  </si>
+  <si>
+    <t>875</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>3368</t>
+  </si>
+  <si>
+    <t>1435</t>
+  </si>
+  <si>
+    <t>2217</t>
+  </si>
+  <si>
+    <t>1590</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>1378</t>
+  </si>
+  <si>
+    <t>2571</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>1044</t>
+  </si>
+  <si>
+    <t>637</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>2219</t>
+  </si>
+  <si>
+    <t>1275</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>1051</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>831</t>
+  </si>
+  <si>
+    <t>1499</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>1873</t>
+  </si>
+  <si>
+    <t>1782</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>4226</t>
+  </si>
+  <si>
+    <t>1449</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>1494</t>
+  </si>
+  <si>
+    <t>5179</t>
+  </si>
+  <si>
+    <t>1134</t>
+  </si>
+  <si>
+    <t>2058</t>
+  </si>
+  <si>
+    <t>2095</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1417</t>
+  </si>
+  <si>
+    <t>3248</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>769</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>4386</t>
+  </si>
+  <si>
+    <t>3304</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>871</t>
+  </si>
+  <si>
+    <t>1249</t>
+  </si>
+  <si>
+    <t>25538</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>793</t>
+  </si>
+  <si>
+    <t>1593</t>
+  </si>
+  <si>
+    <t>1795</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>967</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>646</t>
+  </si>
+  <si>
+    <t>1586</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>1755</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>2285</t>
+  </si>
+  <si>
+    <t>697</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>3240</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>825</t>
+  </si>
+  <si>
+    <t>1185</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>675</t>
+  </si>
+  <si>
+    <t>2972</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>2528</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>2143</t>
+  </si>
+  <si>
+    <t>1348</t>
+  </si>
+  <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>948</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>1859</t>
+  </si>
+  <si>
+    <t>1370</t>
+  </si>
+  <si>
+    <t>836</t>
+  </si>
+  <si>
+    <t>923</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>1387</t>
+  </si>
+  <si>
+    <t>1394</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>1380</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>5114</t>
+  </si>
+  <si>
+    <t>1347</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>3773</t>
+  </si>
+  <si>
+    <t>1287</t>
+  </si>
+  <si>
+    <t>2426</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>863</t>
+  </si>
+  <si>
+    <t>3985</t>
+  </si>
+  <si>
+    <t>3072</t>
+  </si>
+  <si>
+    <t>1558</t>
+  </si>
+  <si>
+    <t>1650</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1507</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>757</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>1155</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>5451</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>853</t>
+  </si>
+  <si>
+    <t>2315</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>1498</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>2472</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>3357</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17 </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>184</t>
+    <t>4</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>1107</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>741</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>923</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>1206</t>
-  </si>
-  <si>
-    <t>813</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>527</t>
-  </si>
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>509</t>
-  </si>
-  <si>
-    <t>922</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>579</t>
-  </si>
-  <si>
-    <t>1410</t>
-  </si>
-  <si>
-    <t>1265</t>
-  </si>
-  <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>2498</t>
-  </si>
-  <si>
-    <t>958</t>
-  </si>
-  <si>
-    <t>939</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>433</t>
-  </si>
-  <si>
-    <t>1550</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>1071</t>
-  </si>
-  <si>
-    <t>2958</t>
-  </si>
-  <si>
-    <t>870</t>
-  </si>
-  <si>
-    <t>1531</t>
-  </si>
-  <si>
-    <t>1562</t>
-  </si>
-  <si>
-    <t>1599</t>
-  </si>
-  <si>
-    <t>1243</t>
-  </si>
-  <si>
-    <t>2372</t>
-  </si>
-  <si>
-    <t>297</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>783</t>
-  </si>
-  <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>3395</t>
-  </si>
-  <si>
-    <t>2443</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>711</t>
-  </si>
-  <si>
-    <t>996</t>
-  </si>
-  <si>
-    <t>3759</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>713</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>688</t>
-  </si>
-  <si>
-    <t>1346</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>825</t>
-  </si>
-  <si>
-    <t>1440</t>
-  </si>
-  <si>
-    <t>1377</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>1425</t>
-  </si>
-  <si>
-    <t>755</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>1583</t>
-  </si>
-  <si>
-    <t>2142</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>2224</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>528</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>1016</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>947</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>2539</t>
-  </si>
-  <si>
-    <t>849</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>875</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>1663</t>
-  </si>
-  <si>
-    <t>1248</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>826</t>
-  </si>
-  <si>
-    <t>1734</t>
-  </si>
-  <si>
-    <t>1262</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>1258</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>819</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>664</t>
-  </si>
-  <si>
-    <t>1260</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>1752</t>
-  </si>
-  <si>
-    <t>677</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>3834</t>
-  </si>
-  <si>
-    <t>1286</t>
-  </si>
-  <si>
-    <t>786</t>
-  </si>
-  <si>
-    <t>3084</t>
-  </si>
-  <si>
-    <t>1223</t>
-  </si>
-  <si>
-    <t>2288</t>
-  </si>
-  <si>
-    <t>823</t>
-  </si>
-  <si>
-    <t>3558</t>
-  </si>
-  <si>
-    <t>2641</t>
-  </si>
-  <si>
-    <t>1421</t>
-  </si>
-  <si>
-    <t>1510</t>
-  </si>
-  <si>
-    <t>1041</t>
-  </si>
-  <si>
-    <t>1430</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>722</t>
-  </si>
-  <si>
-    <t>721</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>1088</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>4054</t>
-  </si>
-  <si>
-    <t>1076</t>
-  </si>
-  <si>
-    <t>805</t>
-  </si>
-  <si>
-    <t>2171</t>
-  </si>
-  <si>
-    <t>765</t>
-  </si>
-  <si>
-    <t>1413</t>
-  </si>
-  <si>
-    <t>477</t>
-  </si>
-  <si>
-    <t>2265</t>
-  </si>
-  <si>
-    <t>1362</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>3052</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>1197</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>448</t>
-  </si>
-  <si>
-    <t>904</t>
-  </si>
-  <si>
-    <t>912</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>581</t>
-  </si>
-  <si>
-    <t>2198</t>
-  </si>
-  <si>
-    <t>1351</t>
-  </si>
-  <si>
-    <t>991</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>1062</t>
-  </si>
-  <si>
-    <t>883</t>
-  </si>
-  <si>
-    <t>953</t>
-  </si>
-  <si>
-    <t>2045</t>
-  </si>
-  <si>
-    <t>983</t>
-  </si>
-  <si>
-    <t>2817</t>
-  </si>
-  <si>
-    <t>1098</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>1152</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>1898</t>
-  </si>
-  <si>
-    <t>2514</t>
-  </si>
-  <si>
-    <t>969</t>
-  </si>
-  <si>
-    <t>4362</t>
-  </si>
-  <si>
-    <t>1948</t>
-  </si>
-  <si>
-    <t>2145</t>
-  </si>
-  <si>
-    <t>1019</t>
-  </si>
-  <si>
-    <t>2140</t>
-  </si>
-  <si>
-    <t>1584</t>
-  </si>
-  <si>
-    <t>1487</t>
-  </si>
-  <si>
-    <t>1894</t>
-  </si>
-  <si>
-    <t>992</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>3671</t>
-  </si>
-  <si>
-    <t>1264</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
-    <t>942</t>
-  </si>
-  <si>
-    <t>1777</t>
-  </si>
-  <si>
-    <t>599</t>
-  </si>
-  <si>
-    <t>880</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>1074</t>
-  </si>
-  <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>1499</t>
-  </si>
-  <si>
-    <t>716</t>
-  </si>
-  <si>
-    <t>651</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>956</t>
-  </si>
-  <si>
-    <t>2356</t>
-  </si>
-  <si>
-    <t>1029</t>
-  </si>
-  <si>
-    <t>364</t>
-  </si>
-  <si>
-    <t>1455</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
-    <t>3211</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>919</t>
-  </si>
-  <si>
-    <t>2035</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
-    <t>2890</t>
-  </si>
-  <si>
-    <t>1329</t>
-  </si>
-  <si>
-    <t>705</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>2066</t>
-  </si>
-  <si>
-    <t>3110</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>1218</t>
-  </si>
-  <si>
-    <t>995</t>
-  </si>
-  <si>
-    <t>876</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>2039</t>
-  </si>
-  <si>
-    <t>1069</t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>1920</t>
-  </si>
-  <si>
-    <t>1168</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>1785</t>
-  </si>
-  <si>
-    <t>644</t>
-  </si>
-  <si>
-    <t>1892</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>3440</t>
-  </si>
-  <si>
-    <t>1522</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>1828</t>
-  </si>
-  <si>
-    <t>36164</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>1252</t>
-  </si>
-  <si>
-    <t>798</t>
-  </si>
-  <si>
-    <t>4542</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>796</t>
-  </si>
-  <si>
-    <t>687</t>
-  </si>
-  <si>
-    <t>374</t>
-  </si>
-  <si>
-    <t>2667</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>3493</t>
-  </si>
-  <si>
-    <t>769</t>
-  </si>
-  <si>
-    <t>1526</t>
-  </si>
-  <si>
-    <t>3889</t>
-  </si>
-  <si>
-    <t>418</t>
-  </si>
-  <si>
-    <t>4470</t>
-  </si>
-  <si>
-    <t>1065</t>
-  </si>
-  <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>1651</t>
-  </si>
-  <si>
-    <t>834</t>
-  </si>
-  <si>
-    <t>1103</t>
-  </si>
-  <si>
-    <t>822</t>
-  </si>
-  <si>
-    <t>839</t>
-  </si>
-  <si>
-    <t>964</t>
-  </si>
-  <si>
-    <t>2613</t>
-  </si>
-  <si>
-    <t>1160</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 44 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 37 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 46 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 48 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 43 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 57 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 53 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 61 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 47 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 87 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 34 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 74 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28 </t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>18</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>16</t>
@@ -2838,10 +2838,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2858,10 +2858,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D3" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2878,16 +2878,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D4" t="s">
-        <v>484</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>477</v>
+      </c>
+      <c r="E4" t="s">
+        <v>762</v>
+      </c>
+      <c r="F4" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2898,13 +2898,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D5" t="s">
-        <v>485</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>478</v>
+      </c>
+      <c r="E5" t="s">
+        <v>763</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D6" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E6" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2938,13 +2938,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E7" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D8" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E8" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D9" t="s">
-        <v>489</v>
-      </c>
-      <c r="E9" t="s">
-        <v>756</v>
+        <v>482</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>482</v>
+        <v>802</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2998,16 +2998,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D10" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="E10" t="s">
-        <v>756</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>766</v>
+      </c>
+      <c r="F10" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3018,16 +3018,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D11" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E11" t="s">
-        <v>759</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>767</v>
+      </c>
+      <c r="F11" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3038,13 +3038,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D12" t="s">
-        <v>492</v>
-      </c>
-      <c r="E12" t="s">
-        <v>756</v>
+        <v>485</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3058,13 +3058,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D13" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="E13" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3078,16 +3078,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D14" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E14" t="s">
-        <v>761</v>
-      </c>
-      <c r="F14" t="s">
-        <v>804</v>
+        <v>769</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3098,16 +3098,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D15" t="s">
-        <v>495</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+        <v>488</v>
+      </c>
+      <c r="E15" t="s">
+        <v>770</v>
+      </c>
+      <c r="F15" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3118,13 +3118,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D16" t="s">
-        <v>496</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>489</v>
+      </c>
+      <c r="E16" t="s">
+        <v>771</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3141,13 +3141,13 @@
         <v>311</v>
       </c>
       <c r="D17" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="E17" t="s">
-        <v>762</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+        <v>772</v>
+      </c>
+      <c r="F17" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3161,10 +3161,10 @@
         <v>312</v>
       </c>
       <c r="D18" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E18" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3181,10 +3181,10 @@
         <v>313</v>
       </c>
       <c r="D19" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E19" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>313</v>
       </c>
       <c r="D20" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="E20" t="s">
-        <v>756</v>
-      </c>
-      <c r="F20" t="s">
-        <v>805</v>
+        <v>763</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3218,16 +3218,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D21" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E21" t="s">
-        <v>765</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+        <v>772</v>
+      </c>
+      <c r="F21" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3238,13 +3238,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D22" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E22" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D23" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E23" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D24" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E24" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3298,16 +3298,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D25" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E25" t="s">
-        <v>768</v>
-      </c>
-      <c r="F25" t="s">
-        <v>806</v>
+        <v>771</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3318,13 +3318,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D26" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="E26" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3338,13 +3338,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D27" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E27" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3358,13 +3358,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D28" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E28" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3378,13 +3378,13 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D29" t="s">
-        <v>509</v>
-      </c>
-      <c r="E29" t="s">
-        <v>757</v>
+        <v>502</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3398,16 +3398,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D30" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E30" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="F30" t="s">
-        <v>482</v>
+        <v>803</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3418,13 +3418,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D31" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E31" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3438,16 +3438,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D32" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E32" t="s">
-        <v>758</v>
-      </c>
-      <c r="F32" t="s">
-        <v>482</v>
+        <v>764</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3458,13 +3458,13 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D33" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E33" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3478,16 +3478,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D34" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E34" t="s">
-        <v>770</v>
-      </c>
-      <c r="F34" t="s">
-        <v>482</v>
+        <v>774</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3498,16 +3498,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D35" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E35" t="s">
-        <v>762</v>
-      </c>
-      <c r="F35" t="s">
-        <v>482</v>
+        <v>764</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3518,13 +3518,13 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D36" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E36" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3538,13 +3538,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D37" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E37" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3558,16 +3558,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D38" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E38" t="s">
-        <v>773</v>
-      </c>
-      <c r="F38" t="s">
-        <v>482</v>
+        <v>763</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3578,13 +3578,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D39" t="s">
-        <v>519</v>
-      </c>
-      <c r="E39" t="s">
-        <v>769</v>
+        <v>512</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3598,16 +3598,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D40" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E40" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="F40" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3618,13 +3618,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D41" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E41" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D42" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E42" t="s">
-        <v>775</v>
-      </c>
-      <c r="F42" t="s">
-        <v>482</v>
+        <v>763</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3658,16 +3658,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D43" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="E43" t="s">
-        <v>760</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
+        <v>777</v>
+      </c>
+      <c r="F43" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3678,16 +3678,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D44" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E44" t="s">
-        <v>767</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
+        <v>777</v>
+      </c>
+      <c r="F44" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3698,13 +3698,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D45" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E45" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -3718,13 +3718,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D46" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="E46" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -3738,13 +3738,13 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D47" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E47" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3758,13 +3758,13 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D48" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E48" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3778,13 +3778,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D49" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E49" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3798,13 +3798,13 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D50" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E50" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D51" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E51" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3841,10 +3841,10 @@
         <v>330</v>
       </c>
       <c r="D52" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="E52" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3861,10 +3861,10 @@
         <v>331</v>
       </c>
       <c r="D53" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="E53" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>332</v>
       </c>
       <c r="D54" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="E54" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3898,13 +3898,13 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D55" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="E55" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3918,16 +3918,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D56" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E56" t="s">
-        <v>757</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
+        <v>777</v>
+      </c>
+      <c r="F56" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3941,13 +3941,13 @@
         <v>334</v>
       </c>
       <c r="D57" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E57" t="s">
-        <v>762</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
+        <v>777</v>
+      </c>
+      <c r="F57" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3958,13 +3958,13 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D58" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E58" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3978,13 +3978,13 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D59" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E59" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4001,10 +4001,10 @@
         <v>336</v>
       </c>
       <c r="D60" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E60" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>336</v>
       </c>
       <c r="D61" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E61" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4041,10 +4041,10 @@
         <v>336</v>
       </c>
       <c r="D62" t="s">
-        <v>541</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
+        <v>535</v>
+      </c>
+      <c r="E62" t="s">
+        <v>763</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -4061,10 +4061,10 @@
         <v>337</v>
       </c>
       <c r="D63" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="E63" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -4078,13 +4078,13 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D64" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E64" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4098,13 +4098,13 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D65" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E65" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -4118,16 +4118,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D66" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E66" t="s">
-        <v>779</v>
-      </c>
-      <c r="F66" t="s">
-        <v>804</v>
+        <v>777</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4138,13 +4138,13 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D67" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E67" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4158,13 +4158,13 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D68" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E68" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4178,16 +4178,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D69" t="s">
-        <v>504</v>
-      </c>
-      <c r="E69" t="s">
-        <v>762</v>
-      </c>
-      <c r="F69" t="s">
-        <v>808</v>
+        <v>542</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4198,13 +4198,13 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D70" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E70" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4218,13 +4218,13 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D71" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E71" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4238,13 +4238,13 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D72" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E72" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4258,16 +4258,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D73" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E73" t="s">
-        <v>780</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
+        <v>782</v>
+      </c>
+      <c r="F73" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4278,13 +4278,13 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D74" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E74" t="s">
-        <v>762</v>
+        <v>783</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4298,13 +4298,13 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D75" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E75" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4318,13 +4318,13 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D76" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E76" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4338,16 +4338,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D77" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E77" t="s">
         <v>781</v>
       </c>
-      <c r="F77" t="s">
-        <v>808</v>
+      <c r="F77">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4358,13 +4358,13 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D78" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E78" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -4378,16 +4378,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D79" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E79" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F79" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4398,13 +4398,13 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D80" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E80" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4415,19 +4415,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D81" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E81" t="s">
-        <v>774</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
+        <v>763</v>
+      </c>
+      <c r="F81" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4435,19 +4435,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D82" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E82" t="s">
-        <v>770</v>
-      </c>
-      <c r="F82" t="s">
-        <v>808</v>
+        <v>784</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4455,16 +4455,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D83" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="E83" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4475,19 +4475,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D84" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E84" t="s">
-        <v>761</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
+        <v>771</v>
+      </c>
+      <c r="F84" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4495,19 +4495,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D85" t="s">
-        <v>561</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
+        <v>558</v>
+      </c>
+      <c r="E85" t="s">
+        <v>781</v>
       </c>
       <c r="F85" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4515,19 +4515,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D86" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E86" t="s">
-        <v>769</v>
-      </c>
-      <c r="F86" t="s">
-        <v>482</v>
+        <v>786</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4535,19 +4535,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D87" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E87" t="s">
-        <v>782</v>
-      </c>
-      <c r="F87" t="s">
-        <v>809</v>
+        <v>783</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4555,16 +4555,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D88" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E88" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4575,16 +4575,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D89" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E89" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D90" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E90" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4615,19 +4615,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D91" t="s">
-        <v>567</v>
+        <v>497</v>
       </c>
       <c r="E91" t="s">
-        <v>769</v>
-      </c>
-      <c r="F91" t="s">
-        <v>810</v>
+        <v>765</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4635,19 +4635,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D92" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E92" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F92" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4655,13 +4655,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D93" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E93" t="s">
         <v>766</v>
@@ -4675,16 +4675,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D94" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E94" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -4695,19 +4695,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D95" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E95" t="s">
-        <v>774</v>
-      </c>
-      <c r="F95" t="s">
-        <v>804</v>
+        <v>766</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4715,16 +4715,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D96" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E96" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4735,16 +4735,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D97" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E97" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4755,16 +4755,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D98" t="s">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="E98" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -4775,19 +4775,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D99" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E99" t="s">
-        <v>764</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
+        <v>787</v>
+      </c>
+      <c r="F99" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4795,19 +4795,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D100" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E100" t="s">
-        <v>759</v>
-      </c>
-      <c r="F100" t="s">
-        <v>804</v>
+        <v>762</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4815,19 +4815,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D101" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E101" t="s">
-        <v>759</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
+        <v>785</v>
+      </c>
+      <c r="F101" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4835,19 +4835,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D102" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E102" t="s">
-        <v>760</v>
-      </c>
-      <c r="F102" t="s">
-        <v>804</v>
+        <v>767</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4855,19 +4855,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D103" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E103" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="F103" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4875,19 +4875,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D104" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E104" t="s">
-        <v>756</v>
-      </c>
-      <c r="F104" t="s">
-        <v>482</v>
+        <v>766</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4895,19 +4895,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D105" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E105" t="s">
-        <v>767</v>
-      </c>
-      <c r="F105" t="s">
-        <v>482</v>
+        <v>783</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4915,16 +4915,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D106" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E106" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -4935,19 +4935,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D107" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E107" t="s">
-        <v>785</v>
-      </c>
-      <c r="F107" t="s">
-        <v>807</v>
+        <v>764</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4955,16 +4955,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="D108" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E108" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -4975,16 +4975,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D109" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E109" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -4995,16 +4995,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D110" t="s">
-        <v>551</v>
+        <v>582</v>
       </c>
       <c r="E110" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5015,16 +5015,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D111" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E111" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -5035,16 +5035,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D112" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E112" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -5055,16 +5055,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D113" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E113" t="s">
-        <v>786</v>
+        <v>762</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -5075,19 +5075,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D114" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E114" t="s">
-        <v>768</v>
-      </c>
-      <c r="F114" t="s">
-        <v>482</v>
+        <v>764</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5095,19 +5095,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D115" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E115" t="s">
-        <v>760</v>
-      </c>
-      <c r="F115" t="s">
-        <v>482</v>
+        <v>775</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5115,16 +5115,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D116" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E116" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -5135,19 +5135,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D117" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E117" t="s">
-        <v>760</v>
-      </c>
-      <c r="F117" t="s">
-        <v>482</v>
+        <v>772</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5155,19 +5155,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D118" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E118" t="s">
-        <v>767</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
+        <v>772</v>
+      </c>
+      <c r="F118" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5175,16 +5175,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D119" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E119" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -5195,16 +5195,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D120" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E120" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -5215,19 +5215,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D121" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E121" t="s">
-        <v>760</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
+        <v>765</v>
+      </c>
+      <c r="F121" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5235,16 +5235,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D122" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E122" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -5255,16 +5255,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D123" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E123" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -5275,16 +5275,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D124" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E124" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -5295,16 +5295,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D125" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E125" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -5315,16 +5315,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D126" t="s">
-        <v>600</v>
+        <v>526</v>
       </c>
       <c r="E126" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -5335,16 +5335,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D127" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E127" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -5355,19 +5355,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D128" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E128" t="s">
-        <v>767</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
+        <v>789</v>
+      </c>
+      <c r="F128" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5375,19 +5375,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D129" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E129" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F129" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5395,16 +5395,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D130" t="s">
-        <v>604</v>
-      </c>
-      <c r="E130" t="s">
-        <v>788</v>
+        <v>601</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -5415,19 +5415,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D131" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E131" t="s">
-        <v>789</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
+        <v>790</v>
+      </c>
+      <c r="F131" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5435,16 +5435,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D132" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E132" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -5455,13 +5455,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D133" t="s">
-        <v>558</v>
+        <v>604</v>
       </c>
       <c r="E133" t="s">
         <v>774</v>
@@ -5475,16 +5475,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D134" t="s">
-        <v>607</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="E134" t="s">
+        <v>783</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -5495,16 +5495,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D135" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E135" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -5515,19 +5515,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D136" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E136" t="s">
-        <v>759</v>
-      </c>
-      <c r="F136" t="s">
-        <v>482</v>
+        <v>763</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5535,16 +5535,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D137" t="s">
-        <v>497</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
+        <v>608</v>
+      </c>
+      <c r="E137" t="s">
+        <v>763</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -5555,16 +5555,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D138" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="E138" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -5575,19 +5575,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D139" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E139" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="F139" t="s">
-        <v>482</v>
+        <v>803</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5595,16 +5595,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D140" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E140" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -5615,19 +5615,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D141" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E141" t="s">
-        <v>791</v>
-      </c>
-      <c r="F141" t="s">
-        <v>804</v>
+        <v>762</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5635,19 +5635,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D142" t="s">
-        <v>598</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
+        <v>612</v>
+      </c>
+      <c r="E142" t="s">
+        <v>772</v>
       </c>
       <c r="F142" t="s">
-        <v>482</v>
+        <v>803</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5655,16 +5655,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D143" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E143" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -5675,19 +5675,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D144" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E144" t="s">
         <v>787</v>
       </c>
       <c r="F144" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5695,16 +5695,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D145" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E145" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -5715,16 +5715,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D146" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E146" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -5735,19 +5735,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D147" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E147" t="s">
-        <v>775</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
+        <v>772</v>
+      </c>
+      <c r="F147" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5755,16 +5755,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D148" t="s">
-        <v>619</v>
-      </c>
-      <c r="E148" t="s">
-        <v>758</v>
+        <v>618</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -5775,16 +5775,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D149" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E149" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -5795,16 +5795,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D150" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E150" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -5815,16 +5815,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D151" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E151" t="s">
-        <v>758</v>
+        <v>779</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -5835,16 +5835,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D152" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E152" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -5855,19 +5855,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D153" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E153" t="s">
-        <v>768</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
+        <v>763</v>
+      </c>
+      <c r="F153" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5875,19 +5875,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D154" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E154" t="s">
-        <v>776</v>
-      </c>
-      <c r="F154" t="s">
-        <v>804</v>
+        <v>788</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5895,19 +5895,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D155" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E155" t="s">
-        <v>760</v>
-      </c>
-      <c r="F155" t="s">
-        <v>804</v>
+        <v>774</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5915,16 +5915,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D156" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E156" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -5935,16 +5935,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D157" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E157" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -5955,19 +5955,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D158" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E158" t="s">
-        <v>776</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
+        <v>768</v>
+      </c>
+      <c r="F158" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5975,19 +5975,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D159" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E159" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
       <c r="F159" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5995,16 +5995,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D160" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E160" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -6015,16 +6015,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D161" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E161" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -6035,16 +6035,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D162" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E162" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -6055,19 +6055,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D163" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E163" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="F163" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -6075,16 +6075,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D164" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E164" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -6095,19 +6095,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D165" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E165" t="s">
-        <v>776</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
+        <v>762</v>
+      </c>
+      <c r="F165" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -6115,16 +6115,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D166" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E166" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -6135,19 +6135,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D167" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E167" t="s">
-        <v>759</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
+        <v>786</v>
+      </c>
+      <c r="F167" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -6155,19 +6155,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D168" t="s">
-        <v>510</v>
+        <v>638</v>
       </c>
       <c r="E168" t="s">
-        <v>760</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
+        <v>763</v>
+      </c>
+      <c r="F168" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -6175,16 +6175,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D169" t="s">
-        <v>639</v>
+        <v>496</v>
       </c>
       <c r="E169" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -6195,16 +6195,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D170" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E170" t="s">
-        <v>756</v>
+        <v>783</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -6215,19 +6215,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D171" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E171" t="s">
-        <v>759</v>
-      </c>
-      <c r="F171">
-        <v>0</v>
+        <v>792</v>
+      </c>
+      <c r="F171" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -6235,16 +6235,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D172" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E172" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -6255,19 +6255,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D173" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E173" t="s">
-        <v>776</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
+        <v>766</v>
+      </c>
+      <c r="F173" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -6275,16 +6275,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D174" t="s">
-        <v>644</v>
+        <v>515</v>
       </c>
       <c r="E174" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -6295,19 +6295,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D175" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E175" t="s">
-        <v>761</v>
-      </c>
-      <c r="F175">
-        <v>0</v>
+        <v>784</v>
+      </c>
+      <c r="F175" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -6315,16 +6315,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D176" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E176" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -6335,16 +6335,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D177" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E177" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -6355,19 +6355,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D178" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E178" t="s">
-        <v>758</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
+        <v>774</v>
+      </c>
+      <c r="F178" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -6375,19 +6375,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D179" t="s">
-        <v>551</v>
+        <v>647</v>
       </c>
       <c r="E179" t="s">
-        <v>781</v>
-      </c>
-      <c r="F179" t="s">
-        <v>482</v>
+        <v>783</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -6395,16 +6395,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D180" t="s">
-        <v>581</v>
+        <v>648</v>
       </c>
       <c r="E180" t="s">
-        <v>757</v>
+        <v>781</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -6415,16 +6415,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D181" t="s">
         <v>649</v>
       </c>
       <c r="E181" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -6435,19 +6435,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D182" t="s">
         <v>650</v>
       </c>
       <c r="E182" t="s">
-        <v>792</v>
-      </c>
-      <c r="F182" t="s">
-        <v>808</v>
+        <v>793</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -6455,19 +6455,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D183" t="s">
         <v>651</v>
       </c>
       <c r="E183" t="s">
-        <v>793</v>
-      </c>
-      <c r="F183" t="s">
-        <v>804</v>
+        <v>766</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -6475,16 +6475,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D184" t="s">
-        <v>593</v>
+        <v>652</v>
       </c>
       <c r="E184" t="s">
-        <v>766</v>
+        <v>794</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -6495,16 +6495,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D185" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E185" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -6515,16 +6515,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D186" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E186" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -6535,16 +6535,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D187" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E187" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -6555,16 +6555,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D188" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E188" t="s">
-        <v>794</v>
+        <v>771</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -6575,16 +6575,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D189" t="s">
-        <v>656</v>
+        <v>558</v>
       </c>
       <c r="E189" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -6595,16 +6595,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D190" t="s">
         <v>657</v>
       </c>
       <c r="E190" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -6615,16 +6615,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D191" t="s">
         <v>658</v>
       </c>
       <c r="E191" t="s">
-        <v>772</v>
+        <v>795</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -6635,16 +6635,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D192" t="s">
         <v>659</v>
       </c>
       <c r="E192" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -6655,16 +6655,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D193" t="s">
         <v>660</v>
       </c>
       <c r="E193" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -6675,16 +6675,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D194" t="s">
         <v>661</v>
       </c>
       <c r="E194" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -6695,16 +6695,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D195" t="s">
-        <v>662</v>
-      </c>
-      <c r="E195" t="s">
-        <v>775</v>
+        <v>482</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -6715,16 +6715,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D196" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E196" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -6735,13 +6735,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C197" t="s">
         <v>415</v>
       </c>
       <c r="D197" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E197" t="s">
         <v>766</v>
@@ -6755,16 +6755,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D198" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E198" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -6775,19 +6775,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D199" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E199" t="s">
-        <v>790</v>
-      </c>
-      <c r="F199">
-        <v>0</v>
+        <v>796</v>
+      </c>
+      <c r="F199" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -6795,16 +6795,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D200" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E200" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -6815,16 +6815,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D201" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E201" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -6835,19 +6835,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D202" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E202" t="s">
-        <v>789</v>
-      </c>
-      <c r="F202">
-        <v>0</v>
+        <v>763</v>
+      </c>
+      <c r="F202" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -6855,16 +6855,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D203" t="s">
-        <v>670</v>
-      </c>
-      <c r="E203">
-        <v>0</v>
+        <v>669</v>
+      </c>
+      <c r="E203" t="s">
+        <v>764</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -6875,19 +6875,19 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D204" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E204" t="s">
-        <v>775</v>
-      </c>
-      <c r="F204" t="s">
-        <v>809</v>
+        <v>769</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -6895,16 +6895,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D205" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E205" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -6915,16 +6915,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D206" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E206" t="s">
-        <v>769</v>
+        <v>797</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -6935,16 +6935,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D207" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E207" t="s">
-        <v>790</v>
+        <v>763</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -6955,16 +6955,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D208" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E208" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -6975,16 +6975,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D209" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E209" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -6995,19 +6995,19 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D210" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E210" t="s">
-        <v>776</v>
-      </c>
-      <c r="F210">
-        <v>0</v>
+        <v>772</v>
+      </c>
+      <c r="F210" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -7015,16 +7015,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D211" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E211" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -7035,19 +7035,19 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D212" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E212" t="s">
-        <v>760</v>
-      </c>
-      <c r="F212">
-        <v>0</v>
+        <v>776</v>
+      </c>
+      <c r="F212" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -7055,19 +7055,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D213" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E213" t="s">
-        <v>769</v>
-      </c>
-      <c r="F213">
-        <v>0</v>
+        <v>762</v>
+      </c>
+      <c r="F213" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -7075,16 +7075,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D214" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E214" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -7095,19 +7095,19 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D215" t="s">
-        <v>573</v>
+        <v>681</v>
       </c>
       <c r="E215" t="s">
-        <v>774</v>
-      </c>
-      <c r="F215">
-        <v>0</v>
+        <v>776</v>
+      </c>
+      <c r="F215" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -7115,16 +7115,16 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D216" t="s">
-        <v>682</v>
+        <v>624</v>
       </c>
       <c r="E216" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -7135,19 +7135,19 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C217" t="s">
         <v>427</v>
       </c>
       <c r="D217" t="s">
-        <v>683</v>
+        <v>584</v>
       </c>
       <c r="E217" t="s">
-        <v>766</v>
-      </c>
-      <c r="F217" t="s">
-        <v>482</v>
+        <v>767</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -7155,19 +7155,19 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C218" t="s">
         <v>428</v>
       </c>
       <c r="D218" t="s">
-        <v>633</v>
-      </c>
-      <c r="E218" t="s">
-        <v>757</v>
-      </c>
-      <c r="F218">
-        <v>0</v>
+        <v>682</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -7175,19 +7175,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C219" t="s">
         <v>428</v>
       </c>
       <c r="D219" t="s">
-        <v>684</v>
-      </c>
-      <c r="E219">
-        <v>0</v>
-      </c>
-      <c r="F219">
-        <v>0</v>
+        <v>683</v>
+      </c>
+      <c r="E219" t="s">
+        <v>781</v>
+      </c>
+      <c r="F219" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -7195,19 +7195,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="C220" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D220" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E220" t="s">
-        <v>764</v>
-      </c>
-      <c r="F220">
-        <v>0</v>
+        <v>790</v>
+      </c>
+      <c r="F220" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -7215,16 +7215,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D221" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E221" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -7235,16 +7235,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D222" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E222" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -7255,16 +7255,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D223" t="s">
-        <v>542</v>
+        <v>687</v>
       </c>
       <c r="E223" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -7275,19 +7275,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D224" t="s">
-        <v>580</v>
+        <v>688</v>
       </c>
       <c r="E224" t="s">
-        <v>762</v>
-      </c>
-      <c r="F224">
-        <v>0</v>
+        <v>781</v>
+      </c>
+      <c r="F224" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -7295,19 +7295,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C225" t="s">
         <v>431</v>
       </c>
       <c r="D225" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E225" t="s">
-        <v>767</v>
-      </c>
-      <c r="F225">
-        <v>0</v>
+        <v>798</v>
+      </c>
+      <c r="F225" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -7315,16 +7315,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C226" t="s">
         <v>432</v>
       </c>
       <c r="D226" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E226" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -7335,19 +7335,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D227" t="s">
-        <v>690</v>
-      </c>
-      <c r="E227">
-        <v>0</v>
-      </c>
-      <c r="F227" t="s">
-        <v>808</v>
+        <v>691</v>
+      </c>
+      <c r="E227" t="s">
+        <v>773</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -7355,19 +7355,19 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D228" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="E228" t="s">
-        <v>757</v>
-      </c>
-      <c r="F228">
-        <v>0</v>
+        <v>777</v>
+      </c>
+      <c r="F228" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -7375,16 +7375,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D229" t="s">
-        <v>594</v>
+        <v>693</v>
       </c>
       <c r="E229" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -7395,16 +7395,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D230" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="E230" t="s">
-        <v>757</v>
+        <v>799</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -7415,16 +7415,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D231" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E231" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -7435,16 +7435,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D232" t="s">
-        <v>564</v>
-      </c>
-      <c r="E232">
-        <v>0</v>
+        <v>696</v>
+      </c>
+      <c r="E232" t="s">
+        <v>772</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -7455,19 +7455,19 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D233" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E233" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
       <c r="F233" t="s">
-        <v>482</v>
+        <v>801</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -7475,16 +7475,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D234" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="E234" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -7495,19 +7495,19 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D235" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="E235" t="s">
-        <v>759</v>
-      </c>
-      <c r="F235">
-        <v>0</v>
+        <v>764</v>
+      </c>
+      <c r="F235" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -7515,19 +7515,19 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D236" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="E236" t="s">
-        <v>776</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
+        <v>796</v>
+      </c>
+      <c r="F236" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -7535,19 +7535,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D237" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="E237" t="s">
-        <v>761</v>
-      </c>
-      <c r="F237">
-        <v>0</v>
+        <v>773</v>
+      </c>
+      <c r="F237" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -7555,19 +7555,19 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D238" t="s">
-        <v>530</v>
+        <v>702</v>
       </c>
       <c r="E238" t="s">
-        <v>761</v>
-      </c>
-      <c r="F238">
-        <v>0</v>
+        <v>774</v>
+      </c>
+      <c r="F238" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -7575,19 +7575,19 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D239" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="E239" t="s">
-        <v>796</v>
-      </c>
-      <c r="F239" t="s">
-        <v>482</v>
+        <v>771</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -7595,19 +7595,19 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D240" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="E240" t="s">
-        <v>765</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
+        <v>783</v>
+      </c>
+      <c r="F240" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -7615,16 +7615,16 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D241" t="s">
-        <v>587</v>
+        <v>705</v>
       </c>
       <c r="E241" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -7635,16 +7635,16 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D242" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="E242" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -7655,19 +7655,19 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D243" t="s">
-        <v>568</v>
+        <v>707</v>
       </c>
       <c r="E243" t="s">
-        <v>797</v>
-      </c>
-      <c r="F243" t="s">
-        <v>804</v>
+        <v>781</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -7675,16 +7675,16 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D244" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="E244" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -7695,16 +7695,16 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D245" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="E245" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -7715,16 +7715,16 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D246" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="E246" t="s">
-        <v>767</v>
+        <v>787</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -7735,19 +7735,19 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D247" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="E247" t="s">
-        <v>781</v>
-      </c>
-      <c r="F247">
-        <v>0</v>
+        <v>768</v>
+      </c>
+      <c r="F247" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -7755,19 +7755,19 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D248" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="E248" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="F248" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -7775,16 +7775,16 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D249" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="E249" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -7795,19 +7795,19 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D250" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="E250" t="s">
-        <v>799</v>
-      </c>
-      <c r="F250">
-        <v>0</v>
+        <v>764</v>
+      </c>
+      <c r="F250" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -7815,16 +7815,16 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D251" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="E251" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -7835,16 +7835,16 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D252" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="E252" t="s">
-        <v>759</v>
+        <v>786</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -7855,13 +7855,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D253" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="E253" t="s">
         <v>764</v>
@@ -7875,19 +7875,19 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D254" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="E254" t="s">
-        <v>764</v>
-      </c>
-      <c r="F254" t="s">
-        <v>482</v>
+        <v>773</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -7895,16 +7895,16 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D255" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="E255" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -7915,16 +7915,16 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D256" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="E256" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -7935,16 +7935,16 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C257" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D257" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="E257" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -7955,16 +7955,16 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D258" t="s">
-        <v>714</v>
+        <v>596</v>
       </c>
       <c r="E258" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -7975,19 +7975,19 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D259" t="s">
-        <v>715</v>
+        <v>604</v>
       </c>
       <c r="E259" t="s">
-        <v>781</v>
-      </c>
-      <c r="F259" t="s">
-        <v>482</v>
+        <v>774</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -7995,16 +7995,16 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D260" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="E260" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -8015,19 +8015,19 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D261" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="E261" t="s">
-        <v>772</v>
-      </c>
-      <c r="F261">
-        <v>0</v>
+        <v>770</v>
+      </c>
+      <c r="F261" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -8035,16 +8035,16 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D262" t="s">
-        <v>614</v>
+        <v>724</v>
       </c>
       <c r="E262" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -8055,16 +8055,16 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D263" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="E263" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -8075,16 +8075,16 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D264" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="E264" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -8095,19 +8095,19 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D265" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E265" t="s">
-        <v>801</v>
-      </c>
-      <c r="F265" t="s">
-        <v>804</v>
+        <v>777</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -8115,16 +8115,16 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D266" t="s">
-        <v>721</v>
-      </c>
-      <c r="E266" t="s">
-        <v>758</v>
+        <v>728</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -8135,16 +8135,16 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D267" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E267" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -8155,19 +8155,19 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D268" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="E268" t="s">
-        <v>758</v>
-      </c>
-      <c r="F268">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="F268" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -8175,19 +8175,19 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D269" t="s">
-        <v>724</v>
-      </c>
-      <c r="E269" t="s">
-        <v>790</v>
-      </c>
-      <c r="F269" t="s">
-        <v>808</v>
+        <v>591</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -8195,16 +8195,16 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D270" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="E270" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -8215,19 +8215,19 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C271" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D271" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="E271" t="s">
-        <v>760</v>
-      </c>
-      <c r="F271">
-        <v>0</v>
+        <v>775</v>
+      </c>
+      <c r="F271" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -8235,13 +8235,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D272" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="E272" t="s">
         <v>765</v>
@@ -8255,19 +8255,19 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D273" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="E273" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="F273" t="s">
-        <v>482</v>
+        <v>801</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -8275,19 +8275,19 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D274" t="s">
-        <v>729</v>
-      </c>
-      <c r="E274" t="s">
-        <v>766</v>
-      </c>
-      <c r="F274">
-        <v>0</v>
+        <v>735</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -8295,16 +8295,16 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D275" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="E275" t="s">
-        <v>800</v>
+        <v>773</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -8315,19 +8315,19 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D276" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="E276" t="s">
-        <v>774</v>
-      </c>
-      <c r="F276">
-        <v>0</v>
+        <v>770</v>
+      </c>
+      <c r="F276" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -8335,16 +8335,16 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D277" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="E277" t="s">
-        <v>800</v>
+        <v>768</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -8355,19 +8355,19 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D278" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="E278" t="s">
-        <v>796</v>
-      </c>
-      <c r="F278" t="s">
-        <v>807</v>
+        <v>766</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -8375,16 +8375,16 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D279" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E279" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -8395,16 +8395,16 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D280" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="E280" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -8415,16 +8415,16 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D281" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="E281" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -8435,16 +8435,16 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D282" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="E282" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -8455,16 +8455,16 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D283" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="E283" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -8475,19 +8475,19 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D284" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="E284" t="s">
-        <v>758</v>
-      </c>
-      <c r="F284" t="s">
-        <v>482</v>
+        <v>767</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -8495,16 +8495,16 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D285" t="s">
-        <v>740</v>
+        <v>570</v>
       </c>
       <c r="E285" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -8515,19 +8515,19 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D286" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="E286" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="F286" t="s">
-        <v>482</v>
+        <v>801</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -8535,19 +8535,19 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D287" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="E287" t="s">
-        <v>781</v>
-      </c>
-      <c r="F287">
-        <v>0</v>
+        <v>764</v>
+      </c>
+      <c r="F287" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -8555,19 +8555,19 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D288" t="s">
-        <v>743</v>
-      </c>
-      <c r="E288">
-        <v>0</v>
-      </c>
-      <c r="F288" t="s">
-        <v>482</v>
+        <v>748</v>
+      </c>
+      <c r="E288" t="s">
+        <v>764</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -8575,16 +8575,16 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D289" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="E289" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -8595,16 +8595,16 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D290" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="E290" t="s">
-        <v>764</v>
+        <v>793</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -8615,19 +8615,19 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D291" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="E291" t="s">
-        <v>762</v>
-      </c>
-      <c r="F291">
-        <v>0</v>
+        <v>769</v>
+      </c>
+      <c r="F291" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -8635,16 +8635,16 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D292" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="E292" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -8655,19 +8655,19 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D293" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="E293" t="s">
-        <v>760</v>
-      </c>
-      <c r="F293" t="s">
-        <v>804</v>
+        <v>778</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -8675,16 +8675,16 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D294" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
       <c r="E294" t="s">
-        <v>760</v>
+        <v>793</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="C295" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D295" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="E295" t="s">
-        <v>760</v>
-      </c>
-      <c r="F295">
-        <v>0</v>
+        <v>773</v>
+      </c>
+      <c r="F295" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -8715,16 +8715,16 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C296" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D296" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="E296" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -8735,16 +8735,16 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C297" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D297" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="E297" t="s">
-        <v>758</v>
+        <v>793</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -8755,16 +8755,16 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C298" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D298" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="E298" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -8775,16 +8775,16 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C299" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D299" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="E299" t="s">
-        <v>779</v>
+        <v>800</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -8795,19 +8795,19 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C300" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D300" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="E300" t="s">
-        <v>775</v>
-      </c>
-      <c r="F300" t="s">
-        <v>482</v>
+        <v>764</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -8815,16 +8815,16 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C301" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D301" t="s">
-        <v>755</v>
-      </c>
-      <c r="E301">
-        <v>0</v>
+        <v>761</v>
+      </c>
+      <c r="E301" t="s">
+        <v>777</v>
       </c>
       <c r="F301">
         <v>0</v>
